--- a/temp/file.xlsx
+++ b/temp/file.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="204222-001000" sheetId="1" r:id="rId4"/>
+    <sheet name="204100-003000" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="141">
   <si>
     <t>รายชื่อนักศึกษาที่ลงทะเบียนเรียน ภาคเรียนที่ 2 ปีการศึกษา 2557</t>
   </si>
@@ -23,25 +23,25 @@
     <t xml:space="preserve">  COURSE NO :</t>
   </si>
   <si>
-    <t xml:space="preserve">                 204222</t>
+    <t xml:space="preserve">                 204100</t>
   </si>
   <si>
     <t xml:space="preserve">  TITLE :</t>
   </si>
   <si>
-    <t xml:space="preserve">                 FUND OF DATABASE SYSTEMS</t>
+    <t xml:space="preserve">                 IT AND MODERN LIFE                                </t>
   </si>
   <si>
     <t xml:space="preserve">  SECTION (lec/lab) :</t>
   </si>
   <si>
-    <t xml:space="preserve">                 001/000</t>
+    <t xml:space="preserve">                 003/000</t>
   </si>
   <si>
     <t xml:space="preserve">  LECTURER :</t>
   </si>
   <si>
-    <t xml:space="preserve">                 วิจักษณ์   ศรีสัจจะเลิศวาจา</t>
+    <t xml:space="preserve">                 พรรณิภา   ไพบูลย์นิมิตร</t>
   </si>
   <si>
     <t xml:space="preserve">  DATE :</t>
@@ -59,145 +59,385 @@
     <t>ชื่อ - นามสกุล</t>
   </si>
   <si>
+    <t>นายดำรงฤทธิ์</t>
+  </si>
+  <si>
+    <t>ฤทธิบุตร</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                 </t>
+  </si>
+  <si>
+    <t>นางสาวกมลวรรณ</t>
+  </si>
+  <si>
+    <t>โฆษวรรธนะ</t>
+  </si>
+  <si>
+    <t>นายธีรภัทร</t>
+  </si>
+  <si>
+    <t>สุปรียธิติกุล</t>
+  </si>
+  <si>
+    <t>นางสาววันวัสสา</t>
+  </si>
+  <si>
+    <t>ประดิษฐ</t>
+  </si>
+  <si>
+    <t>นายอรรถพล</t>
+  </si>
+  <si>
+    <t>พิมลนาฏ</t>
+  </si>
+  <si>
+    <t>นางสาวศุกลภัทร</t>
+  </si>
+  <si>
+    <t>ฝูงดี</t>
+  </si>
+  <si>
+    <t>นายศตวรรษ</t>
+  </si>
+  <si>
+    <t>ลัดดาวงศ์</t>
+  </si>
+  <si>
+    <t>นางสาวสุจรรย์จิรา</t>
+  </si>
+  <si>
+    <t>เทียบวงศ์หล้า</t>
+  </si>
+  <si>
+    <t>นางสาวสุทธิพร</t>
+  </si>
+  <si>
+    <t>นิเปยนิ</t>
+  </si>
+  <si>
     <t>นางสาวกมลชนก</t>
   </si>
   <si>
-    <t>ทะป๋าน</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                 </t>
-  </si>
-  <si>
-    <t>นายกวินวิชญ์</t>
-  </si>
-  <si>
-    <t>บุบผาชื่น</t>
-  </si>
-  <si>
-    <t>นางสาวกัญญาณัฐ</t>
-  </si>
-  <si>
-    <t>เชียงทา</t>
-  </si>
-  <si>
-    <t>นางสาวกัญพิชชาพร</t>
-  </si>
-  <si>
-    <t>ดวงดี</t>
-  </si>
-  <si>
-    <t>นางสาวเกษราภรณ์</t>
-  </si>
-  <si>
-    <t>คำมิธรรม</t>
+    <t>วรรณสุ</t>
+  </si>
+  <si>
+    <t>นายณพัชร</t>
+  </si>
+  <si>
+    <t>บรรลือ</t>
+  </si>
+  <si>
+    <t>นางสาวศิริญา</t>
+  </si>
+  <si>
+    <t>มายัง</t>
+  </si>
+  <si>
+    <t>นางสาวชนิสรา</t>
+  </si>
+  <si>
+    <t>ใจมา</t>
+  </si>
+  <si>
+    <t>นางสาวญาสุมินทร์</t>
+  </si>
+  <si>
+    <t>ไชยเสริฐ</t>
+  </si>
+  <si>
+    <t>นางสาวณัฐพร</t>
+  </si>
+  <si>
+    <t>ปาอิน</t>
+  </si>
+  <si>
+    <t>นางสาวนันทิกานต์</t>
+  </si>
+  <si>
+    <t>สวยสม</t>
+  </si>
+  <si>
+    <t>นางสาวพิชญา</t>
+  </si>
+  <si>
+    <t>มาวงค์</t>
+  </si>
+  <si>
+    <t>นางสาวพุทธิดา</t>
+  </si>
+  <si>
+    <t>แก้วเมืองเพชร</t>
+  </si>
+  <si>
+    <t>นางสาวแพรพรรณ</t>
+  </si>
+  <si>
+    <t>สมณา</t>
+  </si>
+  <si>
+    <t>นางสาวแพรวไพลิน</t>
+  </si>
+  <si>
+    <t>จิตรัตน์</t>
+  </si>
+  <si>
+    <t>นางสาวภัทรภร</t>
+  </si>
+  <si>
+    <t>วงศ์ใหญ่</t>
+  </si>
+  <si>
+    <t>นางสาวภาณุมาศ</t>
+  </si>
+  <si>
+    <t>คำอ่อง</t>
+  </si>
+  <si>
+    <t>นางสาวภานุชนาถ</t>
+  </si>
+  <si>
+    <t>ศรีชุมภู</t>
+  </si>
+  <si>
+    <t>นายภาสวร</t>
+  </si>
+  <si>
+    <t>เชยสวรรค์</t>
+  </si>
+  <si>
+    <t>นางสาวมานิตา</t>
+  </si>
+  <si>
+    <t>ยิ้มเจริญ</t>
+  </si>
+  <si>
+    <t>นางสาวมูนีเราะห์</t>
+  </si>
+  <si>
+    <t>กาโฮง</t>
+  </si>
+  <si>
+    <t>นางสาวรัตติยาพร</t>
+  </si>
+  <si>
+    <t>พยัคฆ์</t>
+  </si>
+  <si>
+    <t>นางสาวรัตนา</t>
+  </si>
+  <si>
+    <t>ก๋องต๊ะ</t>
+  </si>
+  <si>
+    <t>นางสาวรินรดี</t>
+  </si>
+  <si>
+    <t>อนุรักษ์</t>
+  </si>
+  <si>
+    <t>นายรุ่งสี่ทิศ</t>
+  </si>
+  <si>
+    <t>เพ็งสวย</t>
+  </si>
+  <si>
+    <t>นายวงษกานต์</t>
+  </si>
+  <si>
+    <t>เชื้อทอง</t>
+  </si>
+  <si>
+    <t>นางสาววรนารถศิริ</t>
+  </si>
+  <si>
+    <t>แก้วนัยจิตร</t>
+  </si>
+  <si>
+    <t>นางสาววริยา</t>
+  </si>
+  <si>
+    <t>นิรชรกุล</t>
+  </si>
+  <si>
+    <t>นางสาววัชราภรณ์</t>
+  </si>
+  <si>
+    <t>ชัยเลิศ</t>
+  </si>
+  <si>
+    <t>นางสาววันทณีย์</t>
+  </si>
+  <si>
+    <t>ยศอิ</t>
+  </si>
+  <si>
+    <t>นายวุฒิพงศ์</t>
+  </si>
+  <si>
+    <t>จาวเจริญกุล</t>
+  </si>
+  <si>
+    <t>ต๊ะศรีเรือน</t>
+  </si>
+  <si>
+    <t>นายวุฒิพงษ์</t>
+  </si>
+  <si>
+    <t>อิ่มน้อย</t>
+  </si>
+  <si>
+    <t>นายศุภวิชญ์</t>
+  </si>
+  <si>
+    <t>เตจะสาร</t>
+  </si>
+  <si>
+    <t>นายสิรภพ</t>
+  </si>
+  <si>
+    <t>ศรีมณี</t>
+  </si>
+  <si>
+    <t>นางสาวหทัยชนก</t>
+  </si>
+  <si>
+    <t>ตนหมั้น</t>
+  </si>
+  <si>
+    <t>นางสาวกิตติยาพร</t>
+  </si>
+  <si>
+    <t>อ้นปันส์</t>
+  </si>
+  <si>
+    <t>นายพงศกร</t>
+  </si>
+  <si>
+    <t>แก้วทันคำ</t>
+  </si>
+  <si>
+    <t>นางสาวพิชามญชุ์</t>
+  </si>
+  <si>
+    <t>เจริญจิตต์</t>
+  </si>
+  <si>
+    <t>นายจิรายุทธ</t>
+  </si>
+  <si>
+    <t>ปาลี</t>
+  </si>
+  <si>
+    <t>นายเจษฎา</t>
+  </si>
+  <si>
+    <t>กันธาพรหม</t>
+  </si>
+  <si>
+    <t>นางสาวณัชชา</t>
+  </si>
+  <si>
+    <t>จันทวงศ์</t>
   </si>
   <si>
     <t>นายณัฐชนน</t>
   </si>
   <si>
-    <t>สุวรรณวิชนีย์</t>
-  </si>
-  <si>
-    <t>นายณัฐพงศ์</t>
-  </si>
-  <si>
-    <t>นวพันธุ์</t>
-  </si>
-  <si>
-    <t>หาญขว้าง</t>
-  </si>
-  <si>
-    <t>นางสาวณัฐหทัย</t>
-  </si>
-  <si>
-    <t>สารตะระบุรุษ</t>
-  </si>
-  <si>
-    <t>นายตรีภพ</t>
-  </si>
-  <si>
-    <t>ไชยเทพ</t>
-  </si>
-  <si>
-    <t>นายถิรเจตน์</t>
-  </si>
-  <si>
-    <t>พึ่งน่วม</t>
-  </si>
-  <si>
-    <t>นายธนภูมิ</t>
-  </si>
-  <si>
-    <t>สอนแก้ว</t>
-  </si>
-  <si>
-    <t>นางสาวธนัชพร</t>
-  </si>
-  <si>
-    <t>กัลยา</t>
-  </si>
-  <si>
-    <t>นายธรเทพ</t>
-  </si>
-  <si>
-    <t>กาชัย</t>
-  </si>
-  <si>
-    <t>นางสาวธัญญาลักษณ์</t>
-  </si>
-  <si>
-    <t>ขันธรรม</t>
-  </si>
-  <si>
-    <t>นายปิยพนธ์</t>
-  </si>
-  <si>
-    <t>ศีติสาร</t>
-  </si>
-  <si>
-    <t>นายปิยพัทธ์</t>
-  </si>
-  <si>
-    <t>นางสาวพลอยชนก</t>
-  </si>
-  <si>
-    <t>เจริญสุข</t>
-  </si>
-  <si>
-    <t>นางสาวพัชรีภรณ์</t>
-  </si>
-  <si>
-    <t>ชนะพิมพ์</t>
-  </si>
-  <si>
-    <t>นางสาวภูหทัย</t>
-  </si>
-  <si>
-    <t>วังเกษร</t>
-  </si>
-  <si>
-    <t>นางสาววริศรา</t>
-  </si>
-  <si>
-    <t>ปัญญาจันทร์</t>
-  </si>
-  <si>
-    <t>นายวัฒนา</t>
-  </si>
-  <si>
-    <t>ศรัทธา</t>
-  </si>
-  <si>
-    <t>นายอนันต์</t>
-  </si>
-  <si>
-    <t>อุ่นทา</t>
-  </si>
-  <si>
-    <t>นางสาวอุษาวดี</t>
-  </si>
-  <si>
-    <t>ชัยพิบูลย์</t>
+    <t>เมืองกระจ่าง</t>
+  </si>
+  <si>
+    <t>นางสาวณิชารีย์</t>
+  </si>
+  <si>
+    <t>วตินา</t>
+  </si>
+  <si>
+    <t>นางสาวนฤมล</t>
+  </si>
+  <si>
+    <t>หมูคำ</t>
+  </si>
+  <si>
+    <t>นางสาวพัชรพร</t>
+  </si>
+  <si>
+    <t>หลงศักดิ์</t>
+  </si>
+  <si>
+    <t>นางสาวปิยะวรรณ</t>
+  </si>
+  <si>
+    <t>เรือนนันชัย</t>
+  </si>
+  <si>
+    <t>นางสาวชุติกาญจน์</t>
+  </si>
+  <si>
+    <t>วัฒน์กุลนันท์</t>
+  </si>
+  <si>
+    <t>นายญาณกร</t>
+  </si>
+  <si>
+    <t>คำแก้ว</t>
+  </si>
+  <si>
+    <t>นายธีรดล</t>
+  </si>
+  <si>
+    <t>อุปนันท์</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                               W                                  </t>
+  </si>
+  <si>
+    <t>นางสาวปรองชนก</t>
+  </si>
+  <si>
+    <t>อุมรินทร์</t>
+  </si>
+  <si>
+    <t>นางสาวปริยาภัทร</t>
+  </si>
+  <si>
+    <t>แก้วแดง</t>
+  </si>
+  <si>
+    <t>นางสาววิมพ์วิภา</t>
+  </si>
+  <si>
+    <t>มหาวงค์</t>
+  </si>
+  <si>
+    <t>นางสาวสวรรยา</t>
+  </si>
+  <si>
+    <t>ทองคำคูณ</t>
+  </si>
+  <si>
+    <t>นางสาวอัจฉรา</t>
+  </si>
+  <si>
+    <t>ตันกลาง</t>
+  </si>
+  <si>
+    <t>นางสาวอาทิติยา</t>
+  </si>
+  <si>
+    <t>หวังผล</t>
+  </si>
+  <si>
+    <t>นางสาวกันติยา</t>
+  </si>
+  <si>
+    <t>รอดพวง</t>
+  </si>
+  <si>
+    <t>นางสาวชลวีร์</t>
+  </si>
+  <si>
+    <t>ชนกล้าหาญ</t>
   </si>
 </sst>
 </file>
@@ -689,10 +929,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -785,7 +1025,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="11">
-        <v>560510596</v>
+        <v>540610607</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>14</v>
@@ -802,7 +1042,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="11">
-        <v>560510598</v>
+        <v>542110145</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>17</v>
@@ -819,7 +1059,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="11">
-        <v>560510599</v>
+        <v>542110204</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>19</v>
@@ -836,7 +1076,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="11">
-        <v>560510600</v>
+        <v>542110252</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>21</v>
@@ -853,7 +1093,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="11">
-        <v>560510607</v>
+        <v>550310033</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>23</v>
@@ -870,7 +1110,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="11">
-        <v>560510621</v>
+        <v>560110134</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>25</v>
@@ -887,7 +1127,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="11">
-        <v>560510622</v>
+        <v>560810301</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>27</v>
@@ -904,13 +1144,13 @@
         <v>8</v>
       </c>
       <c r="C15" s="11">
-        <v>560510623</v>
+        <v>560810327</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>16</v>
@@ -921,13 +1161,13 @@
         <v>9</v>
       </c>
       <c r="C16" s="11">
-        <v>560510624</v>
+        <v>560810330</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>16</v>
@@ -938,13 +1178,13 @@
         <v>10</v>
       </c>
       <c r="C17" s="11">
-        <v>560510627</v>
+        <v>570210239</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>16</v>
@@ -955,13 +1195,13 @@
         <v>11</v>
       </c>
       <c r="C18" s="11">
-        <v>560510629</v>
+        <v>570210245</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>16</v>
@@ -972,13 +1212,13 @@
         <v>12</v>
       </c>
       <c r="C19" s="11">
-        <v>560510634</v>
+        <v>570210258</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>16</v>
@@ -989,13 +1229,13 @@
         <v>13</v>
       </c>
       <c r="C20" s="11">
-        <v>560510635</v>
+        <v>570510037</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>16</v>
@@ -1006,13 +1246,13 @@
         <v>14</v>
       </c>
       <c r="C21" s="11">
-        <v>560510636</v>
+        <v>571110021</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>16</v>
@@ -1023,13 +1263,13 @@
         <v>15</v>
       </c>
       <c r="C22" s="11">
-        <v>560510637</v>
+        <v>571110026</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>16</v>
@@ -1040,13 +1280,13 @@
         <v>16</v>
       </c>
       <c r="C23" s="11">
-        <v>560510643</v>
+        <v>571110049</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F23" s="11" t="s">
         <v>16</v>
@@ -1057,13 +1297,13 @@
         <v>17</v>
       </c>
       <c r="C24" s="11">
-        <v>560510644</v>
+        <v>571110066</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F24" s="11" t="s">
         <v>16</v>
@@ -1074,13 +1314,13 @@
         <v>18</v>
       </c>
       <c r="C25" s="11">
-        <v>560510648</v>
+        <v>571110067</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F25" s="11" t="s">
         <v>16</v>
@@ -1091,13 +1331,13 @@
         <v>19</v>
       </c>
       <c r="C26" s="11">
-        <v>560510649</v>
+        <v>571110068</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>16</v>
@@ -1108,13 +1348,13 @@
         <v>20</v>
       </c>
       <c r="C27" s="11">
-        <v>560510655</v>
+        <v>571110069</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F27" s="11" t="s">
         <v>16</v>
@@ -1125,13 +1365,13 @@
         <v>21</v>
       </c>
       <c r="C28" s="11">
-        <v>560510659</v>
+        <v>571110070</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F28" s="11" t="s">
         <v>16</v>
@@ -1142,13 +1382,13 @@
         <v>22</v>
       </c>
       <c r="C29" s="11">
-        <v>560510662</v>
+        <v>571110071</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F29" s="11" t="s">
         <v>16</v>
@@ -1159,13 +1399,13 @@
         <v>23</v>
       </c>
       <c r="C30" s="11">
-        <v>560510679</v>
+        <v>571110072</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F30" s="11" t="s">
         <v>16</v>
@@ -1176,15 +1416,691 @@
         <v>24</v>
       </c>
       <c r="C31" s="11">
-        <v>560510684</v>
+        <v>571110073</v>
       </c>
       <c r="D31" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B32" s="10">
+        <v>25</v>
+      </c>
+      <c r="C32" s="11">
+        <v>571110075</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B33" s="10">
+        <v>26</v>
+      </c>
+      <c r="C33" s="11">
+        <v>571110076</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B34" s="10">
+        <v>27</v>
+      </c>
+      <c r="C34" s="11">
+        <v>571110077</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B35" s="10">
+        <v>28</v>
+      </c>
+      <c r="C35" s="11">
+        <v>571110078</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B36" s="10">
+        <v>29</v>
+      </c>
+      <c r="C36" s="11">
+        <v>571110079</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="B37" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+    </row>
+    <row r="38" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B38" s="10">
+        <v>30</v>
+      </c>
+      <c r="C38" s="11">
+        <v>571110080</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B39" s="10">
+        <v>31</v>
+      </c>
+      <c r="C39" s="11">
+        <v>571110081</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B40" s="10">
+        <v>32</v>
+      </c>
+      <c r="C40" s="11">
+        <v>571110082</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B41" s="10">
+        <v>33</v>
+      </c>
+      <c r="C41" s="11">
+        <v>571110083</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B42" s="10">
+        <v>34</v>
+      </c>
+      <c r="C42" s="11">
+        <v>571110085</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B43" s="10">
+        <v>35</v>
+      </c>
+      <c r="C43" s="11">
+        <v>571110086</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B44" s="10">
+        <v>36</v>
+      </c>
+      <c r="C44" s="11">
+        <v>571110088</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B45" s="10">
+        <v>37</v>
+      </c>
+      <c r="C45" s="11">
+        <v>571110089</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B46" s="10">
+        <v>38</v>
+      </c>
+      <c r="C46" s="11">
+        <v>571110090</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B47" s="10">
+        <v>39</v>
+      </c>
+      <c r="C47" s="11">
+        <v>571110092</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B48" s="10">
+        <v>40</v>
+      </c>
+      <c r="C48" s="11">
+        <v>571110095</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B49" s="10">
+        <v>41</v>
+      </c>
+      <c r="C49" s="11">
+        <v>571110100</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B50" s="10">
+        <v>42</v>
+      </c>
+      <c r="C50" s="11">
+        <v>571310004</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B51" s="10">
+        <v>43</v>
+      </c>
+      <c r="C51" s="11">
+        <v>571310033</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B52" s="10">
+        <v>44</v>
+      </c>
+      <c r="C52" s="11">
+        <v>571310035</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B53" s="10">
+        <v>45</v>
+      </c>
+      <c r="C53" s="11">
+        <v>571310071</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B54" s="10">
+        <v>46</v>
+      </c>
+      <c r="C54" s="11">
+        <v>571310072</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B55" s="10">
+        <v>47</v>
+      </c>
+      <c r="C55" s="11">
+        <v>571310075</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B56" s="10">
+        <v>48</v>
+      </c>
+      <c r="C56" s="11">
+        <v>571310076</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B57" s="10">
+        <v>49</v>
+      </c>
+      <c r="C57" s="11">
+        <v>571310081</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B58" s="10">
+        <v>50</v>
+      </c>
+      <c r="C58" s="11">
+        <v>571310085</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B59" s="10">
+        <v>51</v>
+      </c>
+      <c r="C59" s="11">
+        <v>571310093</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B60" s="10">
+        <v>52</v>
+      </c>
+      <c r="C60" s="11">
+        <v>571310282</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B61" s="10">
+        <v>53</v>
+      </c>
+      <c r="C61" s="11">
+        <v>571610066</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B62" s="10">
+        <v>54</v>
+      </c>
+      <c r="C62" s="11">
+        <v>571610069</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="E62" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="F62" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B63" s="10">
+        <v>55</v>
+      </c>
+      <c r="C63" s="11">
+        <v>571610138</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B64" s="10">
+        <v>56</v>
+      </c>
+      <c r="C64" s="11">
+        <v>571610177</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="E64" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B65" s="10">
+        <v>57</v>
+      </c>
+      <c r="C65" s="11">
+        <v>571610185</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B66" s="10">
+        <v>58</v>
+      </c>
+      <c r="C66" s="11">
+        <v>571610297</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B67" s="10">
         <v>59</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="C67" s="11">
+        <v>571610329</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="E67" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B68" s="10">
         <v>60</v>
       </c>
-      <c r="F31" s="11" t="s">
+      <c r="C68" s="11">
+        <v>571610377</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="E68" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B69" s="10">
+        <v>61</v>
+      </c>
+      <c r="C69" s="11">
+        <v>571610380</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B70" s="10">
+        <v>62</v>
+      </c>
+      <c r="C70" s="11">
+        <v>571810006</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="E70" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B71" s="10">
+        <v>63</v>
+      </c>
+      <c r="C71" s="11">
+        <v>571810035</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="E71" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" s="11" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1201,6 +2117,7 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D37:E37"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.75" right="0.62" top="1" bottom="1.1" header="0.71" footer="0.5"/>

--- a/temp/file.xlsx
+++ b/temp/file.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="204100-001000" sheetId="1" r:id="rId4"/>
+    <sheet name="204100-002000" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="149">
   <si>
     <t>รายชื่อนักศึกษาที่ลงทะเบียนเรียน ภาคเรียนที่ 2 ปีการศึกษา 2557</t>
   </si>
@@ -35,13 +35,13 @@
     <t xml:space="preserve">  SECTION (lec/lab) :</t>
   </si>
   <si>
-    <t xml:space="preserve">                 001/000</t>
+    <t xml:space="preserve">                 002/000</t>
   </si>
   <si>
     <t xml:space="preserve">  LECTURER :</t>
   </si>
   <si>
-    <t xml:space="preserve">                 กิตติพิชญ์   คุปตะวาณิช</t>
+    <t xml:space="preserve">                 คณาจารย์     </t>
   </si>
   <si>
     <t xml:space="preserve">  DATE :</t>
@@ -59,541 +59,409 @@
     <t>ชื่อ - นามสกุล</t>
   </si>
   <si>
-    <t>นายพงศธร</t>
-  </si>
-  <si>
-    <t>คิดถี</t>
+    <t>นายนัฐกรณ์</t>
+  </si>
+  <si>
+    <t>บัวเจริญ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                 </t>
+  </si>
+  <si>
+    <t>นายสิทธิศักดิ์</t>
+  </si>
+  <si>
+    <t>โกพุฒถ้อย</t>
+  </si>
+  <si>
+    <t>นายสิรภพ</t>
+  </si>
+  <si>
+    <t>กาใจคำ</t>
+  </si>
+  <si>
+    <t>นายปฐมพล</t>
+  </si>
+  <si>
+    <t>บุตรสาริยัง</t>
+  </si>
+  <si>
+    <t>นางสาวพัชรียา</t>
+  </si>
+  <si>
+    <t>สุจนะ</t>
+  </si>
+  <si>
+    <t>นายชวัลเมธ</t>
+  </si>
+  <si>
+    <t>คูณขุนทด</t>
+  </si>
+  <si>
+    <t>นางสาวณัฐธิดา</t>
+  </si>
+  <si>
+    <t>มิคะนุช</t>
+  </si>
+  <si>
+    <t>นางสาวธันยพร</t>
+  </si>
+  <si>
+    <t>จันต๊ะ</t>
+  </si>
+  <si>
+    <t>นางสาวปุญญิศา</t>
+  </si>
+  <si>
+    <t>นวลนพคุณ</t>
+  </si>
+  <si>
+    <t>นายพิชชากรณ์</t>
+  </si>
+  <si>
+    <t>จันทร์ศรีรัตน์</t>
+  </si>
+  <si>
+    <t>นางสาวพิชญดา</t>
+  </si>
+  <si>
+    <t>เกยงค์</t>
+  </si>
+  <si>
+    <t>นายรวิโรจน์</t>
+  </si>
+  <si>
+    <t>ไทรงาม</t>
+  </si>
+  <si>
+    <t>นายวัชระ</t>
+  </si>
+  <si>
+    <t>หอมหวล</t>
   </si>
   <si>
     <t xml:space="preserve">                               W                                  </t>
   </si>
   <si>
-    <t>นางสาวภัทรพรรณ</t>
-  </si>
-  <si>
-    <t>เพียนอก</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                 </t>
-  </si>
-  <si>
-    <t>นางสาวรุจี</t>
-  </si>
-  <si>
-    <t>ต้นเหลือง</t>
-  </si>
-  <si>
-    <t>นายพงศ์ภัค</t>
-  </si>
-  <si>
-    <t>ประภากรมณฑล</t>
-  </si>
-  <si>
-    <t>นางสาวจริยา</t>
-  </si>
-  <si>
-    <t>สุขเเก้ว</t>
-  </si>
-  <si>
-    <t>นางสาวนภาพร</t>
-  </si>
-  <si>
-    <t>แก้วแสงทอง</t>
-  </si>
-  <si>
-    <t>นางสาวสุทธิดา</t>
-  </si>
-  <si>
-    <t>กันธิมา</t>
-  </si>
-  <si>
-    <t>นางสาวกุลธิดา</t>
-  </si>
-  <si>
-    <t>พุทธเจริญ</t>
-  </si>
-  <si>
-    <t>นายชิษณุพงศ์</t>
-  </si>
-  <si>
-    <t>หาวา</t>
-  </si>
-  <si>
-    <t>นางสาวณิชมน</t>
-  </si>
-  <si>
-    <t>ทองริด</t>
-  </si>
-  <si>
-    <t>นางสาวอภิสรา</t>
-  </si>
-  <si>
-    <t>ฉายาพงศ์</t>
-  </si>
-  <si>
-    <t>นางสาวพิชญา</t>
-  </si>
-  <si>
-    <t>วัชโรภาส</t>
-  </si>
-  <si>
-    <t>นางสาวชนันธิดา</t>
-  </si>
-  <si>
-    <t>สักลอ</t>
-  </si>
-  <si>
-    <t>นางสาวบุญญรัตน์</t>
-  </si>
-  <si>
-    <t>นิวาศะบุตร</t>
-  </si>
-  <si>
-    <t>นางสาวมีณมาส</t>
-  </si>
-  <si>
-    <t>แก่นดี</t>
-  </si>
-  <si>
-    <t>นางสาวกันยา</t>
-  </si>
-  <si>
-    <t>ผาด่าน</t>
-  </si>
-  <si>
-    <t>นายคเชน</t>
+    <t>นายวีระชัย</t>
+  </si>
+  <si>
+    <t>ใจทอง</t>
+  </si>
+  <si>
+    <t>นางสาวสุดารัตน์</t>
+  </si>
+  <si>
+    <t>พิสกุล</t>
+  </si>
+  <si>
+    <t>นางสาวสุวัชรีภรณ์</t>
+  </si>
+  <si>
+    <t>จิตใจ</t>
+  </si>
+  <si>
+    <t>นางสาวอังคณา</t>
+  </si>
+  <si>
+    <t>เลิมสุ่ม</t>
+  </si>
+  <si>
+    <t>นางสาวอัยฎา</t>
+  </si>
+  <si>
+    <t>อัฐศิลาเลิศ</t>
+  </si>
+  <si>
+    <t>นายศิริโชค</t>
+  </si>
+  <si>
+    <t>มีใจ</t>
+  </si>
+  <si>
+    <t>นางสาวอรนภา</t>
+  </si>
+  <si>
+    <t>เลิศพุฒิภิญโญ</t>
+  </si>
+  <si>
+    <t>นางสาวจิตรลดา</t>
+  </si>
+  <si>
+    <t>จันหลวง</t>
+  </si>
+  <si>
+    <t>นางสาวฑาริกา</t>
+  </si>
+  <si>
+    <t>ขันตรี</t>
+  </si>
+  <si>
+    <t>นางสาววิราวรรณ</t>
+  </si>
+  <si>
+    <t>พรหมภิรา</t>
+  </si>
+  <si>
+    <t>นายอภิวัฒน์</t>
+  </si>
+  <si>
+    <t>ทรัพย์เย็น</t>
+  </si>
+  <si>
+    <t>นางสาวพชรพร</t>
+  </si>
+  <si>
+    <t>สุทธิลักษณ์</t>
+  </si>
+  <si>
+    <t>นางสาวธัญนันท์</t>
+  </si>
+  <si>
+    <t>พันธ์เนียม</t>
+  </si>
+  <si>
+    <t>นายเนติพงษ์</t>
+  </si>
+  <si>
+    <t>เจริญขำ</t>
+  </si>
+  <si>
+    <t>นางสาวรวิวรรณ</t>
   </si>
   <si>
     <t>ศรีวิชัย</t>
   </si>
   <si>
-    <t>นายชนสรณ์</t>
-  </si>
-  <si>
-    <t>ศรีสัตบุตร</t>
-  </si>
-  <si>
-    <t>นายคามิน</t>
-  </si>
-  <si>
-    <t>ช่วงสุวนิช</t>
-  </si>
-  <si>
-    <t>นายจุลธวัช</t>
-  </si>
-  <si>
-    <t>ทองอร่าม</t>
-  </si>
-  <si>
-    <t>นายชานนท์</t>
-  </si>
-  <si>
-    <t>ทองมณี</t>
-  </si>
-  <si>
-    <t>นายณัฐดนัย</t>
-  </si>
-  <si>
-    <t>สุขแก้ว</t>
-  </si>
-  <si>
-    <t>นายวรพันธ์</t>
-  </si>
-  <si>
-    <t>คำภู</t>
-  </si>
-  <si>
-    <t>นายสหรัฐ</t>
-  </si>
-  <si>
-    <t>สิทธิปัญญา</t>
-  </si>
-  <si>
-    <t>นางสาวฉัตรชาริกา</t>
-  </si>
-  <si>
-    <t>ขันแก้ว</t>
-  </si>
-  <si>
-    <t>นายเชษฐภัค</t>
-  </si>
-  <si>
-    <t>เรืองดิษฐ์</t>
-  </si>
-  <si>
-    <t>นางสาวธมณภัทร</t>
-  </si>
-  <si>
-    <t>พิทักษ์</t>
-  </si>
-  <si>
-    <t>นางสาวสุนิศา</t>
-  </si>
-  <si>
-    <t>จิ๋วปัญญา</t>
-  </si>
-  <si>
-    <t>นางสาวอนงค์พร</t>
-  </si>
-  <si>
-    <t>เทพสุวรรณ</t>
-  </si>
-  <si>
-    <t>นางสาวอนุตรา</t>
-  </si>
-  <si>
-    <t>ปัญจรัก</t>
-  </si>
-  <si>
-    <t>นางสาวอภิญญา</t>
-  </si>
-  <si>
-    <t>ปานศิลา</t>
-  </si>
-  <si>
-    <t>นายอมรเทพ</t>
-  </si>
-  <si>
-    <t>พิชัยพงศ์</t>
-  </si>
-  <si>
-    <t>นางสาวอมลพรรษ</t>
-  </si>
-  <si>
-    <t>ชตาเริกษ์</t>
-  </si>
-  <si>
-    <t>นางสาวอาภัสนันท์</t>
-  </si>
-  <si>
-    <t>อารีเอื้อ</t>
-  </si>
-  <si>
-    <t>นายเอกภพ</t>
-  </si>
-  <si>
-    <t>พจนสิทธิ์</t>
-  </si>
-  <si>
-    <t>นางสาวศัสยมน</t>
-  </si>
-  <si>
-    <t>ดวงใจสัก</t>
-  </si>
-  <si>
-    <t>นางสาวศุภรัสมิ์</t>
-  </si>
-  <si>
-    <t>กระพันพงศ์สกุล</t>
-  </si>
-  <si>
-    <t>นางสาวศุภวรรณ</t>
-  </si>
-  <si>
-    <t>บุญสุข</t>
-  </si>
-  <si>
-    <t>นายคริษฐ์</t>
-  </si>
-  <si>
-    <t>นิ่มศิริเรืองผล</t>
-  </si>
-  <si>
-    <t>นางสาวจริยาพร</t>
-  </si>
-  <si>
-    <t>จิรพัฒนากุล</t>
-  </si>
-  <si>
-    <t>นางสาวจารุวรรณ</t>
-  </si>
-  <si>
-    <t>โท๊ะหล้าบุตร</t>
-  </si>
-  <si>
-    <t>นายชญาพัฒณ์</t>
-  </si>
-  <si>
-    <t>ภู่เกตุ</t>
-  </si>
-  <si>
-    <t>นางสาวชนนิกานต์</t>
-  </si>
-  <si>
-    <t>เทียนสมจิตร</t>
-  </si>
-  <si>
-    <t>นางสาวชลิดา</t>
-  </si>
-  <si>
-    <t>มานะกิจศิริสุทธิ</t>
-  </si>
-  <si>
-    <t>นายชาติเวท</t>
-  </si>
-  <si>
-    <t>สายบุตร</t>
-  </si>
-  <si>
-    <t>นางสาวเชฬุณีย์</t>
-  </si>
-  <si>
-    <t>ภูวฐิตานนท์</t>
-  </si>
-  <si>
-    <t>นางสาวฌัชชา</t>
-  </si>
-  <si>
-    <t>มาลารัตน์</t>
-  </si>
-  <si>
-    <t>นางสาวญาณิศา</t>
-  </si>
-  <si>
-    <t>ตาพรหม</t>
-  </si>
-  <si>
-    <t>นางสาวณัชชา</t>
-  </si>
-  <si>
-    <t>พาทพุทธิพงศ์</t>
-  </si>
-  <si>
-    <t>นางสาวณัฏฐธิดา</t>
-  </si>
-  <si>
-    <t>วณิชพิพัฒน์กุล</t>
-  </si>
-  <si>
-    <t>นางสาวณัฏฐนิช</t>
-  </si>
-  <si>
-    <t>บุญแร่</t>
+    <t>นายวีระชาติ</t>
+  </si>
+  <si>
+    <t>อุตรนคร</t>
   </si>
   <si>
     <t>นายณัฐพงศ์</t>
   </si>
   <si>
-    <t>ปันยศ</t>
-  </si>
-  <si>
-    <t>นางสาวทิพย์ธิดา</t>
-  </si>
-  <si>
-    <t>แซ่เติ๋น</t>
-  </si>
-  <si>
-    <t>นายธุววิช</t>
-  </si>
-  <si>
-    <t>ปานเกิด</t>
-  </si>
-  <si>
-    <t>นางสาวนัยนา</t>
-  </si>
-  <si>
-    <t>สิทธิเจริญ</t>
-  </si>
-  <si>
-    <t>นางสาวนิธิพร</t>
-  </si>
-  <si>
-    <t>จันทะวัง</t>
-  </si>
-  <si>
-    <t>นายปรเมทฎ</t>
-  </si>
-  <si>
-    <t>นิติประศาสน์</t>
-  </si>
-  <si>
-    <t>นายปราชญ์</t>
-  </si>
-  <si>
-    <t>หลิ่มสุริยะ</t>
-  </si>
-  <si>
-    <t>นางสาวปริญญ์</t>
-  </si>
-  <si>
-    <t>รัตตัญญู</t>
-  </si>
-  <si>
-    <t>นางสาวปริยาภัทร</t>
-  </si>
-  <si>
-    <t>สมบัติปัน</t>
-  </si>
-  <si>
-    <t>นางสาวปวีณ์นุช</t>
-  </si>
-  <si>
-    <t>เอื้อแท้</t>
-  </si>
-  <si>
-    <t>นางสาวปวีณ์สุดา</t>
-  </si>
-  <si>
-    <t>เดชบุญ</t>
-  </si>
-  <si>
-    <t>นางสาวปิยธิดา</t>
-  </si>
-  <si>
-    <t>คำน้อย</t>
-  </si>
-  <si>
-    <t>นายปุริม</t>
-  </si>
-  <si>
-    <t>วาดเขียน</t>
-  </si>
-  <si>
-    <t>นายพงศกร</t>
-  </si>
-  <si>
-    <t>ยั่งยืน</t>
-  </si>
-  <si>
-    <t>นางสาวพัชราวลัย</t>
-  </si>
-  <si>
-    <t>เด่นนิติรัตน์</t>
-  </si>
-  <si>
-    <t>นางสาวพัชรี</t>
-  </si>
-  <si>
-    <t>อิสาน</t>
-  </si>
-  <si>
-    <t>นางสาวพิจาริน</t>
-  </si>
-  <si>
-    <t>ศิริพจนานนท์</t>
-  </si>
-  <si>
-    <t>นายพิชญ์ยุติ</t>
-  </si>
-  <si>
-    <t>ใจมิภักดิ์</t>
-  </si>
-  <si>
-    <t>นางสาวมัลลิกา</t>
-  </si>
-  <si>
-    <t>ไชยบัง</t>
-  </si>
-  <si>
-    <t>นายยศกร</t>
-  </si>
-  <si>
-    <t>สุดสวาสดิ์</t>
-  </si>
-  <si>
-    <t>นายเยาวยุทธ์</t>
-  </si>
-  <si>
-    <t>กันธัง</t>
-  </si>
-  <si>
-    <t>นางสาวรวินันท์</t>
-  </si>
-  <si>
-    <t>อุ้ยประเสริฐวัฒนา</t>
-  </si>
-  <si>
-    <t>นายฤทธิพร</t>
-  </si>
-  <si>
-    <t>จันทร์ขจร</t>
-  </si>
-  <si>
-    <t>นางสาวลภัสนันท์</t>
-  </si>
-  <si>
-    <t>พิราดา</t>
-  </si>
-  <si>
-    <t>นายสามารถ</t>
-  </si>
-  <si>
-    <t>สนิทมาก</t>
-  </si>
-  <si>
-    <t>นางสาวสิริกานดา</t>
-  </si>
-  <si>
-    <t>กล้าวิกย์การ</t>
-  </si>
-  <si>
-    <t>อุ่นจิต</t>
-  </si>
-  <si>
-    <t>นางสาวสุทธิพร</t>
-  </si>
-  <si>
-    <t>มณีวงค์</t>
-  </si>
-  <si>
-    <t>นายสุทธิศักดิ์</t>
-  </si>
-  <si>
-    <t>สิริกุลสัมพันธ์</t>
-  </si>
-  <si>
-    <t>นางสาวสุทธิษา</t>
-  </si>
-  <si>
-    <t>มณีรัตน์</t>
-  </si>
-  <si>
-    <t>นางสาวอัจฉราพรรณ</t>
-  </si>
-  <si>
-    <t>คำแก้ว</t>
-  </si>
-  <si>
-    <t>นางสาวเอกรณี</t>
-  </si>
-  <si>
-    <t>ขัดเรือง</t>
-  </si>
-  <si>
-    <t>นางสาวเอมวรี</t>
-  </si>
-  <si>
-    <t>มีชัยสุวรรณ์</t>
-  </si>
-  <si>
-    <t>นางสาวประกายกานต์</t>
-  </si>
-  <si>
-    <t>ศรีสองสกุล</t>
-  </si>
-  <si>
-    <t>นางสาวประกายดาว</t>
-  </si>
-  <si>
-    <t>มากาศ</t>
-  </si>
-  <si>
-    <t>นางสาวพราวพิไล</t>
-  </si>
-  <si>
-    <t>เดชธงไชย</t>
-  </si>
-  <si>
-    <t>นางสาวมนัชยา</t>
-  </si>
-  <si>
-    <t>ยะโกะ</t>
-  </si>
-  <si>
-    <t>นางสาวเมธาวี</t>
-  </si>
-  <si>
-    <t>แสงทอง</t>
+    <t>ปันติคำ</t>
+  </si>
+  <si>
+    <t>นางสาวจิรวรรณ</t>
+  </si>
+  <si>
+    <t>แก้วคำ</t>
+  </si>
+  <si>
+    <t>นางสาวกนกวรรณ</t>
+  </si>
+  <si>
+    <t>วิชัยศรี</t>
+  </si>
+  <si>
+    <t>นางสาวกมลพรรณ</t>
+  </si>
+  <si>
+    <t>จันทร์รัตน์</t>
+  </si>
+  <si>
+    <t>นางสาวกรรณิการ์</t>
+  </si>
+  <si>
+    <t>บุญเกิดรัมย์</t>
+  </si>
+  <si>
+    <t>นายกฤตานน</t>
+  </si>
+  <si>
+    <t>กันตีวงศ์</t>
+  </si>
+  <si>
+    <t>นายกลวัชร</t>
+  </si>
+  <si>
+    <t>คำวัง</t>
+  </si>
+  <si>
+    <t>นางสาวชริญณัฏฐ์</t>
+  </si>
+  <si>
+    <t>ยะนัน</t>
+  </si>
+  <si>
+    <t>นางสาวชลกานต์</t>
+  </si>
+  <si>
+    <t>ผลละออ</t>
+  </si>
+  <si>
+    <t>นายญาณาธิป</t>
+  </si>
+  <si>
+    <t>เทพาคำ</t>
+  </si>
+  <si>
+    <t>นางสาวฑิฆัมพร</t>
+  </si>
+  <si>
+    <t>ดวงเงา</t>
+  </si>
+  <si>
+    <t>คงนิยม</t>
+  </si>
+  <si>
+    <t>นายทศพร</t>
+  </si>
+  <si>
+    <t>หัตถดล</t>
+  </si>
+  <si>
+    <t>นายธเนศพล</t>
+  </si>
+  <si>
+    <t>วงค์มณี</t>
+  </si>
+  <si>
+    <t>นางสาวธัญธิดา</t>
+  </si>
+  <si>
+    <t>โสตถิกุล</t>
+  </si>
+  <si>
+    <t>นายธาดา</t>
+  </si>
+  <si>
+    <t>นวลสนิท</t>
+  </si>
+  <si>
+    <t>นางสาวประภาสิริ</t>
+  </si>
+  <si>
+    <t>เนียมหอม</t>
+  </si>
+  <si>
+    <t>นางสาวพรธีรา</t>
+  </si>
+  <si>
+    <t>โอฬาริกชาติ</t>
+  </si>
+  <si>
+    <t>นางสาวพิมพ์</t>
+  </si>
+  <si>
+    <t>บูรณะพิมพ์</t>
+  </si>
+  <si>
+    <t>นางสาวพิมพ์ชนก</t>
+  </si>
+  <si>
+    <t>พิมสาร</t>
+  </si>
+  <si>
+    <t>นางสาวภัทรวดี</t>
+  </si>
+  <si>
+    <t>ด้วงผึ้ง</t>
+  </si>
+  <si>
+    <t>นางสาวมยุรี</t>
+  </si>
+  <si>
+    <t>สายคำกอง</t>
+  </si>
+  <si>
+    <t>นายรวิภาต</t>
+  </si>
+  <si>
+    <t>ปานโกศล</t>
+  </si>
+  <si>
+    <t>นายศุภวิชญ์</t>
+  </si>
+  <si>
+    <t>จันทรักษา</t>
+  </si>
+  <si>
+    <t>นายสมรักษ์</t>
+  </si>
+  <si>
+    <t>ศรีสุพล</t>
+  </si>
+  <si>
+    <t>นายธีระพงษ์</t>
+  </si>
+  <si>
+    <t>สุพรรณคง</t>
+  </si>
+  <si>
+    <t>นางสาวนงนภัส</t>
+  </si>
+  <si>
+    <t>เสงี่ยมวิบูล</t>
+  </si>
+  <si>
+    <t>นางสาวพรชนก</t>
+  </si>
+  <si>
+    <t>ประดิษฐ์ทอง</t>
+  </si>
+  <si>
+    <t>นางสาวพรอาภา</t>
+  </si>
+  <si>
+    <t>เกษสุวรรณ</t>
+  </si>
+  <si>
+    <t>นางสาวพัชรีภรณ์</t>
+  </si>
+  <si>
+    <t>พุทธิมา</t>
+  </si>
+  <si>
+    <t>นางสาวศุวลักษณ์</t>
+  </si>
+  <si>
+    <t>แก้วนวล</t>
+  </si>
+  <si>
+    <t>นางสาวอรจิรา</t>
+  </si>
+  <si>
+    <t>วังวนสินธุ์</t>
+  </si>
+  <si>
+    <t>นายชิณเวศน์</t>
+  </si>
+  <si>
+    <t>หาเรือนมิตร</t>
+  </si>
+  <si>
+    <t>นางสาวธนิษฐา</t>
+  </si>
+  <si>
+    <t>วิทยศักดิ์</t>
+  </si>
+  <si>
+    <t>นายนรวิชญ์</t>
+  </si>
+  <si>
+    <t>เย็นนานนทน์</t>
+  </si>
+  <si>
+    <t>นางสาวนันท์นภัส</t>
+  </si>
+  <si>
+    <t>สีเดะ</t>
+  </si>
+  <si>
+    <t>นางสาวยมลพร</t>
+  </si>
+  <si>
+    <t>ภวนะวิเชียร</t>
+  </si>
+  <si>
+    <t>นางสาววิฐิติ</t>
+  </si>
+  <si>
+    <t>ขระเขื่อน</t>
   </si>
 </sst>
 </file>
@@ -1085,10 +953,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F98"/>
+  <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F98" sqref="F98"/>
+      <selection activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1181,7 +1049,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="11">
-        <v>531910135</v>
+        <v>540610620</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>14</v>
@@ -1198,7 +1066,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="11">
-        <v>540510297</v>
+        <v>540610650</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>17</v>
@@ -1207,7 +1075,7 @@
         <v>18</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:6" customHeight="1" ht="19.8">
@@ -1215,16 +1083,16 @@
         <v>3</v>
       </c>
       <c r="C10" s="11">
-        <v>540510305</v>
+        <v>540610651</v>
       </c>
       <c r="D10" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="13" t="s">
-        <v>21</v>
-      </c>
       <c r="F10" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:6" customHeight="1" ht="19.8">
@@ -1232,16 +1100,16 @@
         <v>4</v>
       </c>
       <c r="C11" s="11">
-        <v>540510669</v>
+        <v>541610076</v>
       </c>
       <c r="D11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="13" t="s">
-        <v>23</v>
-      </c>
       <c r="F11" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:6" customHeight="1" ht="19.8">
@@ -1249,16 +1117,16 @@
         <v>5</v>
       </c>
       <c r="C12" s="11">
-        <v>550210003</v>
+        <v>551610083</v>
       </c>
       <c r="D12" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="13" t="s">
-        <v>25</v>
-      </c>
       <c r="F12" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:6" customHeight="1" ht="19.8">
@@ -1266,16 +1134,16 @@
         <v>6</v>
       </c>
       <c r="C13" s="11">
-        <v>550210012</v>
+        <v>560410086</v>
       </c>
       <c r="D13" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="13" t="s">
-        <v>27</v>
-      </c>
       <c r="F13" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:6" customHeight="1" ht="19.8">
@@ -1283,16 +1151,16 @@
         <v>7</v>
       </c>
       <c r="C14" s="11">
-        <v>551310113</v>
+        <v>560410093</v>
       </c>
       <c r="D14" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="13" t="s">
-        <v>29</v>
-      </c>
       <c r="F14" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:6" customHeight="1" ht="19.8">
@@ -1300,16 +1168,16 @@
         <v>8</v>
       </c>
       <c r="C15" s="11">
-        <v>560510019</v>
+        <v>560410098</v>
       </c>
       <c r="D15" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="13" t="s">
-        <v>31</v>
-      </c>
       <c r="F15" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:6" customHeight="1" ht="19.8">
@@ -1317,16 +1185,16 @@
         <v>9</v>
       </c>
       <c r="C16" s="11">
-        <v>560510615</v>
+        <v>560410110</v>
       </c>
       <c r="D16" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="13" t="s">
-        <v>33</v>
-      </c>
       <c r="F16" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:6" customHeight="1" ht="19.8">
@@ -1334,16 +1202,16 @@
         <v>10</v>
       </c>
       <c r="C17" s="11">
-        <v>561010050</v>
+        <v>560410114</v>
       </c>
       <c r="D17" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="13" t="s">
-        <v>35</v>
-      </c>
       <c r="F17" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:6" customHeight="1" ht="19.8">
@@ -1351,16 +1219,16 @@
         <v>11</v>
       </c>
       <c r="C18" s="11">
-        <v>561010160</v>
+        <v>560410115</v>
       </c>
       <c r="D18" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="13" t="s">
-        <v>37</v>
-      </c>
       <c r="F18" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:6" customHeight="1" ht="19.8">
@@ -1368,16 +1236,16 @@
         <v>12</v>
       </c>
       <c r="C19" s="11">
-        <v>561611090</v>
+        <v>560410122</v>
       </c>
       <c r="D19" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="13" t="s">
-        <v>39</v>
-      </c>
       <c r="F19" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:6" customHeight="1" ht="19.8">
@@ -1385,16 +1253,16 @@
         <v>13</v>
       </c>
       <c r="C20" s="11">
-        <v>570110135</v>
+        <v>560410131</v>
       </c>
       <c r="D20" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="F20" s="11" t="s">
         <v>41</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:6" customHeight="1" ht="19.8">
@@ -1402,7 +1270,7 @@
         <v>14</v>
       </c>
       <c r="C21" s="11">
-        <v>570110144</v>
+        <v>560410134</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>42</v>
@@ -1411,7 +1279,7 @@
         <v>43</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:6" customHeight="1" ht="19.8">
@@ -1419,7 +1287,7 @@
         <v>15</v>
       </c>
       <c r="C22" s="11">
-        <v>570110156</v>
+        <v>560410141</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>44</v>
@@ -1428,7 +1296,7 @@
         <v>45</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:6" customHeight="1" ht="19.8">
@@ -1436,7 +1304,7 @@
         <v>16</v>
       </c>
       <c r="C23" s="11">
-        <v>570110213</v>
+        <v>560410144</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>46</v>
@@ -1445,7 +1313,7 @@
         <v>47</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:6" customHeight="1" ht="19.8">
@@ -1453,7 +1321,7 @@
         <v>17</v>
       </c>
       <c r="C24" s="11">
-        <v>570210060</v>
+        <v>560410148</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>48</v>
@@ -1462,7 +1330,7 @@
         <v>49</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:6" customHeight="1" ht="19.8">
@@ -1470,7 +1338,7 @@
         <v>18</v>
       </c>
       <c r="C25" s="11">
-        <v>570510620</v>
+        <v>560410149</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>50</v>
@@ -1479,7 +1347,7 @@
         <v>51</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:6" customHeight="1" ht="19.8">
@@ -1487,7 +1355,7 @@
         <v>19</v>
       </c>
       <c r="C26" s="11">
-        <v>570510629</v>
+        <v>560510667</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>52</v>
@@ -1496,7 +1364,7 @@
         <v>53</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:6" customHeight="1" ht="19.8">
@@ -1504,7 +1372,7 @@
         <v>20</v>
       </c>
       <c r="C27" s="11">
-        <v>570510635</v>
+        <v>560810066</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>54</v>
@@ -1513,7 +1381,7 @@
         <v>55</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:6" customHeight="1" ht="19.8">
@@ -1521,7 +1389,7 @@
         <v>21</v>
       </c>
       <c r="C28" s="11">
-        <v>570510640</v>
+        <v>561610016</v>
       </c>
       <c r="D28" s="12" t="s">
         <v>56</v>
@@ -1530,7 +1398,7 @@
         <v>57</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:6" customHeight="1" ht="19.8">
@@ -1538,7 +1406,7 @@
         <v>22</v>
       </c>
       <c r="C29" s="11">
-        <v>570510643</v>
+        <v>561610029</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>58</v>
@@ -1547,7 +1415,7 @@
         <v>59</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:6" customHeight="1" ht="19.8">
@@ -1555,7 +1423,7 @@
         <v>23</v>
       </c>
       <c r="C30" s="11">
-        <v>570510680</v>
+        <v>561910134</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>60</v>
@@ -1564,7 +1432,7 @@
         <v>61</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:6" customHeight="1" ht="19.8">
@@ -1572,7 +1440,7 @@
         <v>24</v>
       </c>
       <c r="C31" s="11">
-        <v>570510694</v>
+        <v>561910151</v>
       </c>
       <c r="D31" s="12" t="s">
         <v>62</v>
@@ -1581,7 +1449,7 @@
         <v>63</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:6" customHeight="1" ht="19.8">
@@ -1589,7 +1457,7 @@
         <v>25</v>
       </c>
       <c r="C32" s="11">
-        <v>571110013</v>
+        <v>570110323</v>
       </c>
       <c r="D32" s="12" t="s">
         <v>64</v>
@@ -1598,7 +1466,7 @@
         <v>65</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:6" customHeight="1" ht="19.8">
@@ -1606,7 +1474,7 @@
         <v>26</v>
       </c>
       <c r="C33" s="11">
-        <v>571110019</v>
+        <v>570110454</v>
       </c>
       <c r="D33" s="12" t="s">
         <v>66</v>
@@ -1615,7 +1483,7 @@
         <v>67</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:6" customHeight="1" ht="19.8">
@@ -1623,7 +1491,7 @@
         <v>27</v>
       </c>
       <c r="C34" s="11">
-        <v>571110039</v>
+        <v>570110455</v>
       </c>
       <c r="D34" s="12" t="s">
         <v>68</v>
@@ -1632,7 +1500,7 @@
         <v>69</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:6" customHeight="1" ht="19.8">
@@ -1640,7 +1508,7 @@
         <v>28</v>
       </c>
       <c r="C35" s="11">
-        <v>571110097</v>
+        <v>570110460</v>
       </c>
       <c r="D35" s="12" t="s">
         <v>70</v>
@@ -1649,7 +1517,7 @@
         <v>71</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:6" customHeight="1" ht="19.8">
@@ -1657,7 +1525,7 @@
         <v>29</v>
       </c>
       <c r="C36" s="11">
-        <v>571110101</v>
+        <v>570110462</v>
       </c>
       <c r="D36" s="12" t="s">
         <v>72</v>
@@ -1666,7 +1534,7 @@
         <v>73</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1687,7 +1555,7 @@
         <v>30</v>
       </c>
       <c r="C38" s="11">
-        <v>571110102</v>
+        <v>570510644</v>
       </c>
       <c r="D38" s="12" t="s">
         <v>74</v>
@@ -1696,7 +1564,7 @@
         <v>75</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:6" customHeight="1" ht="19.8">
@@ -1704,7 +1572,7 @@
         <v>31</v>
       </c>
       <c r="C39" s="11">
-        <v>571110103</v>
+        <v>571510042</v>
       </c>
       <c r="D39" s="12" t="s">
         <v>76</v>
@@ -1713,7 +1581,7 @@
         <v>77</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:6" customHeight="1" ht="19.8">
@@ -1721,7 +1589,7 @@
         <v>32</v>
       </c>
       <c r="C40" s="11">
-        <v>571110104</v>
+        <v>571610003</v>
       </c>
       <c r="D40" s="12" t="s">
         <v>78</v>
@@ -1730,7 +1598,7 @@
         <v>79</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:6" customHeight="1" ht="19.8">
@@ -1738,7 +1606,7 @@
         <v>33</v>
       </c>
       <c r="C41" s="11">
-        <v>571110105</v>
+        <v>571610005</v>
       </c>
       <c r="D41" s="12" t="s">
         <v>80</v>
@@ -1747,7 +1615,7 @@
         <v>81</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:6" customHeight="1" ht="19.8">
@@ -1755,7 +1623,7 @@
         <v>34</v>
       </c>
       <c r="C42" s="11">
-        <v>571110108</v>
+        <v>571610009</v>
       </c>
       <c r="D42" s="12" t="s">
         <v>82</v>
@@ -1764,7 +1632,7 @@
         <v>83</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:6" customHeight="1" ht="19.8">
@@ -1772,7 +1640,7 @@
         <v>35</v>
       </c>
       <c r="C43" s="11">
-        <v>571110109</v>
+        <v>571610012</v>
       </c>
       <c r="D43" s="12" t="s">
         <v>84</v>
@@ -1781,7 +1649,7 @@
         <v>85</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:6" customHeight="1" ht="19.8">
@@ -1789,7 +1657,7 @@
         <v>36</v>
       </c>
       <c r="C44" s="11">
-        <v>571510251</v>
+        <v>571610015</v>
       </c>
       <c r="D44" s="12" t="s">
         <v>86</v>
@@ -1798,7 +1666,7 @@
         <v>87</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:6" customHeight="1" ht="19.8">
@@ -1806,7 +1674,7 @@
         <v>37</v>
       </c>
       <c r="C45" s="11">
-        <v>571510259</v>
+        <v>571610060</v>
       </c>
       <c r="D45" s="12" t="s">
         <v>88</v>
@@ -1815,7 +1683,7 @@
         <v>89</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:6" customHeight="1" ht="19.8">
@@ -1823,7 +1691,7 @@
         <v>38</v>
       </c>
       <c r="C46" s="11">
-        <v>571510260</v>
+        <v>571610061</v>
       </c>
       <c r="D46" s="12" t="s">
         <v>90</v>
@@ -1832,7 +1700,7 @@
         <v>91</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:6" customHeight="1" ht="19.8">
@@ -1840,7 +1708,7 @@
         <v>39</v>
       </c>
       <c r="C47" s="11">
-        <v>571810015</v>
+        <v>571610070</v>
       </c>
       <c r="D47" s="12" t="s">
         <v>92</v>
@@ -1849,7 +1717,7 @@
         <v>93</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:6" customHeight="1" ht="19.8">
@@ -1857,7 +1725,7 @@
         <v>40</v>
       </c>
       <c r="C48" s="11">
-        <v>571810017</v>
+        <v>571610076</v>
       </c>
       <c r="D48" s="12" t="s">
         <v>94</v>
@@ -1866,7 +1734,7 @@
         <v>95</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:6" customHeight="1" ht="19.8">
@@ -1874,16 +1742,16 @@
         <v>41</v>
       </c>
       <c r="C49" s="11">
-        <v>571810019</v>
+        <v>571610087</v>
       </c>
       <c r="D49" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E49" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="E49" s="13" t="s">
-        <v>97</v>
-      </c>
       <c r="F49" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:6" customHeight="1" ht="19.8">
@@ -1891,16 +1759,16 @@
         <v>42</v>
       </c>
       <c r="C50" s="11">
-        <v>571810030</v>
+        <v>571610106</v>
       </c>
       <c r="D50" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="E50" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="E50" s="13" t="s">
-        <v>99</v>
-      </c>
       <c r="F50" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:6" customHeight="1" ht="19.8">
@@ -1908,16 +1776,16 @@
         <v>43</v>
       </c>
       <c r="C51" s="11">
-        <v>571810031</v>
+        <v>571610124</v>
       </c>
       <c r="D51" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E51" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="E51" s="13" t="s">
-        <v>101</v>
-      </c>
       <c r="F51" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:6" customHeight="1" ht="19.8">
@@ -1925,16 +1793,16 @@
         <v>44</v>
       </c>
       <c r="C52" s="11">
-        <v>571810036</v>
+        <v>571610129</v>
       </c>
       <c r="D52" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E52" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="E52" s="13" t="s">
-        <v>103</v>
-      </c>
       <c r="F52" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:6" customHeight="1" ht="19.8">
@@ -1942,16 +1810,16 @@
         <v>45</v>
       </c>
       <c r="C53" s="11">
-        <v>571810038</v>
+        <v>571610134</v>
       </c>
       <c r="D53" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E53" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="E53" s="13" t="s">
-        <v>105</v>
-      </c>
       <c r="F53" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:6" customHeight="1" ht="19.8">
@@ -1959,16 +1827,16 @@
         <v>46</v>
       </c>
       <c r="C54" s="11">
-        <v>571810042</v>
+        <v>571610179</v>
       </c>
       <c r="D54" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E54" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="E54" s="13" t="s">
-        <v>107</v>
-      </c>
       <c r="F54" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:6" customHeight="1" ht="19.8">
@@ -1976,16 +1844,16 @@
         <v>47</v>
       </c>
       <c r="C55" s="11">
-        <v>571810043</v>
+        <v>571610204</v>
       </c>
       <c r="D55" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E55" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="E55" s="13" t="s">
-        <v>109</v>
-      </c>
       <c r="F55" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:6" customHeight="1" ht="19.8">
@@ -1993,16 +1861,16 @@
         <v>48</v>
       </c>
       <c r="C56" s="11">
-        <v>571810045</v>
+        <v>571610224</v>
       </c>
       <c r="D56" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E56" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="E56" s="13" t="s">
-        <v>111</v>
-      </c>
       <c r="F56" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:6" customHeight="1" ht="19.8">
@@ -2010,16 +1878,16 @@
         <v>49</v>
       </c>
       <c r="C57" s="11">
-        <v>571810053</v>
+        <v>571610225</v>
       </c>
       <c r="D57" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="E57" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="E57" s="13" t="s">
-        <v>113</v>
-      </c>
       <c r="F57" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:6" customHeight="1" ht="19.8">
@@ -2027,16 +1895,16 @@
         <v>50</v>
       </c>
       <c r="C58" s="11">
-        <v>571810056</v>
+        <v>571610244</v>
       </c>
       <c r="D58" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E58" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="E58" s="13" t="s">
-        <v>115</v>
-      </c>
       <c r="F58" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" spans="1:6" customHeight="1" ht="19.8">
@@ -2044,16 +1912,16 @@
         <v>51</v>
       </c>
       <c r="C59" s="11">
-        <v>571810057</v>
+        <v>571610252</v>
       </c>
       <c r="D59" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E59" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="E59" s="13" t="s">
-        <v>117</v>
-      </c>
       <c r="F59" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="1:6" customHeight="1" ht="19.8">
@@ -2061,16 +1929,16 @@
         <v>52</v>
       </c>
       <c r="C60" s="11">
-        <v>571810062</v>
+        <v>571610264</v>
       </c>
       <c r="D60" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E60" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="E60" s="13" t="s">
-        <v>119</v>
-      </c>
       <c r="F60" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" spans="1:6" customHeight="1" ht="19.8">
@@ -2078,16 +1946,16 @@
         <v>53</v>
       </c>
       <c r="C61" s="11">
-        <v>571810069</v>
+        <v>571610323</v>
       </c>
       <c r="D61" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E61" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="E61" s="13" t="s">
-        <v>121</v>
-      </c>
       <c r="F61" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:6" customHeight="1" ht="19.8">
@@ -2095,16 +1963,16 @@
         <v>54</v>
       </c>
       <c r="C62" s="11">
-        <v>571810085</v>
+        <v>571610327</v>
       </c>
       <c r="D62" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E62" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="E62" s="13" t="s">
-        <v>123</v>
-      </c>
       <c r="F62" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:6" customHeight="1" ht="19.8">
@@ -2112,16 +1980,16 @@
         <v>55</v>
       </c>
       <c r="C63" s="11">
-        <v>571810093</v>
+        <v>571611091</v>
       </c>
       <c r="D63" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="E63" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="E63" s="13" t="s">
-        <v>125</v>
-      </c>
       <c r="F63" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" spans="1:6" customHeight="1" ht="19.8">
@@ -2129,16 +1997,16 @@
         <v>56</v>
       </c>
       <c r="C64" s="11">
-        <v>571810094</v>
+        <v>571611092</v>
       </c>
       <c r="D64" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="E64" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="E64" s="13" t="s">
-        <v>127</v>
-      </c>
       <c r="F64" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" spans="1:6" customHeight="1" ht="19.8">
@@ -2146,16 +2014,16 @@
         <v>57</v>
       </c>
       <c r="C65" s="11">
-        <v>571810104</v>
+        <v>571611123</v>
       </c>
       <c r="D65" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E65" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="E65" s="13" t="s">
-        <v>129</v>
-      </c>
       <c r="F65" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" spans="1:6" customHeight="1" ht="19.8">
@@ -2163,16 +2031,16 @@
         <v>58</v>
       </c>
       <c r="C66" s="11">
-        <v>571810105</v>
+        <v>571611126</v>
       </c>
       <c r="D66" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E66" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="E66" s="13" t="s">
-        <v>131</v>
-      </c>
       <c r="F66" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" spans="1:6" customHeight="1" ht="19.8">
@@ -2180,16 +2048,16 @@
         <v>59</v>
       </c>
       <c r="C67" s="11">
-        <v>571810106</v>
+        <v>571611128</v>
       </c>
       <c r="D67" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="E67" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="E67" s="13" t="s">
-        <v>133</v>
-      </c>
       <c r="F67" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" spans="1:6" customHeight="1" ht="19.8">
@@ -2197,16 +2065,16 @@
         <v>60</v>
       </c>
       <c r="C68" s="11">
-        <v>571810107</v>
+        <v>571611180</v>
       </c>
       <c r="D68" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="E68" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="E68" s="13" t="s">
-        <v>135</v>
-      </c>
       <c r="F68" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" spans="1:6" customHeight="1" ht="19.8">
@@ -2214,16 +2082,16 @@
         <v>61</v>
       </c>
       <c r="C69" s="11">
-        <v>571810110</v>
+        <v>571611199</v>
       </c>
       <c r="D69" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E69" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="E69" s="13" t="s">
-        <v>137</v>
-      </c>
       <c r="F69" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" spans="1:6" customHeight="1" ht="19.8">
@@ -2231,16 +2099,16 @@
         <v>62</v>
       </c>
       <c r="C70" s="11">
-        <v>571810111</v>
+        <v>571810039</v>
       </c>
       <c r="D70" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="E70" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="E70" s="13" t="s">
-        <v>139</v>
-      </c>
       <c r="F70" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" spans="1:6" customHeight="1" ht="19.8">
@@ -2248,16 +2116,16 @@
         <v>63</v>
       </c>
       <c r="C71" s="11">
-        <v>571810113</v>
+        <v>571810076</v>
       </c>
       <c r="D71" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="E71" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="E71" s="13" t="s">
-        <v>141</v>
-      </c>
       <c r="F71" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" spans="1:6" customHeight="1" ht="19.8">
@@ -2265,16 +2133,16 @@
         <v>64</v>
       </c>
       <c r="C72" s="11">
-        <v>571810114</v>
+        <v>571810089</v>
       </c>
       <c r="D72" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="E72" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="E72" s="13" t="s">
-        <v>143</v>
-      </c>
       <c r="F72" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2295,16 +2163,16 @@
         <v>65</v>
       </c>
       <c r="C74" s="11">
-        <v>571810115</v>
+        <v>571810091</v>
       </c>
       <c r="D74" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="E74" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="E74" s="13" t="s">
-        <v>145</v>
-      </c>
       <c r="F74" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" spans="1:6" customHeight="1" ht="19.8">
@@ -2312,16 +2180,16 @@
         <v>66</v>
       </c>
       <c r="C75" s="11">
-        <v>571810120</v>
+        <v>571810142</v>
       </c>
       <c r="D75" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="E75" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="E75" s="13" t="s">
-        <v>147</v>
-      </c>
       <c r="F75" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" spans="1:6" customHeight="1" ht="19.8">
@@ -2329,390 +2197,16 @@
         <v>67</v>
       </c>
       <c r="C76" s="11">
-        <v>571810121</v>
+        <v>571810163</v>
       </c>
       <c r="D76" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="E76" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="E76" s="13" t="s">
-        <v>149</v>
-      </c>
       <c r="F76" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" customHeight="1" ht="19.8">
-      <c r="B77" s="10">
-        <v>68</v>
-      </c>
-      <c r="C77" s="11">
-        <v>571810122</v>
-      </c>
-      <c r="D77" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="E77" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="F77" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" customHeight="1" ht="19.8">
-      <c r="B78" s="10">
-        <v>69</v>
-      </c>
-      <c r="C78" s="11">
-        <v>571810124</v>
-      </c>
-      <c r="D78" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="E78" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="F78" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" customHeight="1" ht="19.8">
-      <c r="B79" s="10">
-        <v>70</v>
-      </c>
-      <c r="C79" s="11">
-        <v>571810141</v>
-      </c>
-      <c r="D79" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="E79" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="F79" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" customHeight="1" ht="19.8">
-      <c r="B80" s="10">
-        <v>71</v>
-      </c>
-      <c r="C80" s="11">
-        <v>571810143</v>
-      </c>
-      <c r="D80" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="E80" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="F80" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" customHeight="1" ht="19.8">
-      <c r="B81" s="10">
-        <v>72</v>
-      </c>
-      <c r="C81" s="11">
-        <v>571810144</v>
-      </c>
-      <c r="D81" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="E81" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="F81" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" customHeight="1" ht="19.8">
-      <c r="B82" s="10">
-        <v>73</v>
-      </c>
-      <c r="C82" s="11">
-        <v>571810148</v>
-      </c>
-      <c r="D82" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="E82" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="F82" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" customHeight="1" ht="19.8">
-      <c r="B83" s="10">
-        <v>74</v>
-      </c>
-      <c r="C83" s="11">
-        <v>571810155</v>
-      </c>
-      <c r="D83" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="E83" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="F83" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" customHeight="1" ht="19.8">
-      <c r="B84" s="10">
-        <v>75</v>
-      </c>
-      <c r="C84" s="11">
-        <v>571810156</v>
-      </c>
-      <c r="D84" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="E84" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="F84" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" customHeight="1" ht="19.8">
-      <c r="B85" s="10">
-        <v>76</v>
-      </c>
-      <c r="C85" s="11">
-        <v>571810181</v>
-      </c>
-      <c r="D85" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="E85" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="F85" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" customHeight="1" ht="19.8">
-      <c r="B86" s="10">
-        <v>77</v>
-      </c>
-      <c r="C86" s="11">
-        <v>571810182</v>
-      </c>
-      <c r="D86" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="E86" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="F86" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" customHeight="1" ht="19.8">
-      <c r="B87" s="10">
-        <v>78</v>
-      </c>
-      <c r="C87" s="11">
-        <v>571810183</v>
-      </c>
-      <c r="D87" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E87" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="F87" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" customHeight="1" ht="19.8">
-      <c r="B88" s="10">
-        <v>79</v>
-      </c>
-      <c r="C88" s="11">
-        <v>571810184</v>
-      </c>
-      <c r="D88" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="E88" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="F88" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" customHeight="1" ht="19.8">
-      <c r="B89" s="10">
-        <v>80</v>
-      </c>
-      <c r="C89" s="11">
-        <v>571810185</v>
-      </c>
-      <c r="D89" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="E89" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="F89" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" customHeight="1" ht="19.8">
-      <c r="B90" s="10">
-        <v>81</v>
-      </c>
-      <c r="C90" s="11">
-        <v>571810186</v>
-      </c>
-      <c r="D90" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="E90" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="F90" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" customHeight="1" ht="19.8">
-      <c r="B91" s="10">
-        <v>82</v>
-      </c>
-      <c r="C91" s="11">
-        <v>571810198</v>
-      </c>
-      <c r="D91" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E91" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="F91" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" customHeight="1" ht="19.8">
-      <c r="B92" s="10">
-        <v>83</v>
-      </c>
-      <c r="C92" s="11">
-        <v>571810204</v>
-      </c>
-      <c r="D92" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="E92" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="F92" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" customHeight="1" ht="19.8">
-      <c r="B93" s="10">
-        <v>84</v>
-      </c>
-      <c r="C93" s="11">
-        <v>571810206</v>
-      </c>
-      <c r="D93" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="E93" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="F93" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" customHeight="1" ht="19.8">
-      <c r="B94" s="10">
-        <v>85</v>
-      </c>
-      <c r="C94" s="11">
-        <v>571910222</v>
-      </c>
-      <c r="D94" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="E94" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="F94" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" customHeight="1" ht="19.8">
-      <c r="B95" s="10">
-        <v>86</v>
-      </c>
-      <c r="C95" s="11">
-        <v>571910223</v>
-      </c>
-      <c r="D95" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="E95" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="F95" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" customHeight="1" ht="19.8">
-      <c r="B96" s="10">
-        <v>87</v>
-      </c>
-      <c r="C96" s="11">
-        <v>571910233</v>
-      </c>
-      <c r="D96" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="E96" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="F96" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" customHeight="1" ht="19.8">
-      <c r="B97" s="10">
-        <v>88</v>
-      </c>
-      <c r="C97" s="11">
-        <v>571910246</v>
-      </c>
-      <c r="D97" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="E97" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="F97" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" customHeight="1" ht="19.8">
-      <c r="B98" s="10">
-        <v>89</v>
-      </c>
-      <c r="C98" s="11">
-        <v>571910248</v>
-      </c>
-      <c r="D98" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="E98" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="F98" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/temp/file.xlsx
+++ b/temp/file.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="204100-002000" sheetId="1" r:id="rId4"/>
+    <sheet name="204100-001000" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="193">
   <si>
     <t>รายชื่อนักศึกษาที่ลงทะเบียนเรียน ภาคเรียนที่ 2 ปีการศึกษา 2557</t>
   </si>
@@ -35,13 +35,13 @@
     <t xml:space="preserve">  SECTION (lec/lab) :</t>
   </si>
   <si>
-    <t xml:space="preserve">                 002/000</t>
+    <t xml:space="preserve">                 001/000</t>
   </si>
   <si>
     <t xml:space="preserve">  LECTURER :</t>
   </si>
   <si>
-    <t xml:space="preserve">                 คณาจารย์     </t>
+    <t xml:space="preserve">                 กิตติพิชญ์   คุปตะวาณิช</t>
   </si>
   <si>
     <t xml:space="preserve">  DATE :</t>
@@ -59,409 +59,541 @@
     <t>ชื่อ - นามสกุล</t>
   </si>
   <si>
-    <t>นายนัฐกรณ์</t>
-  </si>
-  <si>
-    <t>บัวเจริญ</t>
+    <t>นายพงศธร</t>
+  </si>
+  <si>
+    <t>คิดถี</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                               W                                  </t>
+  </si>
+  <si>
+    <t>นางสาวภัทรพรรณ</t>
+  </si>
+  <si>
+    <t>เพียนอก</t>
   </si>
   <si>
     <t xml:space="preserve">                                                                 </t>
   </si>
   <si>
-    <t>นายสิทธิศักดิ์</t>
-  </si>
-  <si>
-    <t>โกพุฒถ้อย</t>
-  </si>
-  <si>
-    <t>นายสิรภพ</t>
-  </si>
-  <si>
-    <t>กาใจคำ</t>
-  </si>
-  <si>
-    <t>นายปฐมพล</t>
-  </si>
-  <si>
-    <t>บุตรสาริยัง</t>
-  </si>
-  <si>
-    <t>นางสาวพัชรียา</t>
-  </si>
-  <si>
-    <t>สุจนะ</t>
-  </si>
-  <si>
-    <t>นายชวัลเมธ</t>
-  </si>
-  <si>
-    <t>คูณขุนทด</t>
-  </si>
-  <si>
-    <t>นางสาวณัฐธิดา</t>
-  </si>
-  <si>
-    <t>มิคะนุช</t>
-  </si>
-  <si>
-    <t>นางสาวธันยพร</t>
-  </si>
-  <si>
-    <t>จันต๊ะ</t>
-  </si>
-  <si>
-    <t>นางสาวปุญญิศา</t>
-  </si>
-  <si>
-    <t>นวลนพคุณ</t>
-  </si>
-  <si>
-    <t>นายพิชชากรณ์</t>
-  </si>
-  <si>
-    <t>จันทร์ศรีรัตน์</t>
-  </si>
-  <si>
-    <t>นางสาวพิชญดา</t>
-  </si>
-  <si>
-    <t>เกยงค์</t>
-  </si>
-  <si>
-    <t>นายรวิโรจน์</t>
-  </si>
-  <si>
-    <t>ไทรงาม</t>
-  </si>
-  <si>
-    <t>นายวัชระ</t>
-  </si>
-  <si>
-    <t>หอมหวล</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                               W                                  </t>
-  </si>
-  <si>
-    <t>นายวีระชัย</t>
-  </si>
-  <si>
-    <t>ใจทอง</t>
-  </si>
-  <si>
-    <t>นางสาวสุดารัตน์</t>
-  </si>
-  <si>
-    <t>พิสกุล</t>
-  </si>
-  <si>
-    <t>นางสาวสุวัชรีภรณ์</t>
-  </si>
-  <si>
-    <t>จิตใจ</t>
-  </si>
-  <si>
-    <t>นางสาวอังคณา</t>
-  </si>
-  <si>
-    <t>เลิมสุ่ม</t>
-  </si>
-  <si>
-    <t>นางสาวอัยฎา</t>
-  </si>
-  <si>
-    <t>อัฐศิลาเลิศ</t>
-  </si>
-  <si>
-    <t>นายศิริโชค</t>
-  </si>
-  <si>
-    <t>มีใจ</t>
-  </si>
-  <si>
-    <t>นางสาวอรนภา</t>
-  </si>
-  <si>
-    <t>เลิศพุฒิภิญโญ</t>
-  </si>
-  <si>
-    <t>นางสาวจิตรลดา</t>
-  </si>
-  <si>
-    <t>จันหลวง</t>
-  </si>
-  <si>
-    <t>นางสาวฑาริกา</t>
-  </si>
-  <si>
-    <t>ขันตรี</t>
-  </si>
-  <si>
-    <t>นางสาววิราวรรณ</t>
-  </si>
-  <si>
-    <t>พรหมภิรา</t>
-  </si>
-  <si>
-    <t>นายอภิวัฒน์</t>
-  </si>
-  <si>
-    <t>ทรัพย์เย็น</t>
-  </si>
-  <si>
-    <t>นางสาวพชรพร</t>
-  </si>
-  <si>
-    <t>สุทธิลักษณ์</t>
-  </si>
-  <si>
-    <t>นางสาวธัญนันท์</t>
-  </si>
-  <si>
-    <t>พันธ์เนียม</t>
-  </si>
-  <si>
-    <t>นายเนติพงษ์</t>
-  </si>
-  <si>
-    <t>เจริญขำ</t>
-  </si>
-  <si>
-    <t>นางสาวรวิวรรณ</t>
+    <t>นางสาวรุจี</t>
+  </si>
+  <si>
+    <t>ต้นเหลือง</t>
+  </si>
+  <si>
+    <t>นายพงศ์ภัค</t>
+  </si>
+  <si>
+    <t>ประภากรมณฑล</t>
+  </si>
+  <si>
+    <t>นางสาวจริยา</t>
+  </si>
+  <si>
+    <t>สุขเเก้ว</t>
+  </si>
+  <si>
+    <t>นางสาวนภาพร</t>
+  </si>
+  <si>
+    <t>แก้วแสงทอง</t>
+  </si>
+  <si>
+    <t>นางสาวสุทธิดา</t>
+  </si>
+  <si>
+    <t>กันธิมา</t>
+  </si>
+  <si>
+    <t>นางสาวกุลธิดา</t>
+  </si>
+  <si>
+    <t>พุทธเจริญ</t>
+  </si>
+  <si>
+    <t>นายชิษณุพงศ์</t>
+  </si>
+  <si>
+    <t>หาวา</t>
+  </si>
+  <si>
+    <t>นางสาวณิชมน</t>
+  </si>
+  <si>
+    <t>ทองริด</t>
+  </si>
+  <si>
+    <t>นางสาวอภิสรา</t>
+  </si>
+  <si>
+    <t>ฉายาพงศ์</t>
+  </si>
+  <si>
+    <t>นางสาวพิชญา</t>
+  </si>
+  <si>
+    <t>วัชโรภาส</t>
+  </si>
+  <si>
+    <t>นางสาวชนันธิดา</t>
+  </si>
+  <si>
+    <t>สักลอ</t>
+  </si>
+  <si>
+    <t>นางสาวบุญญรัตน์</t>
+  </si>
+  <si>
+    <t>นิวาศะบุตร</t>
+  </si>
+  <si>
+    <t>นางสาวมีณมาส</t>
+  </si>
+  <si>
+    <t>แก่นดี</t>
+  </si>
+  <si>
+    <t>นางสาวกันยา</t>
+  </si>
+  <si>
+    <t>ผาด่าน</t>
+  </si>
+  <si>
+    <t>นายคเชน</t>
   </si>
   <si>
     <t>ศรีวิชัย</t>
   </si>
   <si>
-    <t>นายวีระชาติ</t>
-  </si>
-  <si>
-    <t>อุตรนคร</t>
+    <t>นายชนสรณ์</t>
+  </si>
+  <si>
+    <t>ศรีสัตบุตร</t>
+  </si>
+  <si>
+    <t>นายคามิน</t>
+  </si>
+  <si>
+    <t>ช่วงสุวนิช</t>
+  </si>
+  <si>
+    <t>นายจุลธวัช</t>
+  </si>
+  <si>
+    <t>ทองอร่าม</t>
+  </si>
+  <si>
+    <t>นายชานนท์</t>
+  </si>
+  <si>
+    <t>ทองมณี</t>
+  </si>
+  <si>
+    <t>นายณัฐดนัย</t>
+  </si>
+  <si>
+    <t>สุขแก้ว</t>
+  </si>
+  <si>
+    <t>นายวรพันธ์</t>
+  </si>
+  <si>
+    <t>คำภู</t>
+  </si>
+  <si>
+    <t>นายสหรัฐ</t>
+  </si>
+  <si>
+    <t>สิทธิปัญญา</t>
+  </si>
+  <si>
+    <t>นางสาวฉัตรชาริกา</t>
+  </si>
+  <si>
+    <t>ขันแก้ว</t>
+  </si>
+  <si>
+    <t>นายเชษฐภัค</t>
+  </si>
+  <si>
+    <t>เรืองดิษฐ์</t>
+  </si>
+  <si>
+    <t>นางสาวธมณภัทร</t>
+  </si>
+  <si>
+    <t>พิทักษ์</t>
+  </si>
+  <si>
+    <t>นางสาวสุนิศา</t>
+  </si>
+  <si>
+    <t>จิ๋วปัญญา</t>
+  </si>
+  <si>
+    <t>นางสาวอนงค์พร</t>
+  </si>
+  <si>
+    <t>เทพสุวรรณ</t>
+  </si>
+  <si>
+    <t>นางสาวอนุตรา</t>
+  </si>
+  <si>
+    <t>ปัญจรัก</t>
+  </si>
+  <si>
+    <t>นางสาวอภิญญา</t>
+  </si>
+  <si>
+    <t>ปานศิลา</t>
+  </si>
+  <si>
+    <t>นายอมรเทพ</t>
+  </si>
+  <si>
+    <t>พิชัยพงศ์</t>
+  </si>
+  <si>
+    <t>นางสาวอมลพรรษ</t>
+  </si>
+  <si>
+    <t>ชตาเริกษ์</t>
+  </si>
+  <si>
+    <t>นางสาวอาภัสนันท์</t>
+  </si>
+  <si>
+    <t>อารีเอื้อ</t>
+  </si>
+  <si>
+    <t>นายเอกภพ</t>
+  </si>
+  <si>
+    <t>พจนสิทธิ์</t>
+  </si>
+  <si>
+    <t>นางสาวศัสยมน</t>
+  </si>
+  <si>
+    <t>ดวงใจสัก</t>
+  </si>
+  <si>
+    <t>นางสาวศุภรัสมิ์</t>
+  </si>
+  <si>
+    <t>กระพันพงศ์สกุล</t>
+  </si>
+  <si>
+    <t>นางสาวศุภวรรณ</t>
+  </si>
+  <si>
+    <t>บุญสุข</t>
+  </si>
+  <si>
+    <t>นายคริษฐ์</t>
+  </si>
+  <si>
+    <t>นิ่มศิริเรืองผล</t>
+  </si>
+  <si>
+    <t>นางสาวจริยาพร</t>
+  </si>
+  <si>
+    <t>จิรพัฒนากุล</t>
+  </si>
+  <si>
+    <t>นางสาวจารุวรรณ</t>
+  </si>
+  <si>
+    <t>โท๊ะหล้าบุตร</t>
+  </si>
+  <si>
+    <t>นายชญาพัฒณ์</t>
+  </si>
+  <si>
+    <t>ภู่เกตุ</t>
+  </si>
+  <si>
+    <t>นางสาวชนนิกานต์</t>
+  </si>
+  <si>
+    <t>เทียนสมจิตร</t>
+  </si>
+  <si>
+    <t>นางสาวชลิดา</t>
+  </si>
+  <si>
+    <t>มานะกิจศิริสุทธิ</t>
+  </si>
+  <si>
+    <t>นายชาติเวท</t>
+  </si>
+  <si>
+    <t>สายบุตร</t>
+  </si>
+  <si>
+    <t>นางสาวเชฬุณีย์</t>
+  </si>
+  <si>
+    <t>ภูวฐิตานนท์</t>
+  </si>
+  <si>
+    <t>นางสาวฌัชชา</t>
+  </si>
+  <si>
+    <t>มาลารัตน์</t>
+  </si>
+  <si>
+    <t>นางสาวญาณิศา</t>
+  </si>
+  <si>
+    <t>ตาพรหม</t>
+  </si>
+  <si>
+    <t>นางสาวณัชชา</t>
+  </si>
+  <si>
+    <t>พาทพุทธิพงศ์</t>
+  </si>
+  <si>
+    <t>นางสาวณัฏฐธิดา</t>
+  </si>
+  <si>
+    <t>วณิชพิพัฒน์กุล</t>
+  </si>
+  <si>
+    <t>นางสาวณัฏฐนิช</t>
+  </si>
+  <si>
+    <t>บุญแร่</t>
   </si>
   <si>
     <t>นายณัฐพงศ์</t>
   </si>
   <si>
-    <t>ปันติคำ</t>
-  </si>
-  <si>
-    <t>นางสาวจิรวรรณ</t>
-  </si>
-  <si>
-    <t>แก้วคำ</t>
-  </si>
-  <si>
-    <t>นางสาวกนกวรรณ</t>
-  </si>
-  <si>
-    <t>วิชัยศรี</t>
-  </si>
-  <si>
-    <t>นางสาวกมลพรรณ</t>
-  </si>
-  <si>
-    <t>จันทร์รัตน์</t>
-  </si>
-  <si>
-    <t>นางสาวกรรณิการ์</t>
-  </si>
-  <si>
-    <t>บุญเกิดรัมย์</t>
-  </si>
-  <si>
-    <t>นายกฤตานน</t>
-  </si>
-  <si>
-    <t>กันตีวงศ์</t>
-  </si>
-  <si>
-    <t>นายกลวัชร</t>
-  </si>
-  <si>
-    <t>คำวัง</t>
-  </si>
-  <si>
-    <t>นางสาวชริญณัฏฐ์</t>
-  </si>
-  <si>
-    <t>ยะนัน</t>
-  </si>
-  <si>
-    <t>นางสาวชลกานต์</t>
-  </si>
-  <si>
-    <t>ผลละออ</t>
-  </si>
-  <si>
-    <t>นายญาณาธิป</t>
-  </si>
-  <si>
-    <t>เทพาคำ</t>
-  </si>
-  <si>
-    <t>นางสาวฑิฆัมพร</t>
-  </si>
-  <si>
-    <t>ดวงเงา</t>
-  </si>
-  <si>
-    <t>คงนิยม</t>
-  </si>
-  <si>
-    <t>นายทศพร</t>
-  </si>
-  <si>
-    <t>หัตถดล</t>
-  </si>
-  <si>
-    <t>นายธเนศพล</t>
-  </si>
-  <si>
-    <t>วงค์มณี</t>
-  </si>
-  <si>
-    <t>นางสาวธัญธิดา</t>
-  </si>
-  <si>
-    <t>โสตถิกุล</t>
-  </si>
-  <si>
-    <t>นายธาดา</t>
-  </si>
-  <si>
-    <t>นวลสนิท</t>
-  </si>
-  <si>
-    <t>นางสาวประภาสิริ</t>
-  </si>
-  <si>
-    <t>เนียมหอม</t>
-  </si>
-  <si>
-    <t>นางสาวพรธีรา</t>
-  </si>
-  <si>
-    <t>โอฬาริกชาติ</t>
-  </si>
-  <si>
-    <t>นางสาวพิมพ์</t>
-  </si>
-  <si>
-    <t>บูรณะพิมพ์</t>
-  </si>
-  <si>
-    <t>นางสาวพิมพ์ชนก</t>
-  </si>
-  <si>
-    <t>พิมสาร</t>
-  </si>
-  <si>
-    <t>นางสาวภัทรวดี</t>
-  </si>
-  <si>
-    <t>ด้วงผึ้ง</t>
-  </si>
-  <si>
-    <t>นางสาวมยุรี</t>
-  </si>
-  <si>
-    <t>สายคำกอง</t>
-  </si>
-  <si>
-    <t>นายรวิภาต</t>
-  </si>
-  <si>
-    <t>ปานโกศล</t>
-  </si>
-  <si>
-    <t>นายศุภวิชญ์</t>
-  </si>
-  <si>
-    <t>จันทรักษา</t>
-  </si>
-  <si>
-    <t>นายสมรักษ์</t>
-  </si>
-  <si>
-    <t>ศรีสุพล</t>
-  </si>
-  <si>
-    <t>นายธีระพงษ์</t>
-  </si>
-  <si>
-    <t>สุพรรณคง</t>
-  </si>
-  <si>
-    <t>นางสาวนงนภัส</t>
-  </si>
-  <si>
-    <t>เสงี่ยมวิบูล</t>
-  </si>
-  <si>
-    <t>นางสาวพรชนก</t>
-  </si>
-  <si>
-    <t>ประดิษฐ์ทอง</t>
-  </si>
-  <si>
-    <t>นางสาวพรอาภา</t>
-  </si>
-  <si>
-    <t>เกษสุวรรณ</t>
-  </si>
-  <si>
-    <t>นางสาวพัชรีภรณ์</t>
-  </si>
-  <si>
-    <t>พุทธิมา</t>
-  </si>
-  <si>
-    <t>นางสาวศุวลักษณ์</t>
-  </si>
-  <si>
-    <t>แก้วนวล</t>
-  </si>
-  <si>
-    <t>นางสาวอรจิรา</t>
-  </si>
-  <si>
-    <t>วังวนสินธุ์</t>
-  </si>
-  <si>
-    <t>นายชิณเวศน์</t>
-  </si>
-  <si>
-    <t>หาเรือนมิตร</t>
-  </si>
-  <si>
-    <t>นางสาวธนิษฐา</t>
-  </si>
-  <si>
-    <t>วิทยศักดิ์</t>
-  </si>
-  <si>
-    <t>นายนรวิชญ์</t>
-  </si>
-  <si>
-    <t>เย็นนานนทน์</t>
-  </si>
-  <si>
-    <t>นางสาวนันท์นภัส</t>
-  </si>
-  <si>
-    <t>สีเดะ</t>
-  </si>
-  <si>
-    <t>นางสาวยมลพร</t>
-  </si>
-  <si>
-    <t>ภวนะวิเชียร</t>
-  </si>
-  <si>
-    <t>นางสาววิฐิติ</t>
-  </si>
-  <si>
-    <t>ขระเขื่อน</t>
+    <t>ปันยศ</t>
+  </si>
+  <si>
+    <t>นางสาวทิพย์ธิดา</t>
+  </si>
+  <si>
+    <t>แซ่เติ๋น</t>
+  </si>
+  <si>
+    <t>นายธุววิช</t>
+  </si>
+  <si>
+    <t>ปานเกิด</t>
+  </si>
+  <si>
+    <t>นางสาวนัยนา</t>
+  </si>
+  <si>
+    <t>สิทธิเจริญ</t>
+  </si>
+  <si>
+    <t>นางสาวนิธิพร</t>
+  </si>
+  <si>
+    <t>จันทะวัง</t>
+  </si>
+  <si>
+    <t>นายปรเมทฎ</t>
+  </si>
+  <si>
+    <t>นิติประศาสน์</t>
+  </si>
+  <si>
+    <t>นายปราชญ์</t>
+  </si>
+  <si>
+    <t>หลิ่มสุริยะ</t>
+  </si>
+  <si>
+    <t>นางสาวปริญญ์</t>
+  </si>
+  <si>
+    <t>รัตตัญญู</t>
+  </si>
+  <si>
+    <t>นางสาวปริยาภัทร</t>
+  </si>
+  <si>
+    <t>สมบัติปัน</t>
+  </si>
+  <si>
+    <t>นางสาวปวีณ์นุช</t>
+  </si>
+  <si>
+    <t>เอื้อแท้</t>
+  </si>
+  <si>
+    <t>นางสาวปวีณ์สุดา</t>
+  </si>
+  <si>
+    <t>เดชบุญ</t>
+  </si>
+  <si>
+    <t>นางสาวปิยธิดา</t>
+  </si>
+  <si>
+    <t>คำน้อย</t>
+  </si>
+  <si>
+    <t>นายปุริม</t>
+  </si>
+  <si>
+    <t>วาดเขียน</t>
+  </si>
+  <si>
+    <t>นายพงศกร</t>
+  </si>
+  <si>
+    <t>ยั่งยืน</t>
+  </si>
+  <si>
+    <t>นางสาวพัชราวลัย</t>
+  </si>
+  <si>
+    <t>เด่นนิติรัตน์</t>
+  </si>
+  <si>
+    <t>นางสาวพัชรี</t>
+  </si>
+  <si>
+    <t>อิสาน</t>
+  </si>
+  <si>
+    <t>นางสาวพิจาริน</t>
+  </si>
+  <si>
+    <t>ศิริพจนานนท์</t>
+  </si>
+  <si>
+    <t>นายพิชญ์ยุติ</t>
+  </si>
+  <si>
+    <t>ใจมิภักดิ์</t>
+  </si>
+  <si>
+    <t>นางสาวมัลลิกา</t>
+  </si>
+  <si>
+    <t>ไชยบัง</t>
+  </si>
+  <si>
+    <t>นายยศกร</t>
+  </si>
+  <si>
+    <t>สุดสวาสดิ์</t>
+  </si>
+  <si>
+    <t>นายเยาวยุทธ์</t>
+  </si>
+  <si>
+    <t>กันธัง</t>
+  </si>
+  <si>
+    <t>นางสาวรวินันท์</t>
+  </si>
+  <si>
+    <t>อุ้ยประเสริฐวัฒนา</t>
+  </si>
+  <si>
+    <t>นายฤทธิพร</t>
+  </si>
+  <si>
+    <t>จันทร์ขจร</t>
+  </si>
+  <si>
+    <t>นางสาวลภัสนันท์</t>
+  </si>
+  <si>
+    <t>พิราดา</t>
+  </si>
+  <si>
+    <t>นายสามารถ</t>
+  </si>
+  <si>
+    <t>สนิทมาก</t>
+  </si>
+  <si>
+    <t>นางสาวสิริกานดา</t>
+  </si>
+  <si>
+    <t>กล้าวิกย์การ</t>
+  </si>
+  <si>
+    <t>อุ่นจิต</t>
+  </si>
+  <si>
+    <t>นางสาวสุทธิพร</t>
+  </si>
+  <si>
+    <t>มณีวงค์</t>
+  </si>
+  <si>
+    <t>นายสุทธิศักดิ์</t>
+  </si>
+  <si>
+    <t>สิริกุลสัมพันธ์</t>
+  </si>
+  <si>
+    <t>นางสาวสุทธิษา</t>
+  </si>
+  <si>
+    <t>มณีรัตน์</t>
+  </si>
+  <si>
+    <t>นางสาวอัจฉราพรรณ</t>
+  </si>
+  <si>
+    <t>คำแก้ว</t>
+  </si>
+  <si>
+    <t>นางสาวเอกรณี</t>
+  </si>
+  <si>
+    <t>ขัดเรือง</t>
+  </si>
+  <si>
+    <t>นางสาวเอมวรี</t>
+  </si>
+  <si>
+    <t>มีชัยสุวรรณ์</t>
+  </si>
+  <si>
+    <t>นางสาวประกายกานต์</t>
+  </si>
+  <si>
+    <t>ศรีสองสกุล</t>
+  </si>
+  <si>
+    <t>นางสาวประกายดาว</t>
+  </si>
+  <si>
+    <t>มากาศ</t>
+  </si>
+  <si>
+    <t>นางสาวพราวพิไล</t>
+  </si>
+  <si>
+    <t>เดชธงไชย</t>
+  </si>
+  <si>
+    <t>นางสาวมนัชยา</t>
+  </si>
+  <si>
+    <t>ยะโกะ</t>
+  </si>
+  <si>
+    <t>นางสาวเมธาวี</t>
+  </si>
+  <si>
+    <t>แสงทอง</t>
   </si>
 </sst>
 </file>
@@ -953,10 +1085,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F76"/>
+  <dimension ref="A1:F98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F76" sqref="F76"/>
+      <selection activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1049,7 +1181,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="11">
-        <v>540610620</v>
+        <v>531910135</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>14</v>
@@ -1066,7 +1198,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="11">
-        <v>540610650</v>
+        <v>540510297</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>17</v>
@@ -1075,7 +1207,7 @@
         <v>18</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:6" customHeight="1" ht="19.8">
@@ -1083,16 +1215,16 @@
         <v>3</v>
       </c>
       <c r="C10" s="11">
-        <v>540610651</v>
+        <v>540510305</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:6" customHeight="1" ht="19.8">
@@ -1100,16 +1232,16 @@
         <v>4</v>
       </c>
       <c r="C11" s="11">
-        <v>541610076</v>
+        <v>540510669</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:6" customHeight="1" ht="19.8">
@@ -1117,16 +1249,16 @@
         <v>5</v>
       </c>
       <c r="C12" s="11">
-        <v>551610083</v>
+        <v>550210003</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:6" customHeight="1" ht="19.8">
@@ -1134,16 +1266,16 @@
         <v>6</v>
       </c>
       <c r="C13" s="11">
-        <v>560410086</v>
+        <v>550210012</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:6" customHeight="1" ht="19.8">
@@ -1151,16 +1283,16 @@
         <v>7</v>
       </c>
       <c r="C14" s="11">
-        <v>560410093</v>
+        <v>551310113</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:6" customHeight="1" ht="19.8">
@@ -1168,16 +1300,16 @@
         <v>8</v>
       </c>
       <c r="C15" s="11">
-        <v>560410098</v>
+        <v>560510019</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:6" customHeight="1" ht="19.8">
@@ -1185,16 +1317,16 @@
         <v>9</v>
       </c>
       <c r="C16" s="11">
-        <v>560410110</v>
+        <v>560510615</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:6" customHeight="1" ht="19.8">
@@ -1202,16 +1334,16 @@
         <v>10</v>
       </c>
       <c r="C17" s="11">
-        <v>560410114</v>
+        <v>561010050</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:6" customHeight="1" ht="19.8">
@@ -1219,16 +1351,16 @@
         <v>11</v>
       </c>
       <c r="C18" s="11">
-        <v>560410115</v>
+        <v>561010160</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:6" customHeight="1" ht="19.8">
@@ -1236,16 +1368,16 @@
         <v>12</v>
       </c>
       <c r="C19" s="11">
-        <v>560410122</v>
+        <v>561611090</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:6" customHeight="1" ht="19.8">
@@ -1253,16 +1385,16 @@
         <v>13</v>
       </c>
       <c r="C20" s="11">
-        <v>560410131</v>
+        <v>570110135</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:6" customHeight="1" ht="19.8">
@@ -1270,7 +1402,7 @@
         <v>14</v>
       </c>
       <c r="C21" s="11">
-        <v>560410134</v>
+        <v>570110144</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>42</v>
@@ -1279,7 +1411,7 @@
         <v>43</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:6" customHeight="1" ht="19.8">
@@ -1287,7 +1419,7 @@
         <v>15</v>
       </c>
       <c r="C22" s="11">
-        <v>560410141</v>
+        <v>570110156</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>44</v>
@@ -1296,7 +1428,7 @@
         <v>45</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:6" customHeight="1" ht="19.8">
@@ -1304,7 +1436,7 @@
         <v>16</v>
       </c>
       <c r="C23" s="11">
-        <v>560410144</v>
+        <v>570110213</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>46</v>
@@ -1313,7 +1445,7 @@
         <v>47</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:6" customHeight="1" ht="19.8">
@@ -1321,7 +1453,7 @@
         <v>17</v>
       </c>
       <c r="C24" s="11">
-        <v>560410148</v>
+        <v>570210060</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>48</v>
@@ -1330,7 +1462,7 @@
         <v>49</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:6" customHeight="1" ht="19.8">
@@ -1338,7 +1470,7 @@
         <v>18</v>
       </c>
       <c r="C25" s="11">
-        <v>560410149</v>
+        <v>570510620</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>50</v>
@@ -1347,7 +1479,7 @@
         <v>51</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:6" customHeight="1" ht="19.8">
@@ -1355,7 +1487,7 @@
         <v>19</v>
       </c>
       <c r="C26" s="11">
-        <v>560510667</v>
+        <v>570510629</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>52</v>
@@ -1364,7 +1496,7 @@
         <v>53</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:6" customHeight="1" ht="19.8">
@@ -1372,7 +1504,7 @@
         <v>20</v>
       </c>
       <c r="C27" s="11">
-        <v>560810066</v>
+        <v>570510635</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>54</v>
@@ -1381,7 +1513,7 @@
         <v>55</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:6" customHeight="1" ht="19.8">
@@ -1389,7 +1521,7 @@
         <v>21</v>
       </c>
       <c r="C28" s="11">
-        <v>561610016</v>
+        <v>570510640</v>
       </c>
       <c r="D28" s="12" t="s">
         <v>56</v>
@@ -1398,7 +1530,7 @@
         <v>57</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:6" customHeight="1" ht="19.8">
@@ -1406,7 +1538,7 @@
         <v>22</v>
       </c>
       <c r="C29" s="11">
-        <v>561610029</v>
+        <v>570510643</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>58</v>
@@ -1415,7 +1547,7 @@
         <v>59</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:6" customHeight="1" ht="19.8">
@@ -1423,7 +1555,7 @@
         <v>23</v>
       </c>
       <c r="C30" s="11">
-        <v>561910134</v>
+        <v>570510680</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>60</v>
@@ -1432,7 +1564,7 @@
         <v>61</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:6" customHeight="1" ht="19.8">
@@ -1440,7 +1572,7 @@
         <v>24</v>
       </c>
       <c r="C31" s="11">
-        <v>561910151</v>
+        <v>570510694</v>
       </c>
       <c r="D31" s="12" t="s">
         <v>62</v>
@@ -1449,7 +1581,7 @@
         <v>63</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:6" customHeight="1" ht="19.8">
@@ -1457,7 +1589,7 @@
         <v>25</v>
       </c>
       <c r="C32" s="11">
-        <v>570110323</v>
+        <v>571110013</v>
       </c>
       <c r="D32" s="12" t="s">
         <v>64</v>
@@ -1466,7 +1598,7 @@
         <v>65</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:6" customHeight="1" ht="19.8">
@@ -1474,7 +1606,7 @@
         <v>26</v>
       </c>
       <c r="C33" s="11">
-        <v>570110454</v>
+        <v>571110019</v>
       </c>
       <c r="D33" s="12" t="s">
         <v>66</v>
@@ -1483,7 +1615,7 @@
         <v>67</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:6" customHeight="1" ht="19.8">
@@ -1491,7 +1623,7 @@
         <v>27</v>
       </c>
       <c r="C34" s="11">
-        <v>570110455</v>
+        <v>571110039</v>
       </c>
       <c r="D34" s="12" t="s">
         <v>68</v>
@@ -1500,7 +1632,7 @@
         <v>69</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:6" customHeight="1" ht="19.8">
@@ -1508,7 +1640,7 @@
         <v>28</v>
       </c>
       <c r="C35" s="11">
-        <v>570110460</v>
+        <v>571110097</v>
       </c>
       <c r="D35" s="12" t="s">
         <v>70</v>
@@ -1517,7 +1649,7 @@
         <v>71</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:6" customHeight="1" ht="19.8">
@@ -1525,7 +1657,7 @@
         <v>29</v>
       </c>
       <c r="C36" s="11">
-        <v>570110462</v>
+        <v>571110101</v>
       </c>
       <c r="D36" s="12" t="s">
         <v>72</v>
@@ -1534,7 +1666,7 @@
         <v>73</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1555,7 +1687,7 @@
         <v>30</v>
       </c>
       <c r="C38" s="11">
-        <v>570510644</v>
+        <v>571110102</v>
       </c>
       <c r="D38" s="12" t="s">
         <v>74</v>
@@ -1564,7 +1696,7 @@
         <v>75</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:6" customHeight="1" ht="19.8">
@@ -1572,7 +1704,7 @@
         <v>31</v>
       </c>
       <c r="C39" s="11">
-        <v>571510042</v>
+        <v>571110103</v>
       </c>
       <c r="D39" s="12" t="s">
         <v>76</v>
@@ -1581,7 +1713,7 @@
         <v>77</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:6" customHeight="1" ht="19.8">
@@ -1589,7 +1721,7 @@
         <v>32</v>
       </c>
       <c r="C40" s="11">
-        <v>571610003</v>
+        <v>571110104</v>
       </c>
       <c r="D40" s="12" t="s">
         <v>78</v>
@@ -1598,7 +1730,7 @@
         <v>79</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:6" customHeight="1" ht="19.8">
@@ -1606,7 +1738,7 @@
         <v>33</v>
       </c>
       <c r="C41" s="11">
-        <v>571610005</v>
+        <v>571110105</v>
       </c>
       <c r="D41" s="12" t="s">
         <v>80</v>
@@ -1615,7 +1747,7 @@
         <v>81</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:6" customHeight="1" ht="19.8">
@@ -1623,7 +1755,7 @@
         <v>34</v>
       </c>
       <c r="C42" s="11">
-        <v>571610009</v>
+        <v>571110108</v>
       </c>
       <c r="D42" s="12" t="s">
         <v>82</v>
@@ -1632,7 +1764,7 @@
         <v>83</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:6" customHeight="1" ht="19.8">
@@ -1640,7 +1772,7 @@
         <v>35</v>
       </c>
       <c r="C43" s="11">
-        <v>571610012</v>
+        <v>571110109</v>
       </c>
       <c r="D43" s="12" t="s">
         <v>84</v>
@@ -1649,7 +1781,7 @@
         <v>85</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:6" customHeight="1" ht="19.8">
@@ -1657,7 +1789,7 @@
         <v>36</v>
       </c>
       <c r="C44" s="11">
-        <v>571610015</v>
+        <v>571510251</v>
       </c>
       <c r="D44" s="12" t="s">
         <v>86</v>
@@ -1666,7 +1798,7 @@
         <v>87</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:6" customHeight="1" ht="19.8">
@@ -1674,7 +1806,7 @@
         <v>37</v>
       </c>
       <c r="C45" s="11">
-        <v>571610060</v>
+        <v>571510259</v>
       </c>
       <c r="D45" s="12" t="s">
         <v>88</v>
@@ -1683,7 +1815,7 @@
         <v>89</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:6" customHeight="1" ht="19.8">
@@ -1691,7 +1823,7 @@
         <v>38</v>
       </c>
       <c r="C46" s="11">
-        <v>571610061</v>
+        <v>571510260</v>
       </c>
       <c r="D46" s="12" t="s">
         <v>90</v>
@@ -1700,7 +1832,7 @@
         <v>91</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:6" customHeight="1" ht="19.8">
@@ -1708,7 +1840,7 @@
         <v>39</v>
       </c>
       <c r="C47" s="11">
-        <v>571610070</v>
+        <v>571810015</v>
       </c>
       <c r="D47" s="12" t="s">
         <v>92</v>
@@ -1717,7 +1849,7 @@
         <v>93</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:6" customHeight="1" ht="19.8">
@@ -1725,7 +1857,7 @@
         <v>40</v>
       </c>
       <c r="C48" s="11">
-        <v>571610076</v>
+        <v>571810017</v>
       </c>
       <c r="D48" s="12" t="s">
         <v>94</v>
@@ -1734,7 +1866,7 @@
         <v>95</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:6" customHeight="1" ht="19.8">
@@ -1742,16 +1874,16 @@
         <v>41</v>
       </c>
       <c r="C49" s="11">
-        <v>571610087</v>
+        <v>571810019</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:6" customHeight="1" ht="19.8">
@@ -1759,16 +1891,16 @@
         <v>42</v>
       </c>
       <c r="C50" s="11">
-        <v>571610106</v>
+        <v>571810030</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:6" customHeight="1" ht="19.8">
@@ -1776,16 +1908,16 @@
         <v>43</v>
       </c>
       <c r="C51" s="11">
-        <v>571610124</v>
+        <v>571810031</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:6" customHeight="1" ht="19.8">
@@ -1793,16 +1925,16 @@
         <v>44</v>
       </c>
       <c r="C52" s="11">
-        <v>571610129</v>
+        <v>571810036</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:6" customHeight="1" ht="19.8">
@@ -1810,16 +1942,16 @@
         <v>45</v>
       </c>
       <c r="C53" s="11">
-        <v>571610134</v>
+        <v>571810038</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:6" customHeight="1" ht="19.8">
@@ -1827,16 +1959,16 @@
         <v>46</v>
       </c>
       <c r="C54" s="11">
-        <v>571610179</v>
+        <v>571810042</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:6" customHeight="1" ht="19.8">
@@ -1844,16 +1976,16 @@
         <v>47</v>
       </c>
       <c r="C55" s="11">
-        <v>571610204</v>
+        <v>571810043</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:6" customHeight="1" ht="19.8">
@@ -1861,16 +1993,16 @@
         <v>48</v>
       </c>
       <c r="C56" s="11">
-        <v>571610224</v>
+        <v>571810045</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:6" customHeight="1" ht="19.8">
@@ -1878,16 +2010,16 @@
         <v>49</v>
       </c>
       <c r="C57" s="11">
-        <v>571610225</v>
+        <v>571810053</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:6" customHeight="1" ht="19.8">
@@ -1895,16 +2027,16 @@
         <v>50</v>
       </c>
       <c r="C58" s="11">
-        <v>571610244</v>
+        <v>571810056</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:6" customHeight="1" ht="19.8">
@@ -1912,16 +2044,16 @@
         <v>51</v>
       </c>
       <c r="C59" s="11">
-        <v>571610252</v>
+        <v>571810057</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:6" customHeight="1" ht="19.8">
@@ -1929,16 +2061,16 @@
         <v>52</v>
       </c>
       <c r="C60" s="11">
-        <v>571610264</v>
+        <v>571810062</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61" spans="1:6" customHeight="1" ht="19.8">
@@ -1946,16 +2078,16 @@
         <v>53</v>
       </c>
       <c r="C61" s="11">
-        <v>571610323</v>
+        <v>571810069</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E61" s="13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62" spans="1:6" customHeight="1" ht="19.8">
@@ -1963,16 +2095,16 @@
         <v>54</v>
       </c>
       <c r="C62" s="11">
-        <v>571610327</v>
+        <v>571810085</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E62" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" spans="1:6" customHeight="1" ht="19.8">
@@ -1980,16 +2112,16 @@
         <v>55</v>
       </c>
       <c r="C63" s="11">
-        <v>571611091</v>
+        <v>571810093</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E63" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64" spans="1:6" customHeight="1" ht="19.8">
@@ -1997,16 +2129,16 @@
         <v>56</v>
       </c>
       <c r="C64" s="11">
-        <v>571611092</v>
+        <v>571810094</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E64" s="13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65" spans="1:6" customHeight="1" ht="19.8">
@@ -2014,16 +2146,16 @@
         <v>57</v>
       </c>
       <c r="C65" s="11">
-        <v>571611123</v>
+        <v>571810104</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66" spans="1:6" customHeight="1" ht="19.8">
@@ -2031,16 +2163,16 @@
         <v>58</v>
       </c>
       <c r="C66" s="11">
-        <v>571611126</v>
+        <v>571810105</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E66" s="13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67" spans="1:6" customHeight="1" ht="19.8">
@@ -2048,16 +2180,16 @@
         <v>59</v>
       </c>
       <c r="C67" s="11">
-        <v>571611128</v>
+        <v>571810106</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E67" s="13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68" spans="1:6" customHeight="1" ht="19.8">
@@ -2065,16 +2197,16 @@
         <v>60</v>
       </c>
       <c r="C68" s="11">
-        <v>571611180</v>
+        <v>571810107</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E68" s="13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F68" s="11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69" spans="1:6" customHeight="1" ht="19.8">
@@ -2082,16 +2214,16 @@
         <v>61</v>
       </c>
       <c r="C69" s="11">
-        <v>571611199</v>
+        <v>571810110</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E69" s="13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70" spans="1:6" customHeight="1" ht="19.8">
@@ -2099,16 +2231,16 @@
         <v>62</v>
       </c>
       <c r="C70" s="11">
-        <v>571810039</v>
+        <v>571810111</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E70" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71" spans="1:6" customHeight="1" ht="19.8">
@@ -2116,16 +2248,16 @@
         <v>63</v>
       </c>
       <c r="C71" s="11">
-        <v>571810076</v>
+        <v>571810113</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E71" s="13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72" spans="1:6" customHeight="1" ht="19.8">
@@ -2133,16 +2265,16 @@
         <v>64</v>
       </c>
       <c r="C72" s="11">
-        <v>571810089</v>
+        <v>571810114</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E72" s="13" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2163,16 +2295,16 @@
         <v>65</v>
       </c>
       <c r="C74" s="11">
-        <v>571810091</v>
+        <v>571810115</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75" spans="1:6" customHeight="1" ht="19.8">
@@ -2180,16 +2312,16 @@
         <v>66</v>
       </c>
       <c r="C75" s="11">
-        <v>571810142</v>
+        <v>571810120</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E75" s="13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76" spans="1:6" customHeight="1" ht="19.8">
@@ -2197,16 +2329,390 @@
         <v>67</v>
       </c>
       <c r="C76" s="11">
-        <v>571810163</v>
+        <v>571810121</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E76" s="13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F76" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B77" s="10">
+        <v>68</v>
+      </c>
+      <c r="C77" s="11">
+        <v>571810122</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E77" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="F77" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B78" s="10">
+        <v>69</v>
+      </c>
+      <c r="C78" s="11">
+        <v>571810124</v>
+      </c>
+      <c r="D78" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="E78" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="F78" s="11" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B79" s="10">
+        <v>70</v>
+      </c>
+      <c r="C79" s="11">
+        <v>571810141</v>
+      </c>
+      <c r="D79" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="E79" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="F79" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B80" s="10">
+        <v>71</v>
+      </c>
+      <c r="C80" s="11">
+        <v>571810143</v>
+      </c>
+      <c r="D80" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="E80" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="F80" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B81" s="10">
+        <v>72</v>
+      </c>
+      <c r="C81" s="11">
+        <v>571810144</v>
+      </c>
+      <c r="D81" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="E81" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="F81" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B82" s="10">
+        <v>73</v>
+      </c>
+      <c r="C82" s="11">
+        <v>571810148</v>
+      </c>
+      <c r="D82" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="E82" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="F82" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B83" s="10">
+        <v>74</v>
+      </c>
+      <c r="C83" s="11">
+        <v>571810155</v>
+      </c>
+      <c r="D83" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="E83" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F83" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B84" s="10">
+        <v>75</v>
+      </c>
+      <c r="C84" s="11">
+        <v>571810156</v>
+      </c>
+      <c r="D84" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E84" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="F84" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B85" s="10">
+        <v>76</v>
+      </c>
+      <c r="C85" s="11">
+        <v>571810181</v>
+      </c>
+      <c r="D85" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="E85" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="F85" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B86" s="10">
+        <v>77</v>
+      </c>
+      <c r="C86" s="11">
+        <v>571810182</v>
+      </c>
+      <c r="D86" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="E86" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="F86" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B87" s="10">
+        <v>78</v>
+      </c>
+      <c r="C87" s="11">
+        <v>571810183</v>
+      </c>
+      <c r="D87" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E87" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="F87" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B88" s="10">
+        <v>79</v>
+      </c>
+      <c r="C88" s="11">
+        <v>571810184</v>
+      </c>
+      <c r="D88" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="E88" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="F88" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B89" s="10">
+        <v>80</v>
+      </c>
+      <c r="C89" s="11">
+        <v>571810185</v>
+      </c>
+      <c r="D89" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="E89" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="F89" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B90" s="10">
+        <v>81</v>
+      </c>
+      <c r="C90" s="11">
+        <v>571810186</v>
+      </c>
+      <c r="D90" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="E90" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="F90" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B91" s="10">
+        <v>82</v>
+      </c>
+      <c r="C91" s="11">
+        <v>571810198</v>
+      </c>
+      <c r="D91" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E91" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="F91" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B92" s="10">
+        <v>83</v>
+      </c>
+      <c r="C92" s="11">
+        <v>571810204</v>
+      </c>
+      <c r="D92" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="E92" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="F92" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B93" s="10">
+        <v>84</v>
+      </c>
+      <c r="C93" s="11">
+        <v>571810206</v>
+      </c>
+      <c r="D93" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="E93" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="F93" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B94" s="10">
+        <v>85</v>
+      </c>
+      <c r="C94" s="11">
+        <v>571910222</v>
+      </c>
+      <c r="D94" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="E94" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="F94" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B95" s="10">
+        <v>86</v>
+      </c>
+      <c r="C95" s="11">
+        <v>571910223</v>
+      </c>
+      <c r="D95" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="E95" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="F95" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B96" s="10">
+        <v>87</v>
+      </c>
+      <c r="C96" s="11">
+        <v>571910233</v>
+      </c>
+      <c r="D96" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="E96" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="F96" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B97" s="10">
+        <v>88</v>
+      </c>
+      <c r="C97" s="11">
+        <v>571910246</v>
+      </c>
+      <c r="D97" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="E97" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="F97" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B98" s="10">
+        <v>89</v>
+      </c>
+      <c r="C98" s="11">
+        <v>571910248</v>
+      </c>
+      <c r="D98" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="E98" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="F98" s="11" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/temp/file.xlsx
+++ b/temp/file.xlsx
@@ -15,9 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="193">
-  <si>
-    <t>รายชื่อนักศึกษาที่ลงทะเบียนเรียน ภาคเรียนที่ 2 ปีการศึกษา 2557</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="278">
+  <si>
+    <t>รายชื่อนักศึกษาที่ลงทะเบียนเรียน ภาคเรียนที่ 1 ปีการศึกษา 2557</t>
   </si>
   <si>
     <t xml:space="preserve">  COURSE NO :</t>
@@ -29,7 +29,7 @@
     <t xml:space="preserve">  TITLE :</t>
   </si>
   <si>
-    <t xml:space="preserve">                 IT AND MODERN LIFE                                </t>
+    <t xml:space="preserve">                 IT AND MODERN LIFE</t>
   </si>
   <si>
     <t xml:space="preserve">  SECTION (lec/lab) :</t>
@@ -41,7 +41,7 @@
     <t xml:space="preserve">  LECTURER :</t>
   </si>
   <si>
-    <t xml:space="preserve">                 กิตติพิชญ์   คุปตะวาณิช</t>
+    <t xml:space="preserve">                 วาสนา   นัยโพธิ์</t>
   </si>
   <si>
     <t xml:space="preserve">  DATE :</t>
@@ -59,541 +59,796 @@
     <t>ชื่อ - นามสกุล</t>
   </si>
   <si>
-    <t>นายพงศธร</t>
-  </si>
-  <si>
-    <t>คิดถี</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                               W                                  </t>
-  </si>
-  <si>
-    <t>นางสาวภัทรพรรณ</t>
-  </si>
-  <si>
-    <t>เพียนอก</t>
+    <t>นางสาวกิตติยา</t>
+  </si>
+  <si>
+    <t>พูลอุดม</t>
   </si>
   <si>
     <t xml:space="preserve">                                                                 </t>
   </si>
   <si>
-    <t>นางสาวรุจี</t>
-  </si>
-  <si>
-    <t>ต้นเหลือง</t>
-  </si>
-  <si>
-    <t>นายพงศ์ภัค</t>
-  </si>
-  <si>
-    <t>ประภากรมณฑล</t>
-  </si>
-  <si>
-    <t>นางสาวจริยา</t>
-  </si>
-  <si>
-    <t>สุขเเก้ว</t>
-  </si>
-  <si>
-    <t>นางสาวนภาพร</t>
-  </si>
-  <si>
-    <t>แก้วแสงทอง</t>
-  </si>
-  <si>
-    <t>นางสาวสุทธิดา</t>
-  </si>
-  <si>
-    <t>กันธิมา</t>
+    <t>นางสาวชลลัดดา</t>
+  </si>
+  <si>
+    <t>วิริยะชินการ</t>
+  </si>
+  <si>
+    <t>นายนพดนัย</t>
+  </si>
+  <si>
+    <t>สมโน</t>
+  </si>
+  <si>
+    <t>นายอคิราภ์</t>
+  </si>
+  <si>
+    <t>ถมยา</t>
+  </si>
+  <si>
+    <t>นางสาวขวัญฤดี</t>
+  </si>
+  <si>
+    <t>มูลวิจิตร์</t>
+  </si>
+  <si>
+    <t>นางสาวฐิติกา</t>
+  </si>
+  <si>
+    <t>ชัยคำรงค์กุล</t>
+  </si>
+  <si>
+    <t>นางสาวปรินดา</t>
+  </si>
+  <si>
+    <t>บุญชุ่ม</t>
+  </si>
+  <si>
+    <t>นางสาวแสงตะวัน</t>
+  </si>
+  <si>
+    <t>วิริยะประสิทธิ์</t>
+  </si>
+  <si>
+    <t>นางสาวพิชญาภา</t>
+  </si>
+  <si>
+    <t>เทพหัสดิน ณ อยุธยา</t>
+  </si>
+  <si>
+    <t>นางสาวพิม</t>
+  </si>
+  <si>
+    <t>สืบแสง</t>
+  </si>
+  <si>
+    <t>นางสาวเพ็ญพิชชา</t>
+  </si>
+  <si>
+    <t>ชุมภูแก้ว</t>
+  </si>
+  <si>
+    <t>นางสาวญาณนันท์</t>
+  </si>
+  <si>
+    <t>ธนีสัตย์</t>
+  </si>
+  <si>
+    <t>นายปรีชาพงษ์</t>
+  </si>
+  <si>
+    <t>นิลแสงสัก</t>
+  </si>
+  <si>
+    <t>นางสาวกฤษณา</t>
+  </si>
+  <si>
+    <t>อุดทารุณ</t>
+  </si>
+  <si>
+    <t>นายจิรัฎฐ์</t>
+  </si>
+  <si>
+    <t>อ่อนแก้ว</t>
+  </si>
+  <si>
+    <t>นางสาวเจตนิพิฐ</t>
+  </si>
+  <si>
+    <t>ดาสินธุ</t>
+  </si>
+  <si>
+    <t>นางสาวบงกชกร</t>
+  </si>
+  <si>
+    <t>ชอบธรรม</t>
+  </si>
+  <si>
+    <t>นางสาวปิยะภรณ์</t>
+  </si>
+  <si>
+    <t>สิงห์ใส</t>
+  </si>
+  <si>
+    <t>นางสาวพิชญ์จิรา</t>
+  </si>
+  <si>
+    <t>ยาอินทร์</t>
+  </si>
+  <si>
+    <t>นางสาวเพ็ญสุภาภรณ์</t>
+  </si>
+  <si>
+    <t>ไตรยศ</t>
+  </si>
+  <si>
+    <t>นางสาวรื่นฤดี</t>
+  </si>
+  <si>
+    <t>คำดี</t>
+  </si>
+  <si>
+    <t>นางสาววรวลัญช์</t>
+  </si>
+  <si>
+    <t>ธิป่าหนาด</t>
+  </si>
+  <si>
+    <t>นางสาววรัญพัชร์</t>
+  </si>
+  <si>
+    <t>จิราสภาพันธ์</t>
+  </si>
+  <si>
+    <t>นางสาวศิรินันท์</t>
+  </si>
+  <si>
+    <t>คำภักดี</t>
+  </si>
+  <si>
+    <t>นางสาวสุดารัตน์</t>
+  </si>
+  <si>
+    <t>ปีหลวง</t>
+  </si>
+  <si>
+    <t>นางสาวอรวี</t>
+  </si>
+  <si>
+    <t>เลาะหะนะ</t>
+  </si>
+  <si>
+    <t>นางสาวฐิตาพร</t>
+  </si>
+  <si>
+    <t>เทียมเจริญ</t>
+  </si>
+  <si>
+    <t>นางสาวฐิติพร</t>
+  </si>
+  <si>
+    <t>ใหม่ชุ่ม</t>
+  </si>
+  <si>
+    <t>นางสาวพฤกษ์สร</t>
+  </si>
+  <si>
+    <t>เสริมกิจ</t>
+  </si>
+  <si>
+    <t>นางสาวพิมพิสุทธิ์</t>
+  </si>
+  <si>
+    <t>อินแปง</t>
+  </si>
+  <si>
+    <t>นางสาววัชราภรณ์</t>
+  </si>
+  <si>
+    <t>ไชยนาม</t>
+  </si>
+  <si>
+    <t>นายกฤษณพงศ์</t>
+  </si>
+  <si>
+    <t>ศรีวงศ์ราช</t>
+  </si>
+  <si>
+    <t>นางสาวเกศราภรณ์</t>
+  </si>
+  <si>
+    <t>ตันสร้าง</t>
+  </si>
+  <si>
+    <t>นางสาวฐิติชญา</t>
+  </si>
+  <si>
+    <t>ฟองอาภา</t>
+  </si>
+  <si>
+    <t>นางสาวธัญญ์นภัส</t>
+  </si>
+  <si>
+    <t>รัฐอริยธำรงค์</t>
+  </si>
+  <si>
+    <t>นางสาวพรจรัส</t>
+  </si>
+  <si>
+    <t>ดีทอง</t>
+  </si>
+  <si>
+    <t>นางสาวพิชชาพร</t>
+  </si>
+  <si>
+    <t>ทิพเนตร</t>
+  </si>
+  <si>
+    <t>นายสรสิช</t>
+  </si>
+  <si>
+    <t>เรืองรุ่ง</t>
+  </si>
+  <si>
+    <t>นายสรายุทธ</t>
+  </si>
+  <si>
+    <t>จรัสพันธุ์กุล</t>
+  </si>
+  <si>
+    <t>นางสาวสิริมา</t>
+  </si>
+  <si>
+    <t>เล้าอติมาน</t>
+  </si>
+  <si>
+    <t>นางสาวสุพรรณษา</t>
+  </si>
+  <si>
+    <t>ยะใจมั่น</t>
+  </si>
+  <si>
+    <t>นางสาวอธิติยา</t>
+  </si>
+  <si>
+    <t>วณะเจริญ</t>
+  </si>
+  <si>
+    <t>นายอรรถวิทย์</t>
+  </si>
+  <si>
+    <t>ศรีสุวรรณ</t>
+  </si>
+  <si>
+    <t>นายอัชเชวะ</t>
+  </si>
+  <si>
+    <t>ชุ่มวงศ์</t>
+  </si>
+  <si>
+    <t>นางสาวอาภาภรณ์</t>
+  </si>
+  <si>
+    <t>พรหมพิงค์</t>
+  </si>
+  <si>
+    <t>นางสาวณัฐพร</t>
+  </si>
+  <si>
+    <t>แก้วพิมล</t>
+  </si>
+  <si>
+    <t>นางสาวอารีย์</t>
+  </si>
+  <si>
+    <t>แสนคำ</t>
+  </si>
+  <si>
+    <t>นายปวริศร์</t>
+  </si>
+  <si>
+    <t>ปิงเมือง</t>
+  </si>
+  <si>
+    <t>นายก้องนเรนทร์</t>
+  </si>
+  <si>
+    <t>ใจคำปัน</t>
+  </si>
+  <si>
+    <t>นางสาวดบัสวินี</t>
+  </si>
+  <si>
+    <t>พุฒโต</t>
+  </si>
+  <si>
+    <t>นางสาวรุ่งนภา</t>
+  </si>
+  <si>
+    <t>ขัติยะราช</t>
+  </si>
+  <si>
+    <t>นายวริทธิ์ธร</t>
+  </si>
+  <si>
+    <t>มอญเพ็ชร</t>
+  </si>
+  <si>
+    <t>พัทมี</t>
+  </si>
+  <si>
+    <t>นางสาวสุภาณี</t>
+  </si>
+  <si>
+    <t>คำนวล</t>
+  </si>
+  <si>
+    <t>นายอนุชิต</t>
+  </si>
+  <si>
+    <t>ลือโฮ้ง</t>
+  </si>
+  <si>
+    <t>นางสาวกฤติยา</t>
+  </si>
+  <si>
+    <t>วงไพวรรณ</t>
+  </si>
+  <si>
+    <t>นายกวีฉัตร</t>
+  </si>
+  <si>
+    <t>วังสาร</t>
+  </si>
+  <si>
+    <t>นางสาวกาญจนา</t>
+  </si>
+  <si>
+    <t>ถานันใจ</t>
+  </si>
+  <si>
+    <t>นายฆนากร</t>
+  </si>
+  <si>
+    <t>จักรใจวงค์</t>
+  </si>
+  <si>
+    <t>นายธนภัทร</t>
+  </si>
+  <si>
+    <t>แสงเขื่อนแก้ว</t>
+  </si>
+  <si>
+    <t>นางสาวบุณยานุช</t>
+  </si>
+  <si>
+    <t>พงษ์มนตรี</t>
+  </si>
+  <si>
+    <t>นางสาวบุษกล</t>
+  </si>
+  <si>
+    <t>กันต์กวี</t>
+  </si>
+  <si>
+    <t>นางสาวสุภาพร</t>
+  </si>
+  <si>
+    <t>ยิ้มสวัสดิ์</t>
+  </si>
+  <si>
+    <t>นางสาวสุภาวดี</t>
+  </si>
+  <si>
+    <t>ศรีใจปัน</t>
+  </si>
+  <si>
+    <t>นางสาวสุวนันท์</t>
+  </si>
+  <si>
+    <t>ลาวเปียง</t>
+  </si>
+  <si>
+    <t>นางสาวสุวรรณี</t>
+  </si>
+  <si>
+    <t>รัตนะ</t>
+  </si>
+  <si>
+    <t>นางสาวสุวิมล</t>
+  </si>
+  <si>
+    <t>อินกูล</t>
+  </si>
+  <si>
+    <t>นายอดิศักดิ์</t>
+  </si>
+  <si>
+    <t>บุญเรือน</t>
+  </si>
+  <si>
+    <t>นายอนันตชัย</t>
+  </si>
+  <si>
+    <t>มูลเจริญขจร</t>
+  </si>
+  <si>
+    <t>นายกรณ์ธนัตถ์</t>
+  </si>
+  <si>
+    <t>สมรรถสินวณิช</t>
+  </si>
+  <si>
+    <t>นางสาวญาสุมินทร์</t>
+  </si>
+  <si>
+    <t>อินทนาคม</t>
+  </si>
+  <si>
+    <t>นางสาวณัฐชา</t>
+  </si>
+  <si>
+    <t>จาตุรพจน์</t>
+  </si>
+  <si>
+    <t>นายพชร</t>
+  </si>
+  <si>
+    <t>พรนิมิตร</t>
+  </si>
+  <si>
+    <t>นางสาวพัณณ์ชิตา</t>
+  </si>
+  <si>
+    <t>คำใส</t>
+  </si>
+  <si>
+    <t>นางสาวพิชญ์สินี</t>
+  </si>
+  <si>
+    <t>สินอยู่</t>
+  </si>
+  <si>
+    <t>นางสาวสโรชาพัชร์</t>
+  </si>
+  <si>
+    <t>บุณยะโสรัจจ์</t>
+  </si>
+  <si>
+    <t>นางสาวสิรดา</t>
+  </si>
+  <si>
+    <t>เดชวงค์ญา</t>
+  </si>
+  <si>
+    <t>นางสาวหทัยชนก</t>
+  </si>
+  <si>
+    <t>ใจกล้า</t>
+  </si>
+  <si>
+    <t>นางสาวอริสรา</t>
+  </si>
+  <si>
+    <t>ชูเชิญ</t>
+  </si>
+  <si>
+    <t>นางสาวกรรณิการ์</t>
+  </si>
+  <si>
+    <t>คำวงษา</t>
+  </si>
+  <si>
+    <t>นางสาวกฤติยากรณ์</t>
+  </si>
+  <si>
+    <t>มะโนเกตุ</t>
+  </si>
+  <si>
+    <t>นางสาวกาญจนาพร</t>
+  </si>
+  <si>
+    <t>แสงสุข</t>
+  </si>
+  <si>
+    <t>นางสาวกุลฉัตร</t>
+  </si>
+  <si>
+    <t>เลิศวิลัย</t>
   </si>
   <si>
     <t>นางสาวกุลธิดา</t>
   </si>
   <si>
-    <t>พุทธเจริญ</t>
-  </si>
-  <si>
-    <t>นายชิษณุพงศ์</t>
-  </si>
-  <si>
-    <t>หาวา</t>
-  </si>
-  <si>
-    <t>นางสาวณิชมน</t>
-  </si>
-  <si>
-    <t>ทองริด</t>
-  </si>
-  <si>
-    <t>นางสาวอภิสรา</t>
-  </si>
-  <si>
-    <t>ฉายาพงศ์</t>
-  </si>
-  <si>
-    <t>นางสาวพิชญา</t>
-  </si>
-  <si>
-    <t>วัชโรภาส</t>
-  </si>
-  <si>
-    <t>นางสาวชนันธิดา</t>
-  </si>
-  <si>
-    <t>สักลอ</t>
-  </si>
-  <si>
-    <t>นางสาวบุญญรัตน์</t>
-  </si>
-  <si>
-    <t>นิวาศะบุตร</t>
-  </si>
-  <si>
-    <t>นางสาวมีณมาส</t>
-  </si>
-  <si>
-    <t>แก่นดี</t>
-  </si>
-  <si>
-    <t>นางสาวกันยา</t>
-  </si>
-  <si>
-    <t>ผาด่าน</t>
-  </si>
-  <si>
-    <t>นายคเชน</t>
-  </si>
-  <si>
-    <t>ศรีวิชัย</t>
-  </si>
-  <si>
-    <t>นายชนสรณ์</t>
-  </si>
-  <si>
-    <t>ศรีสัตบุตร</t>
-  </si>
-  <si>
-    <t>นายคามิน</t>
-  </si>
-  <si>
-    <t>ช่วงสุวนิช</t>
-  </si>
-  <si>
-    <t>นายจุลธวัช</t>
-  </si>
-  <si>
-    <t>ทองอร่าม</t>
-  </si>
-  <si>
-    <t>นายชานนท์</t>
-  </si>
-  <si>
-    <t>ทองมณี</t>
-  </si>
-  <si>
-    <t>นายณัฐดนัย</t>
-  </si>
-  <si>
-    <t>สุขแก้ว</t>
-  </si>
-  <si>
-    <t>นายวรพันธ์</t>
-  </si>
-  <si>
-    <t>คำภู</t>
-  </si>
-  <si>
-    <t>นายสหรัฐ</t>
-  </si>
-  <si>
-    <t>สิทธิปัญญา</t>
-  </si>
-  <si>
-    <t>นางสาวฉัตรชาริกา</t>
-  </si>
-  <si>
-    <t>ขันแก้ว</t>
-  </si>
-  <si>
-    <t>นายเชษฐภัค</t>
-  </si>
-  <si>
-    <t>เรืองดิษฐ์</t>
-  </si>
-  <si>
-    <t>นางสาวธมณภัทร</t>
-  </si>
-  <si>
-    <t>พิทักษ์</t>
-  </si>
-  <si>
-    <t>นางสาวสุนิศา</t>
-  </si>
-  <si>
-    <t>จิ๋วปัญญา</t>
-  </si>
-  <si>
-    <t>นางสาวอนงค์พร</t>
-  </si>
-  <si>
-    <t>เทพสุวรรณ</t>
-  </si>
-  <si>
-    <t>นางสาวอนุตรา</t>
-  </si>
-  <si>
-    <t>ปัญจรัก</t>
-  </si>
-  <si>
-    <t>นางสาวอภิญญา</t>
-  </si>
-  <si>
-    <t>ปานศิลา</t>
-  </si>
-  <si>
-    <t>นายอมรเทพ</t>
-  </si>
-  <si>
-    <t>พิชัยพงศ์</t>
-  </si>
-  <si>
-    <t>นางสาวอมลพรรษ</t>
-  </si>
-  <si>
-    <t>ชตาเริกษ์</t>
-  </si>
-  <si>
-    <t>นางสาวอาภัสนันท์</t>
-  </si>
-  <si>
-    <t>อารีเอื้อ</t>
-  </si>
-  <si>
-    <t>นายเอกภพ</t>
-  </si>
-  <si>
-    <t>พจนสิทธิ์</t>
-  </si>
-  <si>
-    <t>นางสาวศัสยมน</t>
-  </si>
-  <si>
-    <t>ดวงใจสัก</t>
-  </si>
-  <si>
-    <t>นางสาวศุภรัสมิ์</t>
-  </si>
-  <si>
-    <t>กระพันพงศ์สกุล</t>
-  </si>
-  <si>
-    <t>นางสาวศุภวรรณ</t>
-  </si>
-  <si>
-    <t>บุญสุข</t>
-  </si>
-  <si>
-    <t>นายคริษฐ์</t>
-  </si>
-  <si>
-    <t>นิ่มศิริเรืองผล</t>
-  </si>
-  <si>
-    <t>นางสาวจริยาพร</t>
-  </si>
-  <si>
-    <t>จิรพัฒนากุล</t>
-  </si>
-  <si>
-    <t>นางสาวจารุวรรณ</t>
-  </si>
-  <si>
-    <t>โท๊ะหล้าบุตร</t>
-  </si>
-  <si>
-    <t>นายชญาพัฒณ์</t>
-  </si>
-  <si>
-    <t>ภู่เกตุ</t>
-  </si>
-  <si>
-    <t>นางสาวชนนิกานต์</t>
-  </si>
-  <si>
-    <t>เทียนสมจิตร</t>
-  </si>
-  <si>
-    <t>นางสาวชลิดา</t>
-  </si>
-  <si>
-    <t>มานะกิจศิริสุทธิ</t>
-  </si>
-  <si>
-    <t>นายชาติเวท</t>
-  </si>
-  <si>
-    <t>สายบุตร</t>
-  </si>
-  <si>
-    <t>นางสาวเชฬุณีย์</t>
-  </si>
-  <si>
-    <t>ภูวฐิตานนท์</t>
-  </si>
-  <si>
-    <t>นางสาวฌัชชา</t>
-  </si>
-  <si>
-    <t>มาลารัตน์</t>
-  </si>
-  <si>
-    <t>นางสาวญาณิศา</t>
-  </si>
-  <si>
-    <t>ตาพรหม</t>
-  </si>
-  <si>
-    <t>นางสาวณัชชา</t>
-  </si>
-  <si>
-    <t>พาทพุทธิพงศ์</t>
-  </si>
-  <si>
-    <t>นางสาวณัฏฐธิดา</t>
-  </si>
-  <si>
-    <t>วณิชพิพัฒน์กุล</t>
-  </si>
-  <si>
-    <t>นางสาวณัฏฐนิช</t>
-  </si>
-  <si>
-    <t>บุญแร่</t>
-  </si>
-  <si>
-    <t>นายณัฐพงศ์</t>
-  </si>
-  <si>
-    <t>ปันยศ</t>
-  </si>
-  <si>
-    <t>นางสาวทิพย์ธิดา</t>
-  </si>
-  <si>
-    <t>แซ่เติ๋น</t>
-  </si>
-  <si>
-    <t>นายธุววิช</t>
-  </si>
-  <si>
-    <t>ปานเกิด</t>
-  </si>
-  <si>
-    <t>นางสาวนัยนา</t>
-  </si>
-  <si>
-    <t>สิทธิเจริญ</t>
-  </si>
-  <si>
-    <t>นางสาวนิธิพร</t>
-  </si>
-  <si>
-    <t>จันทะวัง</t>
-  </si>
-  <si>
-    <t>นายปรเมทฎ</t>
-  </si>
-  <si>
-    <t>นิติประศาสน์</t>
-  </si>
-  <si>
-    <t>นายปราชญ์</t>
-  </si>
-  <si>
-    <t>หลิ่มสุริยะ</t>
-  </si>
-  <si>
-    <t>นางสาวปริญญ์</t>
-  </si>
-  <si>
-    <t>รัตตัญญู</t>
-  </si>
-  <si>
-    <t>นางสาวปริยาภัทร</t>
-  </si>
-  <si>
-    <t>สมบัติปัน</t>
-  </si>
-  <si>
-    <t>นางสาวปวีณ์นุช</t>
-  </si>
-  <si>
-    <t>เอื้อแท้</t>
-  </si>
-  <si>
-    <t>นางสาวปวีณ์สุดา</t>
-  </si>
-  <si>
-    <t>เดชบุญ</t>
-  </si>
-  <si>
-    <t>นางสาวปิยธิดา</t>
-  </si>
-  <si>
-    <t>คำน้อย</t>
-  </si>
-  <si>
-    <t>นายปุริม</t>
-  </si>
-  <si>
-    <t>วาดเขียน</t>
-  </si>
-  <si>
-    <t>นายพงศกร</t>
-  </si>
-  <si>
-    <t>ยั่งยืน</t>
-  </si>
-  <si>
-    <t>นางสาวพัชราวลัย</t>
-  </si>
-  <si>
-    <t>เด่นนิติรัตน์</t>
-  </si>
-  <si>
-    <t>นางสาวพัชรี</t>
-  </si>
-  <si>
-    <t>อิสาน</t>
-  </si>
-  <si>
-    <t>นางสาวพิจาริน</t>
-  </si>
-  <si>
-    <t>ศิริพจนานนท์</t>
-  </si>
-  <si>
-    <t>นายพิชญ์ยุติ</t>
-  </si>
-  <si>
-    <t>ใจมิภักดิ์</t>
-  </si>
-  <si>
-    <t>นางสาวมัลลิกา</t>
-  </si>
-  <si>
-    <t>ไชยบัง</t>
-  </si>
-  <si>
-    <t>นายยศกร</t>
-  </si>
-  <si>
-    <t>สุดสวาสดิ์</t>
-  </si>
-  <si>
-    <t>นายเยาวยุทธ์</t>
-  </si>
-  <si>
-    <t>กันธัง</t>
-  </si>
-  <si>
-    <t>นางสาวรวินันท์</t>
-  </si>
-  <si>
-    <t>อุ้ยประเสริฐวัฒนา</t>
-  </si>
-  <si>
-    <t>นายฤทธิพร</t>
-  </si>
-  <si>
-    <t>จันทร์ขจร</t>
-  </si>
-  <si>
-    <t>นางสาวลภัสนันท์</t>
-  </si>
-  <si>
-    <t>พิราดา</t>
-  </si>
-  <si>
-    <t>นายสามารถ</t>
-  </si>
-  <si>
-    <t>สนิทมาก</t>
-  </si>
-  <si>
-    <t>นางสาวสิริกานดา</t>
-  </si>
-  <si>
-    <t>กล้าวิกย์การ</t>
-  </si>
-  <si>
-    <t>อุ่นจิต</t>
-  </si>
-  <si>
-    <t>นางสาวสุทธิพร</t>
-  </si>
-  <si>
-    <t>มณีวงค์</t>
-  </si>
-  <si>
-    <t>นายสุทธิศักดิ์</t>
-  </si>
-  <si>
-    <t>สิริกุลสัมพันธ์</t>
-  </si>
-  <si>
-    <t>นางสาวสุทธิษา</t>
-  </si>
-  <si>
-    <t>มณีรัตน์</t>
-  </si>
-  <si>
-    <t>นางสาวอัจฉราพรรณ</t>
-  </si>
-  <si>
-    <t>คำแก้ว</t>
-  </si>
-  <si>
-    <t>นางสาวเอกรณี</t>
-  </si>
-  <si>
-    <t>ขัดเรือง</t>
-  </si>
-  <si>
-    <t>นางสาวเอมวรี</t>
-  </si>
-  <si>
-    <t>มีชัยสุวรรณ์</t>
-  </si>
-  <si>
-    <t>นางสาวประกายกานต์</t>
-  </si>
-  <si>
-    <t>ศรีสองสกุล</t>
-  </si>
-  <si>
-    <t>นางสาวประกายดาว</t>
-  </si>
-  <si>
-    <t>มากาศ</t>
-  </si>
-  <si>
-    <t>นางสาวพราวพิไล</t>
-  </si>
-  <si>
-    <t>เดชธงไชย</t>
-  </si>
-  <si>
-    <t>นางสาวมนัชยา</t>
-  </si>
-  <si>
-    <t>ยะโกะ</t>
-  </si>
-  <si>
-    <t>นางสาวเมธาวี</t>
-  </si>
-  <si>
-    <t>แสงทอง</t>
+    <t>ราชา</t>
+  </si>
+  <si>
+    <t>นางสาวเกศริน</t>
+  </si>
+  <si>
+    <t>นินชัย</t>
+  </si>
+  <si>
+    <t>นางสาวแกมกมล</t>
+  </si>
+  <si>
+    <t>ไชยกันทา</t>
+  </si>
+  <si>
+    <t>นางสาวนลินนิภา</t>
+  </si>
+  <si>
+    <t>แก้วสุตัน</t>
+  </si>
+  <si>
+    <t>นางสาวนันท์นภัส</t>
+  </si>
+  <si>
+    <t>ตันพฤทธิอนันต์</t>
+  </si>
+  <si>
+    <t>นายเนติพงศ์</t>
+  </si>
+  <si>
+    <t>โปร่งใจ</t>
+  </si>
+  <si>
+    <t>นางสาวปฏิมาภรณ์</t>
+  </si>
+  <si>
+    <t>สุคำ</t>
+  </si>
+  <si>
+    <t>นางสาวปภัสสร</t>
+  </si>
+  <si>
+    <t>ลิมป์ภัสสร</t>
+  </si>
+  <si>
+    <t>นางสาวปวีณสุดา</t>
+  </si>
+  <si>
+    <t>ศักดี</t>
+  </si>
+  <si>
+    <t>นางสาวปัทมาสน์</t>
+  </si>
+  <si>
+    <t>แก้วกัน</t>
+  </si>
+  <si>
+    <t>นายปิยะวิชญ์</t>
+  </si>
+  <si>
+    <t>ทรงประกอบ</t>
+  </si>
+  <si>
+    <t>นางสาวผาณิต</t>
+  </si>
+  <si>
+    <t>อินต๊ะเส็น</t>
+  </si>
+  <si>
+    <t>นางสาวพษพร</t>
+  </si>
+  <si>
+    <t>พิงพราวลี</t>
+  </si>
+  <si>
+    <t>นางสาววลีรัตน์</t>
+  </si>
+  <si>
+    <t>ธรรมสุพิลม</t>
+  </si>
+  <si>
+    <t>นายเศรษฐพงษ์</t>
+  </si>
+  <si>
+    <t>อภิมงคลเลิศ</t>
+  </si>
+  <si>
+    <t>นางสาวธัญพิชชา</t>
+  </si>
+  <si>
+    <t>โชติพฤกษ์</t>
+  </si>
+  <si>
+    <t>นางสาวปภัสรินทร์</t>
+  </si>
+  <si>
+    <t>จิรธีระพันธ์</t>
+  </si>
+  <si>
+    <t>นางสาวปริยลักษณ์</t>
+  </si>
+  <si>
+    <t>จันทราภา</t>
+  </si>
+  <si>
+    <t>นางสาวปวิตรา</t>
+  </si>
+  <si>
+    <t>ลิมป์เติมทรัพย์</t>
+  </si>
+  <si>
+    <t>นางสาวปาณฑรา</t>
+  </si>
+  <si>
+    <t>กันสาย</t>
+  </si>
+  <si>
+    <t>นางสาวพรนิภา</t>
+  </si>
+  <si>
+    <t>ขุนนาพุ่ม</t>
+  </si>
+  <si>
+    <t>นางสาวมณฑกาญจน์</t>
+  </si>
+  <si>
+    <t>ปัญญาฟู</t>
+  </si>
+  <si>
+    <t>นายไม้น้ำ</t>
+  </si>
+  <si>
+    <t>สุวรรณจุณีย์</t>
+  </si>
+  <si>
+    <t>นางสาวรจิตา</t>
+  </si>
+  <si>
+    <t>ป๊อกคำอู๋</t>
+  </si>
+  <si>
+    <t>นางสาวรัชดาพร</t>
+  </si>
+  <si>
+    <t>เพ็ญสว่าง</t>
+  </si>
+  <si>
+    <t>นางสาววชิรญาณ์</t>
+  </si>
+  <si>
+    <t>บำเพ็ญอยู่</t>
+  </si>
+  <si>
+    <t>นายวรเมธ</t>
+  </si>
+  <si>
+    <t>สกุลงาม</t>
+  </si>
+  <si>
+    <t>นางสาววารุณี</t>
+  </si>
+  <si>
+    <t>สมนวล</t>
+  </si>
+  <si>
+    <t>นางสาวศศิวิมล</t>
+  </si>
+  <si>
+    <t>พรมพฤกษ์</t>
+  </si>
+  <si>
+    <t>นายศิรวุฒิ</t>
+  </si>
+  <si>
+    <t>จิตต์ใจ</t>
+  </si>
+  <si>
+    <t>นายศุภชัย</t>
+  </si>
+  <si>
+    <t>เปรมศรี</t>
+  </si>
+  <si>
+    <t>นางสาวศุภิสรา</t>
+  </si>
+  <si>
+    <t>นิลขำ</t>
+  </si>
+  <si>
+    <t>นางสาวสกุลรัตน์</t>
+  </si>
+  <si>
+    <t>หัดเคลือบ</t>
+  </si>
+  <si>
+    <t>นายสรศักดิ์</t>
+  </si>
+  <si>
+    <t>อินต๊ะแก้ว</t>
+  </si>
+  <si>
+    <t>นางสาวสิริกุล</t>
+  </si>
+  <si>
+    <t>พรหมกันธา</t>
+  </si>
+  <si>
+    <t>นางสาวสุทฐิญาภรณ์</t>
+  </si>
+  <si>
+    <t>กิตติกรวัฒนา</t>
+  </si>
+  <si>
+    <t>นางสาวสุธาทิพย์</t>
+  </si>
+  <si>
+    <t>ศรีธรรมมา</t>
+  </si>
+  <si>
+    <t>นายสุธิพันธ์</t>
+  </si>
+  <si>
+    <t>แก้วจันทร์เพชร</t>
+  </si>
+  <si>
+    <t>นายอนุรักษ์</t>
+  </si>
+  <si>
+    <t>รังษี</t>
+  </si>
+  <si>
+    <t>นางสาวอภิชญา</t>
+  </si>
+  <si>
+    <t>ปันจันทร์</t>
+  </si>
+  <si>
+    <t>นายอภิรักษ์</t>
+  </si>
+  <si>
+    <t>วงศ์พันธุ์</t>
+  </si>
+  <si>
+    <t>นายอภิสิทธิ์</t>
+  </si>
+  <si>
+    <t>พวงมาลัย</t>
+  </si>
+  <si>
+    <t>นางสาวอรพรรณ</t>
+  </si>
+  <si>
+    <t>พงษ์กิจการุณ</t>
+  </si>
+  <si>
+    <t>นางสาวอลิศา</t>
+  </si>
+  <si>
+    <t>ศรีระวัตร</t>
+  </si>
+  <si>
+    <t>นางสาวอัจฉรี</t>
+  </si>
+  <si>
+    <t>บัวเขียว</t>
+  </si>
+  <si>
+    <t>นายอานุภาพ</t>
+  </si>
+  <si>
+    <t>พลวัน</t>
+  </si>
+  <si>
+    <t>นายอุกฤษณ์</t>
+  </si>
+  <si>
+    <t>วัชรวิเชษฐ์</t>
+  </si>
+  <si>
+    <t>นายณัฐภัทร</t>
+  </si>
+  <si>
+    <t>นะที</t>
+  </si>
+  <si>
+    <t>นายเพิ่มธนา</t>
+  </si>
+  <si>
+    <t>สดใส</t>
   </si>
 </sst>
 </file>
@@ -1085,10 +1340,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F98"/>
+  <dimension ref="A1:F142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F98" sqref="F98"/>
+      <selection activeCell="F142" sqref="F142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1181,7 +1436,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="11">
-        <v>531910135</v>
+        <v>540110214</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>14</v>
@@ -1198,7 +1453,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="11">
-        <v>540510297</v>
+        <v>540110217</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>17</v>
@@ -1207,7 +1462,7 @@
         <v>18</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:6" customHeight="1" ht="19.8">
@@ -1215,16 +1470,16 @@
         <v>3</v>
       </c>
       <c r="C10" s="11">
-        <v>540510305</v>
+        <v>540110222</v>
       </c>
       <c r="D10" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="13" t="s">
-        <v>21</v>
-      </c>
       <c r="F10" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:6" customHeight="1" ht="19.8">
@@ -1232,16 +1487,16 @@
         <v>4</v>
       </c>
       <c r="C11" s="11">
-        <v>540510669</v>
+        <v>540110224</v>
       </c>
       <c r="D11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="13" t="s">
-        <v>23</v>
-      </c>
       <c r="F11" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:6" customHeight="1" ht="19.8">
@@ -1249,16 +1504,16 @@
         <v>5</v>
       </c>
       <c r="C12" s="11">
-        <v>550210003</v>
+        <v>550310177</v>
       </c>
       <c r="D12" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="13" t="s">
-        <v>25</v>
-      </c>
       <c r="F12" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:6" customHeight="1" ht="19.8">
@@ -1266,16 +1521,16 @@
         <v>6</v>
       </c>
       <c r="C13" s="11">
-        <v>550210012</v>
+        <v>550310183</v>
       </c>
       <c r="D13" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="13" t="s">
-        <v>27</v>
-      </c>
       <c r="F13" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:6" customHeight="1" ht="19.8">
@@ -1283,16 +1538,16 @@
         <v>7</v>
       </c>
       <c r="C14" s="11">
-        <v>551310113</v>
+        <v>550310192</v>
       </c>
       <c r="D14" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="13" t="s">
-        <v>29</v>
-      </c>
       <c r="F14" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:6" customHeight="1" ht="19.8">
@@ -1300,16 +1555,16 @@
         <v>8</v>
       </c>
       <c r="C15" s="11">
-        <v>560510019</v>
+        <v>550310223</v>
       </c>
       <c r="D15" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="13" t="s">
-        <v>31</v>
-      </c>
       <c r="F15" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:6" customHeight="1" ht="19.8">
@@ -1317,16 +1572,16 @@
         <v>9</v>
       </c>
       <c r="C16" s="11">
-        <v>560510615</v>
+        <v>551611058</v>
       </c>
       <c r="D16" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="13" t="s">
-        <v>33</v>
-      </c>
       <c r="F16" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:6" customHeight="1" ht="19.8">
@@ -1334,16 +1589,16 @@
         <v>10</v>
       </c>
       <c r="C17" s="11">
-        <v>561010050</v>
+        <v>551611060</v>
       </c>
       <c r="D17" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="13" t="s">
-        <v>35</v>
-      </c>
       <c r="F17" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:6" customHeight="1" ht="19.8">
@@ -1351,16 +1606,16 @@
         <v>11</v>
       </c>
       <c r="C18" s="11">
-        <v>561010160</v>
+        <v>551611063</v>
       </c>
       <c r="D18" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="13" t="s">
-        <v>37</v>
-      </c>
       <c r="F18" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:6" customHeight="1" ht="19.8">
@@ -1368,16 +1623,16 @@
         <v>12</v>
       </c>
       <c r="C19" s="11">
-        <v>561611090</v>
+        <v>560110112</v>
       </c>
       <c r="D19" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="13" t="s">
-        <v>39</v>
-      </c>
       <c r="F19" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:6" customHeight="1" ht="19.8">
@@ -1385,16 +1640,16 @@
         <v>13</v>
       </c>
       <c r="C20" s="11">
-        <v>570110135</v>
+        <v>560110119</v>
       </c>
       <c r="D20" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="13" t="s">
-        <v>41</v>
-      </c>
       <c r="F20" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:6" customHeight="1" ht="19.8">
@@ -1402,16 +1657,16 @@
         <v>14</v>
       </c>
       <c r="C21" s="11">
-        <v>570110144</v>
+        <v>560410001</v>
       </c>
       <c r="D21" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="13" t="s">
-        <v>43</v>
-      </c>
       <c r="F21" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:6" customHeight="1" ht="19.8">
@@ -1419,16 +1674,16 @@
         <v>15</v>
       </c>
       <c r="C22" s="11">
-        <v>570110156</v>
+        <v>560410012</v>
       </c>
       <c r="D22" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="13" t="s">
-        <v>45</v>
-      </c>
       <c r="F22" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:6" customHeight="1" ht="19.8">
@@ -1436,16 +1691,16 @@
         <v>16</v>
       </c>
       <c r="C23" s="11">
-        <v>570110213</v>
+        <v>560410014</v>
       </c>
       <c r="D23" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E23" s="13" t="s">
-        <v>47</v>
-      </c>
       <c r="F23" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:6" customHeight="1" ht="19.8">
@@ -1453,16 +1708,16 @@
         <v>17</v>
       </c>
       <c r="C24" s="11">
-        <v>570210060</v>
+        <v>560410030</v>
       </c>
       <c r="D24" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="E24" s="13" t="s">
-        <v>49</v>
-      </c>
       <c r="F24" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:6" customHeight="1" ht="19.8">
@@ -1470,16 +1725,16 @@
         <v>18</v>
       </c>
       <c r="C25" s="11">
-        <v>570510620</v>
+        <v>560410034</v>
       </c>
       <c r="D25" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="E25" s="13" t="s">
-        <v>51</v>
-      </c>
       <c r="F25" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:6" customHeight="1" ht="19.8">
@@ -1487,16 +1742,16 @@
         <v>19</v>
       </c>
       <c r="C26" s="11">
-        <v>570510629</v>
+        <v>560410039</v>
       </c>
       <c r="D26" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="13" t="s">
-        <v>53</v>
-      </c>
       <c r="F26" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:6" customHeight="1" ht="19.8">
@@ -1504,16 +1759,16 @@
         <v>20</v>
       </c>
       <c r="C27" s="11">
-        <v>570510635</v>
+        <v>560410044</v>
       </c>
       <c r="D27" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="E27" s="13" t="s">
-        <v>55</v>
-      </c>
       <c r="F27" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:6" customHeight="1" ht="19.8">
@@ -1521,16 +1776,16 @@
         <v>21</v>
       </c>
       <c r="C28" s="11">
-        <v>570510640</v>
+        <v>560410049</v>
       </c>
       <c r="D28" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="13" t="s">
-        <v>57</v>
-      </c>
       <c r="F28" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:6" customHeight="1" ht="19.8">
@@ -1538,16 +1793,16 @@
         <v>22</v>
       </c>
       <c r="C29" s="11">
-        <v>570510643</v>
+        <v>560410052</v>
       </c>
       <c r="D29" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E29" s="13" t="s">
-        <v>59</v>
-      </c>
       <c r="F29" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:6" customHeight="1" ht="19.8">
@@ -1555,16 +1810,16 @@
         <v>23</v>
       </c>
       <c r="C30" s="11">
-        <v>570510680</v>
+        <v>560410053</v>
       </c>
       <c r="D30" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="E30" s="13" t="s">
-        <v>61</v>
-      </c>
       <c r="F30" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:6" customHeight="1" ht="19.8">
@@ -1572,16 +1827,16 @@
         <v>24</v>
       </c>
       <c r="C31" s="11">
-        <v>570510694</v>
+        <v>560410057</v>
       </c>
       <c r="D31" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E31" s="13" t="s">
-        <v>63</v>
-      </c>
       <c r="F31" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:6" customHeight="1" ht="19.8">
@@ -1589,16 +1844,16 @@
         <v>25</v>
       </c>
       <c r="C32" s="11">
-        <v>571110013</v>
+        <v>560410061</v>
       </c>
       <c r="D32" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E32" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="E32" s="13" t="s">
-        <v>65</v>
-      </c>
       <c r="F32" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:6" customHeight="1" ht="19.8">
@@ -1606,16 +1861,16 @@
         <v>26</v>
       </c>
       <c r="C33" s="11">
-        <v>571110019</v>
+        <v>560410064</v>
       </c>
       <c r="D33" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="E33" s="13" t="s">
-        <v>67</v>
-      </c>
       <c r="F33" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:6" customHeight="1" ht="19.8">
@@ -1623,16 +1878,16 @@
         <v>27</v>
       </c>
       <c r="C34" s="11">
-        <v>571110039</v>
+        <v>560410090</v>
       </c>
       <c r="D34" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E34" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E34" s="13" t="s">
-        <v>69</v>
-      </c>
       <c r="F34" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:6" customHeight="1" ht="19.8">
@@ -1640,16 +1895,16 @@
         <v>28</v>
       </c>
       <c r="C35" s="11">
-        <v>571110097</v>
+        <v>560410091</v>
       </c>
       <c r="D35" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="E35" s="13" t="s">
-        <v>71</v>
-      </c>
       <c r="F35" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:6" customHeight="1" ht="19.8">
@@ -1657,16 +1912,16 @@
         <v>29</v>
       </c>
       <c r="C36" s="11">
-        <v>571110101</v>
+        <v>560410112</v>
       </c>
       <c r="D36" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E36" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="E36" s="13" t="s">
-        <v>73</v>
-      </c>
       <c r="F36" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1687,16 +1942,16 @@
         <v>30</v>
       </c>
       <c r="C38" s="11">
-        <v>571110102</v>
+        <v>560410118</v>
       </c>
       <c r="D38" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E38" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="E38" s="13" t="s">
-        <v>75</v>
-      </c>
       <c r="F38" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:6" customHeight="1" ht="19.8">
@@ -1704,16 +1959,16 @@
         <v>31</v>
       </c>
       <c r="C39" s="11">
-        <v>571110103</v>
+        <v>560410132</v>
       </c>
       <c r="D39" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E39" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="E39" s="13" t="s">
-        <v>77</v>
-      </c>
       <c r="F39" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:6" customHeight="1" ht="19.8">
@@ -1721,16 +1976,16 @@
         <v>32</v>
       </c>
       <c r="C40" s="11">
-        <v>571110104</v>
+        <v>561910066</v>
       </c>
       <c r="D40" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E40" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="13" t="s">
-        <v>79</v>
-      </c>
       <c r="F40" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:6" customHeight="1" ht="19.8">
@@ -1738,16 +1993,16 @@
         <v>33</v>
       </c>
       <c r="C41" s="11">
-        <v>571110105</v>
+        <v>561910069</v>
       </c>
       <c r="D41" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E41" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E41" s="13" t="s">
-        <v>81</v>
-      </c>
       <c r="F41" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:6" customHeight="1" ht="19.8">
@@ -1755,16 +2010,16 @@
         <v>34</v>
       </c>
       <c r="C42" s="11">
-        <v>571110108</v>
+        <v>561910081</v>
       </c>
       <c r="D42" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E42" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="E42" s="13" t="s">
-        <v>83</v>
-      </c>
       <c r="F42" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:6" customHeight="1" ht="19.8">
@@ -1772,16 +2027,16 @@
         <v>35</v>
       </c>
       <c r="C43" s="11">
-        <v>571110109</v>
+        <v>561910102</v>
       </c>
       <c r="D43" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E43" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="E43" s="13" t="s">
-        <v>85</v>
-      </c>
       <c r="F43" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:6" customHeight="1" ht="19.8">
@@ -1789,16 +2044,16 @@
         <v>36</v>
       </c>
       <c r="C44" s="11">
-        <v>571510251</v>
+        <v>561910119</v>
       </c>
       <c r="D44" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E44" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="E44" s="13" t="s">
-        <v>87</v>
-      </c>
       <c r="F44" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:6" customHeight="1" ht="19.8">
@@ -1806,16 +2061,16 @@
         <v>37</v>
       </c>
       <c r="C45" s="11">
-        <v>571510259</v>
+        <v>561910121</v>
       </c>
       <c r="D45" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E45" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="E45" s="13" t="s">
-        <v>89</v>
-      </c>
       <c r="F45" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:6" customHeight="1" ht="19.8">
@@ -1823,16 +2078,16 @@
         <v>38</v>
       </c>
       <c r="C46" s="11">
-        <v>571510260</v>
+        <v>570110245</v>
       </c>
       <c r="D46" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E46" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="E46" s="13" t="s">
-        <v>91</v>
-      </c>
       <c r="F46" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:6" customHeight="1" ht="19.8">
@@ -1840,16 +2095,16 @@
         <v>39</v>
       </c>
       <c r="C47" s="11">
-        <v>571810015</v>
+        <v>570110246</v>
       </c>
       <c r="D47" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E47" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="E47" s="13" t="s">
-        <v>93</v>
-      </c>
       <c r="F47" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:6" customHeight="1" ht="19.8">
@@ -1857,16 +2112,16 @@
         <v>40</v>
       </c>
       <c r="C48" s="11">
-        <v>571810017</v>
+        <v>570110247</v>
       </c>
       <c r="D48" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E48" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="E48" s="13" t="s">
-        <v>95</v>
-      </c>
       <c r="F48" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:6" customHeight="1" ht="19.8">
@@ -1874,16 +2129,16 @@
         <v>41</v>
       </c>
       <c r="C49" s="11">
-        <v>571810019</v>
+        <v>570110248</v>
       </c>
       <c r="D49" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E49" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="E49" s="13" t="s">
-        <v>97</v>
-      </c>
       <c r="F49" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:6" customHeight="1" ht="19.8">
@@ -1891,16 +2146,16 @@
         <v>42</v>
       </c>
       <c r="C50" s="11">
-        <v>571810030</v>
+        <v>570110250</v>
       </c>
       <c r="D50" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="E50" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="E50" s="13" t="s">
-        <v>99</v>
-      </c>
       <c r="F50" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:6" customHeight="1" ht="19.8">
@@ -1908,16 +2163,16 @@
         <v>43</v>
       </c>
       <c r="C51" s="11">
-        <v>571810031</v>
+        <v>570110251</v>
       </c>
       <c r="D51" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E51" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="E51" s="13" t="s">
-        <v>101</v>
-      </c>
       <c r="F51" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:6" customHeight="1" ht="19.8">
@@ -1925,16 +2180,16 @@
         <v>44</v>
       </c>
       <c r="C52" s="11">
-        <v>571810036</v>
+        <v>570110252</v>
       </c>
       <c r="D52" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E52" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="E52" s="13" t="s">
-        <v>103</v>
-      </c>
       <c r="F52" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:6" customHeight="1" ht="19.8">
@@ -1942,16 +2197,16 @@
         <v>45</v>
       </c>
       <c r="C53" s="11">
-        <v>571810038</v>
+        <v>570110253</v>
       </c>
       <c r="D53" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E53" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="E53" s="13" t="s">
-        <v>105</v>
-      </c>
       <c r="F53" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:6" customHeight="1" ht="19.8">
@@ -1959,16 +2214,16 @@
         <v>46</v>
       </c>
       <c r="C54" s="11">
-        <v>571810042</v>
+        <v>570110402</v>
       </c>
       <c r="D54" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E54" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="E54" s="13" t="s">
-        <v>107</v>
-      </c>
       <c r="F54" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:6" customHeight="1" ht="19.8">
@@ -1976,16 +2231,16 @@
         <v>47</v>
       </c>
       <c r="C55" s="11">
-        <v>571810043</v>
+        <v>570110418</v>
       </c>
       <c r="D55" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E55" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="E55" s="13" t="s">
-        <v>109</v>
-      </c>
       <c r="F55" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:6" customHeight="1" ht="19.8">
@@ -1993,16 +2248,16 @@
         <v>48</v>
       </c>
       <c r="C56" s="11">
-        <v>571810045</v>
+        <v>570210134</v>
       </c>
       <c r="D56" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E56" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="E56" s="13" t="s">
-        <v>111</v>
-      </c>
       <c r="F56" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:6" customHeight="1" ht="19.8">
@@ -2010,16 +2265,16 @@
         <v>49</v>
       </c>
       <c r="C57" s="11">
-        <v>571810053</v>
+        <v>570810005</v>
       </c>
       <c r="D57" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="E57" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="E57" s="13" t="s">
-        <v>113</v>
-      </c>
       <c r="F57" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:6" customHeight="1" ht="19.8">
@@ -2027,16 +2282,16 @@
         <v>50</v>
       </c>
       <c r="C58" s="11">
-        <v>571810056</v>
+        <v>570810024</v>
       </c>
       <c r="D58" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E58" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="E58" s="13" t="s">
-        <v>115</v>
-      </c>
       <c r="F58" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" spans="1:6" customHeight="1" ht="19.8">
@@ -2044,16 +2299,16 @@
         <v>51</v>
       </c>
       <c r="C59" s="11">
-        <v>571810057</v>
+        <v>570810049</v>
       </c>
       <c r="D59" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E59" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="E59" s="13" t="s">
-        <v>117</v>
-      </c>
       <c r="F59" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="1:6" customHeight="1" ht="19.8">
@@ -2061,16 +2316,16 @@
         <v>52</v>
       </c>
       <c r="C60" s="11">
-        <v>571810062</v>
+        <v>570810052</v>
       </c>
       <c r="D60" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E60" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="E60" s="13" t="s">
-        <v>119</v>
-      </c>
       <c r="F60" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" spans="1:6" customHeight="1" ht="19.8">
@@ -2078,16 +2333,16 @@
         <v>53</v>
       </c>
       <c r="C61" s="11">
-        <v>571810069</v>
+        <v>570810062</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>120</v>
+        <v>63</v>
       </c>
       <c r="E61" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:6" customHeight="1" ht="19.8">
@@ -2095,16 +2350,16 @@
         <v>54</v>
       </c>
       <c r="C62" s="11">
-        <v>571810085</v>
+        <v>570810064</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E62" s="13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:6" customHeight="1" ht="19.8">
@@ -2112,16 +2367,16 @@
         <v>55</v>
       </c>
       <c r="C63" s="11">
-        <v>571810093</v>
+        <v>570810067</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E63" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" spans="1:6" customHeight="1" ht="19.8">
@@ -2129,16 +2384,16 @@
         <v>56</v>
       </c>
       <c r="C64" s="11">
-        <v>571810094</v>
+        <v>570810080</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E64" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" spans="1:6" customHeight="1" ht="19.8">
@@ -2146,16 +2401,16 @@
         <v>57</v>
       </c>
       <c r="C65" s="11">
-        <v>571810104</v>
+        <v>570810083</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" spans="1:6" customHeight="1" ht="19.8">
@@ -2163,16 +2418,16 @@
         <v>58</v>
       </c>
       <c r="C66" s="11">
-        <v>571810105</v>
+        <v>570810090</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E66" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" spans="1:6" customHeight="1" ht="19.8">
@@ -2180,16 +2435,16 @@
         <v>59</v>
       </c>
       <c r="C67" s="11">
-        <v>571810106</v>
+        <v>570810101</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E67" s="13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" spans="1:6" customHeight="1" ht="19.8">
@@ -2197,16 +2452,16 @@
         <v>60</v>
       </c>
       <c r="C68" s="11">
-        <v>571810107</v>
+        <v>570810172</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E68" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F68" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" spans="1:6" customHeight="1" ht="19.8">
@@ -2214,16 +2469,16 @@
         <v>61</v>
       </c>
       <c r="C69" s="11">
-        <v>571810110</v>
+        <v>570810209</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E69" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" spans="1:6" customHeight="1" ht="19.8">
@@ -2231,16 +2486,16 @@
         <v>62</v>
       </c>
       <c r="C70" s="11">
-        <v>571810111</v>
+        <v>570810210</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E70" s="13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" spans="1:6" customHeight="1" ht="19.8">
@@ -2248,16 +2503,16 @@
         <v>63</v>
       </c>
       <c r="C71" s="11">
-        <v>571810113</v>
+        <v>570810351</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E71" s="13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" spans="1:6" customHeight="1" ht="19.8">
@@ -2265,16 +2520,16 @@
         <v>64</v>
       </c>
       <c r="C72" s="11">
-        <v>571810114</v>
+        <v>570810352</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E72" s="13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2295,16 +2550,16 @@
         <v>65</v>
       </c>
       <c r="C74" s="11">
-        <v>571810115</v>
+        <v>570810360</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" spans="1:6" customHeight="1" ht="19.8">
@@ -2312,16 +2567,16 @@
         <v>66</v>
       </c>
       <c r="C75" s="11">
-        <v>571810120</v>
+        <v>570810361</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E75" s="13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" spans="1:6" customHeight="1" ht="19.8">
@@ -2329,16 +2584,16 @@
         <v>67</v>
       </c>
       <c r="C76" s="11">
-        <v>571810121</v>
+        <v>570810362</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E76" s="13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F76" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" spans="1:6" customHeight="1" ht="19.8">
@@ -2346,16 +2601,16 @@
         <v>68</v>
       </c>
       <c r="C77" s="11">
-        <v>571810122</v>
+        <v>570810366</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E77" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F77" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" spans="1:6" customHeight="1" ht="19.8">
@@ -2363,13 +2618,13 @@
         <v>69</v>
       </c>
       <c r="C78" s="11">
-        <v>571810124</v>
+        <v>570810368</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E78" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F78" s="11" t="s">
         <v>16</v>
@@ -2380,16 +2635,16 @@
         <v>70</v>
       </c>
       <c r="C79" s="11">
-        <v>571810141</v>
+        <v>571410002</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E79" s="13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" spans="1:6" customHeight="1" ht="19.8">
@@ -2397,16 +2652,16 @@
         <v>71</v>
       </c>
       <c r="C80" s="11">
-        <v>571810143</v>
+        <v>571410013</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E80" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F80" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" spans="1:6" customHeight="1" ht="19.8">
@@ -2414,16 +2669,16 @@
         <v>72</v>
       </c>
       <c r="C81" s="11">
-        <v>571810144</v>
+        <v>571410015</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E81" s="13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" spans="1:6" customHeight="1" ht="19.8">
@@ -2431,16 +2686,16 @@
         <v>73</v>
       </c>
       <c r="C82" s="11">
-        <v>571810148</v>
+        <v>571410033</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E82" s="13" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" spans="1:6" customHeight="1" ht="19.8">
@@ -2448,16 +2703,16 @@
         <v>74</v>
       </c>
       <c r="C83" s="11">
-        <v>571810155</v>
+        <v>571410037</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E83" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" spans="1:6" customHeight="1" ht="19.8">
@@ -2465,16 +2720,16 @@
         <v>75</v>
       </c>
       <c r="C84" s="11">
-        <v>571810156</v>
+        <v>571410038</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E84" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F84" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" spans="1:6" customHeight="1" ht="19.8">
@@ -2482,16 +2737,16 @@
         <v>76</v>
       </c>
       <c r="C85" s="11">
-        <v>571810181</v>
+        <v>571410051</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E85" s="13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" spans="1:6" customHeight="1" ht="19.8">
@@ -2499,16 +2754,16 @@
         <v>77</v>
       </c>
       <c r="C86" s="11">
-        <v>571810182</v>
+        <v>571410052</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E86" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" spans="1:6" customHeight="1" ht="19.8">
@@ -2516,16 +2771,16 @@
         <v>78</v>
       </c>
       <c r="C87" s="11">
-        <v>571810183</v>
+        <v>571410055</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>28</v>
+        <v>168</v>
       </c>
       <c r="E87" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" spans="1:6" customHeight="1" ht="19.8">
@@ -2533,16 +2788,16 @@
         <v>79</v>
       </c>
       <c r="C88" s="11">
-        <v>571810184</v>
+        <v>571410057</v>
       </c>
       <c r="D88" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="E88" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="E88" s="13" t="s">
-        <v>172</v>
-      </c>
       <c r="F88" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" spans="1:6" customHeight="1" ht="19.8">
@@ -2550,16 +2805,16 @@
         <v>80</v>
       </c>
       <c r="C89" s="11">
-        <v>571810185</v>
+        <v>571610008</v>
       </c>
       <c r="D89" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="E89" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="E89" s="13" t="s">
-        <v>174</v>
-      </c>
       <c r="F89" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" spans="1:6" customHeight="1" ht="19.8">
@@ -2567,16 +2822,16 @@
         <v>81</v>
       </c>
       <c r="C90" s="11">
-        <v>571810186</v>
+        <v>571610013</v>
       </c>
       <c r="D90" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="E90" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="E90" s="13" t="s">
-        <v>176</v>
-      </c>
       <c r="F90" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" spans="1:6" customHeight="1" ht="19.8">
@@ -2584,16 +2839,16 @@
         <v>82</v>
       </c>
       <c r="C91" s="11">
-        <v>571810198</v>
+        <v>571610020</v>
       </c>
       <c r="D91" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="E91" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="E91" s="13" t="s">
-        <v>178</v>
-      </c>
       <c r="F91" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" spans="1:6" customHeight="1" ht="19.8">
@@ -2601,16 +2856,16 @@
         <v>83</v>
       </c>
       <c r="C92" s="11">
-        <v>571810204</v>
+        <v>571610021</v>
       </c>
       <c r="D92" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E92" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="E92" s="13" t="s">
-        <v>180</v>
-      </c>
       <c r="F92" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" spans="1:6" customHeight="1" ht="19.8">
@@ -2618,16 +2873,16 @@
         <v>84</v>
       </c>
       <c r="C93" s="11">
-        <v>571810206</v>
+        <v>571610022</v>
       </c>
       <c r="D93" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="E93" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="E93" s="13" t="s">
-        <v>182</v>
-      </c>
       <c r="F93" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" spans="1:6" customHeight="1" ht="19.8">
@@ -2635,16 +2890,16 @@
         <v>85</v>
       </c>
       <c r="C94" s="11">
-        <v>571910222</v>
+        <v>571610024</v>
       </c>
       <c r="D94" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="E94" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="E94" s="13" t="s">
-        <v>184</v>
-      </c>
       <c r="F94" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" spans="1:6" customHeight="1" ht="19.8">
@@ -2652,16 +2907,16 @@
         <v>86</v>
       </c>
       <c r="C95" s="11">
-        <v>571910223</v>
+        <v>571610025</v>
       </c>
       <c r="D95" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="E95" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="E95" s="13" t="s">
-        <v>186</v>
-      </c>
       <c r="F95" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" spans="1:6" customHeight="1" ht="19.8">
@@ -2669,16 +2924,16 @@
         <v>87</v>
       </c>
       <c r="C96" s="11">
-        <v>571910233</v>
+        <v>571610152</v>
       </c>
       <c r="D96" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="E96" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="E96" s="13" t="s">
-        <v>188</v>
-      </c>
       <c r="F96" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" spans="1:6" customHeight="1" ht="19.8">
@@ -2686,16 +2941,16 @@
         <v>88</v>
       </c>
       <c r="C97" s="11">
-        <v>571910246</v>
+        <v>571610154</v>
       </c>
       <c r="D97" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="E97" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="E97" s="13" t="s">
-        <v>190</v>
-      </c>
       <c r="F97" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" spans="1:6" customHeight="1" ht="19.8">
@@ -2703,16 +2958,760 @@
         <v>89</v>
       </c>
       <c r="C98" s="11">
-        <v>571910248</v>
+        <v>571610162</v>
       </c>
       <c r="D98" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="E98" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="E98" s="13" t="s">
+      <c r="F98" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B99" s="10">
+        <v>90</v>
+      </c>
+      <c r="C99" s="11">
+        <v>571610170</v>
+      </c>
+      <c r="D99" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="F98" s="11" t="s">
-        <v>19</v>
+      <c r="E99" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="F99" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B100" s="10">
+        <v>91</v>
+      </c>
+      <c r="C100" s="11">
+        <v>571610175</v>
+      </c>
+      <c r="D100" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="E100" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="F100" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B101" s="10">
+        <v>92</v>
+      </c>
+      <c r="C101" s="11">
+        <v>571610187</v>
+      </c>
+      <c r="D101" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="E101" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="F101" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B102" s="10">
+        <v>93</v>
+      </c>
+      <c r="C102" s="11">
+        <v>571610190</v>
+      </c>
+      <c r="D102" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="E102" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="F102" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B103" s="10">
+        <v>94</v>
+      </c>
+      <c r="C103" s="11">
+        <v>571610198</v>
+      </c>
+      <c r="D103" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="E103" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="F103" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B104" s="10">
+        <v>95</v>
+      </c>
+      <c r="C104" s="11">
+        <v>571610200</v>
+      </c>
+      <c r="D104" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="E104" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="F104" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B105" s="10">
+        <v>96</v>
+      </c>
+      <c r="C105" s="11">
+        <v>571610212</v>
+      </c>
+      <c r="D105" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="E105" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="F105" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B106" s="10">
+        <v>97</v>
+      </c>
+      <c r="C106" s="11">
+        <v>571610290</v>
+      </c>
+      <c r="D106" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="E106" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="F106" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B107" s="10">
+        <v>98</v>
+      </c>
+      <c r="C107" s="11">
+        <v>571610326</v>
+      </c>
+      <c r="D107" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="E107" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="F107" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B108" s="10">
+        <v>99</v>
+      </c>
+      <c r="C108" s="11">
+        <v>571910213</v>
+      </c>
+      <c r="D108" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="E108" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="F108" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="B109" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+    </row>
+    <row r="110" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B110" s="10">
+        <v>100</v>
+      </c>
+      <c r="C110" s="11">
+        <v>571910220</v>
+      </c>
+      <c r="D110" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="E110" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="F110" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B111" s="10">
+        <v>101</v>
+      </c>
+      <c r="C111" s="11">
+        <v>571910224</v>
+      </c>
+      <c r="D111" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="E111" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="F111" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B112" s="10">
+        <v>102</v>
+      </c>
+      <c r="C112" s="11">
+        <v>571910226</v>
+      </c>
+      <c r="D112" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="E112" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="F112" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B113" s="10">
+        <v>103</v>
+      </c>
+      <c r="C113" s="11">
+        <v>571910228</v>
+      </c>
+      <c r="D113" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="E113" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="F113" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B114" s="10">
+        <v>104</v>
+      </c>
+      <c r="C114" s="11">
+        <v>571910232</v>
+      </c>
+      <c r="D114" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="E114" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="F114" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B115" s="10">
+        <v>105</v>
+      </c>
+      <c r="C115" s="11">
+        <v>571910244</v>
+      </c>
+      <c r="D115" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="E115" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="F115" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B116" s="10">
+        <v>106</v>
+      </c>
+      <c r="C116" s="11">
+        <v>571910249</v>
+      </c>
+      <c r="D116" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="E116" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="F116" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B117" s="10">
+        <v>107</v>
+      </c>
+      <c r="C117" s="11">
+        <v>571910250</v>
+      </c>
+      <c r="D117" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="E117" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="F117" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B118" s="10">
+        <v>108</v>
+      </c>
+      <c r="C118" s="11">
+        <v>571910252</v>
+      </c>
+      <c r="D118" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="E118" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="F118" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B119" s="10">
+        <v>109</v>
+      </c>
+      <c r="C119" s="11">
+        <v>571910254</v>
+      </c>
+      <c r="D119" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="E119" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="F119" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B120" s="10">
+        <v>110</v>
+      </c>
+      <c r="C120" s="11">
+        <v>571910257</v>
+      </c>
+      <c r="D120" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="E120" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="F120" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B121" s="10">
+        <v>111</v>
+      </c>
+      <c r="C121" s="11">
+        <v>571910263</v>
+      </c>
+      <c r="D121" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="E121" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="F121" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B122" s="10">
+        <v>112</v>
+      </c>
+      <c r="C122" s="11">
+        <v>571910267</v>
+      </c>
+      <c r="D122" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="E122" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="F122" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B123" s="10">
+        <v>113</v>
+      </c>
+      <c r="C123" s="11">
+        <v>571910268</v>
+      </c>
+      <c r="D123" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="E123" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="F123" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B124" s="10">
+        <v>114</v>
+      </c>
+      <c r="C124" s="11">
+        <v>571910269</v>
+      </c>
+      <c r="D124" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="E124" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="F124" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B125" s="10">
+        <v>115</v>
+      </c>
+      <c r="C125" s="11">
+        <v>571910270</v>
+      </c>
+      <c r="D125" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="E125" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="F125" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B126" s="10">
+        <v>116</v>
+      </c>
+      <c r="C126" s="11">
+        <v>571910271</v>
+      </c>
+      <c r="D126" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="E126" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="F126" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B127" s="10">
+        <v>117</v>
+      </c>
+      <c r="C127" s="11">
+        <v>571910272</v>
+      </c>
+      <c r="D127" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="E127" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="F127" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B128" s="10">
+        <v>118</v>
+      </c>
+      <c r="C128" s="11">
+        <v>571910274</v>
+      </c>
+      <c r="D128" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="E128" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="F128" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B129" s="10">
+        <v>119</v>
+      </c>
+      <c r="C129" s="11">
+        <v>571910277</v>
+      </c>
+      <c r="D129" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="E129" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="F129" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B130" s="10">
+        <v>120</v>
+      </c>
+      <c r="C130" s="11">
+        <v>571910278</v>
+      </c>
+      <c r="D130" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="E130" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="F130" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B131" s="10">
+        <v>121</v>
+      </c>
+      <c r="C131" s="11">
+        <v>571910279</v>
+      </c>
+      <c r="D131" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="E131" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="F131" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B132" s="10">
+        <v>122</v>
+      </c>
+      <c r="C132" s="11">
+        <v>571910281</v>
+      </c>
+      <c r="D132" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="E132" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="F132" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B133" s="10">
+        <v>123</v>
+      </c>
+      <c r="C133" s="11">
+        <v>571910282</v>
+      </c>
+      <c r="D133" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="E133" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="F133" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B134" s="10">
+        <v>124</v>
+      </c>
+      <c r="C134" s="11">
+        <v>571910283</v>
+      </c>
+      <c r="D134" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="E134" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="F134" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B135" s="10">
+        <v>125</v>
+      </c>
+      <c r="C135" s="11">
+        <v>571910284</v>
+      </c>
+      <c r="D135" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="E135" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="F135" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B136" s="10">
+        <v>126</v>
+      </c>
+      <c r="C136" s="11">
+        <v>571910285</v>
+      </c>
+      <c r="D136" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="E136" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="F136" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B137" s="10">
+        <v>127</v>
+      </c>
+      <c r="C137" s="11">
+        <v>571910288</v>
+      </c>
+      <c r="D137" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="E137" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="F137" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B138" s="10">
+        <v>128</v>
+      </c>
+      <c r="C138" s="11">
+        <v>571910289</v>
+      </c>
+      <c r="D138" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="E138" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="F138" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B139" s="10">
+        <v>129</v>
+      </c>
+      <c r="C139" s="11">
+        <v>571910291</v>
+      </c>
+      <c r="D139" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="E139" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="F139" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B140" s="10">
+        <v>130</v>
+      </c>
+      <c r="C140" s="11">
+        <v>571910295</v>
+      </c>
+      <c r="D140" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="E140" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="F140" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B141" s="10">
+        <v>131</v>
+      </c>
+      <c r="C141" s="11">
+        <v>572010015</v>
+      </c>
+      <c r="D141" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="E141" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="F141" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B142" s="10">
+        <v>132</v>
+      </c>
+      <c r="C142" s="11">
+        <v>572010041</v>
+      </c>
+      <c r="D142" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="E142" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="F142" s="11" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2730,6 +3729,7 @@
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="D73:E73"/>
+    <mergeCell ref="D109:E109"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.75" right="0.62" top="1" bottom="1.1" header="0.71" footer="0.5"/>

--- a/temp/file.xlsx
+++ b/temp/file.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="204100-001000" sheetId="1" r:id="rId4"/>
+    <sheet name="204100-002000" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="275">
   <si>
     <t>รายชื่อนักศึกษาที่ลงทะเบียนเรียน ภาคเรียนที่ 1 ปีการศึกษา 2557</t>
   </si>
@@ -35,13 +35,13 @@
     <t xml:space="preserve">  SECTION (lec/lab) :</t>
   </si>
   <si>
-    <t xml:space="preserve">                 001/000</t>
+    <t xml:space="preserve">                 002/000</t>
   </si>
   <si>
     <t xml:space="preserve">  LECTURER :</t>
   </si>
   <si>
-    <t xml:space="preserve">                 วาสนา   นัยโพธิ์</t>
+    <t xml:space="preserve">                 พรรณิภา   ไพบูลย์นิมิตร</t>
   </si>
   <si>
     <t xml:space="preserve">  DATE :</t>
@@ -59,796 +59,787 @@
     <t>ชื่อ - นามสกุล</t>
   </si>
   <si>
-    <t>นางสาวกิตติยา</t>
-  </si>
-  <si>
-    <t>พูลอุดม</t>
+    <t>นางสาวธัญญ์นรี</t>
+  </si>
+  <si>
+    <t>นิธิยศไพศาล</t>
   </si>
   <si>
     <t xml:space="preserve">                                                                 </t>
   </si>
   <si>
-    <t>นางสาวชลลัดดา</t>
-  </si>
-  <si>
-    <t>วิริยะชินการ</t>
-  </si>
-  <si>
-    <t>นายนพดนัย</t>
-  </si>
-  <si>
-    <t>สมโน</t>
-  </si>
-  <si>
-    <t>นายอคิราภ์</t>
-  </si>
-  <si>
-    <t>ถมยา</t>
-  </si>
-  <si>
-    <t>นางสาวขวัญฤดี</t>
-  </si>
-  <si>
-    <t>มูลวิจิตร์</t>
-  </si>
-  <si>
-    <t>นางสาวฐิติกา</t>
-  </si>
-  <si>
-    <t>ชัยคำรงค์กุล</t>
-  </si>
-  <si>
-    <t>นางสาวปรินดา</t>
-  </si>
-  <si>
-    <t>บุญชุ่ม</t>
-  </si>
-  <si>
-    <t>นางสาวแสงตะวัน</t>
-  </si>
-  <si>
-    <t>วิริยะประสิทธิ์</t>
-  </si>
-  <si>
-    <t>นางสาวพิชญาภา</t>
-  </si>
-  <si>
-    <t>เทพหัสดิน ณ อยุธยา</t>
-  </si>
-  <si>
-    <t>นางสาวพิม</t>
-  </si>
-  <si>
-    <t>สืบแสง</t>
-  </si>
-  <si>
-    <t>นางสาวเพ็ญพิชชา</t>
-  </si>
-  <si>
-    <t>ชุมภูแก้ว</t>
-  </si>
-  <si>
-    <t>นางสาวญาณนันท์</t>
-  </si>
-  <si>
-    <t>ธนีสัตย์</t>
-  </si>
-  <si>
-    <t>นายปรีชาพงษ์</t>
-  </si>
-  <si>
-    <t>นิลแสงสัก</t>
-  </si>
-  <si>
-    <t>นางสาวกฤษณา</t>
-  </si>
-  <si>
-    <t>อุดทารุณ</t>
-  </si>
-  <si>
-    <t>นายจิรัฎฐ์</t>
-  </si>
-  <si>
-    <t>อ่อนแก้ว</t>
-  </si>
-  <si>
-    <t>นางสาวเจตนิพิฐ</t>
-  </si>
-  <si>
-    <t>ดาสินธุ</t>
-  </si>
-  <si>
-    <t>นางสาวบงกชกร</t>
-  </si>
-  <si>
-    <t>ชอบธรรม</t>
-  </si>
-  <si>
-    <t>นางสาวปิยะภรณ์</t>
-  </si>
-  <si>
-    <t>สิงห์ใส</t>
-  </si>
-  <si>
-    <t>นางสาวพิชญ์จิรา</t>
-  </si>
-  <si>
-    <t>ยาอินทร์</t>
-  </si>
-  <si>
-    <t>นางสาวเพ็ญสุภาภรณ์</t>
-  </si>
-  <si>
-    <t>ไตรยศ</t>
-  </si>
-  <si>
-    <t>นางสาวรื่นฤดี</t>
-  </si>
-  <si>
-    <t>คำดี</t>
-  </si>
-  <si>
-    <t>นางสาววรวลัญช์</t>
-  </si>
-  <si>
-    <t>ธิป่าหนาด</t>
-  </si>
-  <si>
-    <t>นางสาววรัญพัชร์</t>
-  </si>
-  <si>
-    <t>จิราสภาพันธ์</t>
-  </si>
-  <si>
-    <t>นางสาวศิรินันท์</t>
-  </si>
-  <si>
-    <t>คำภักดี</t>
-  </si>
-  <si>
-    <t>นางสาวสุดารัตน์</t>
-  </si>
-  <si>
-    <t>ปีหลวง</t>
-  </si>
-  <si>
-    <t>นางสาวอรวี</t>
-  </si>
-  <si>
-    <t>เลาะหะนะ</t>
-  </si>
-  <si>
-    <t>นางสาวฐิตาพร</t>
-  </si>
-  <si>
-    <t>เทียมเจริญ</t>
-  </si>
-  <si>
-    <t>นางสาวฐิติพร</t>
-  </si>
-  <si>
-    <t>ใหม่ชุ่ม</t>
-  </si>
-  <si>
-    <t>นางสาวพฤกษ์สร</t>
-  </si>
-  <si>
-    <t>เสริมกิจ</t>
-  </si>
-  <si>
-    <t>นางสาวพิมพิสุทธิ์</t>
-  </si>
-  <si>
-    <t>อินแปง</t>
-  </si>
-  <si>
-    <t>นางสาววัชราภรณ์</t>
-  </si>
-  <si>
-    <t>ไชยนาม</t>
-  </si>
-  <si>
-    <t>นายกฤษณพงศ์</t>
-  </si>
-  <si>
-    <t>ศรีวงศ์ราช</t>
-  </si>
-  <si>
-    <t>นางสาวเกศราภรณ์</t>
-  </si>
-  <si>
-    <t>ตันสร้าง</t>
-  </si>
-  <si>
-    <t>นางสาวฐิติชญา</t>
-  </si>
-  <si>
-    <t>ฟองอาภา</t>
-  </si>
-  <si>
-    <t>นางสาวธัญญ์นภัส</t>
-  </si>
-  <si>
-    <t>รัฐอริยธำรงค์</t>
-  </si>
-  <si>
-    <t>นางสาวพรจรัส</t>
-  </si>
-  <si>
-    <t>ดีทอง</t>
-  </si>
-  <si>
-    <t>นางสาวพิชชาพร</t>
-  </si>
-  <si>
-    <t>ทิพเนตร</t>
-  </si>
-  <si>
-    <t>นายสรสิช</t>
-  </si>
-  <si>
-    <t>เรืองรุ่ง</t>
-  </si>
-  <si>
-    <t>นายสรายุทธ</t>
-  </si>
-  <si>
-    <t>จรัสพันธุ์กุล</t>
-  </si>
-  <si>
-    <t>นางสาวสิริมา</t>
-  </si>
-  <si>
-    <t>เล้าอติมาน</t>
-  </si>
-  <si>
-    <t>นางสาวสุพรรณษา</t>
-  </si>
-  <si>
-    <t>ยะใจมั่น</t>
-  </si>
-  <si>
-    <t>นางสาวอธิติยา</t>
-  </si>
-  <si>
-    <t>วณะเจริญ</t>
-  </si>
-  <si>
-    <t>นายอรรถวิทย์</t>
-  </si>
-  <si>
-    <t>ศรีสุวรรณ</t>
-  </si>
-  <si>
-    <t>นายอัชเชวะ</t>
-  </si>
-  <si>
-    <t>ชุ่มวงศ์</t>
-  </si>
-  <si>
-    <t>นางสาวอาภาภรณ์</t>
-  </si>
-  <si>
-    <t>พรหมพิงค์</t>
+    <t>นางสาวพรรษร</t>
+  </si>
+  <si>
+    <t>ชุณหสิริ</t>
+  </si>
+  <si>
+    <t>นายอัษฎา</t>
+  </si>
+  <si>
+    <t>พิพัฒน์เรืองไร</t>
+  </si>
+  <si>
+    <t>นายบุญคริษฐ์</t>
+  </si>
+  <si>
+    <t>ทีรวม</t>
+  </si>
+  <si>
+    <t>นายปริญญวรรธ</t>
+  </si>
+  <si>
+    <t>จันทะวงษ์</t>
+  </si>
+  <si>
+    <t>นางสาวศรสวรรค์</t>
+  </si>
+  <si>
+    <t>เลี่ยมทอง</t>
+  </si>
+  <si>
+    <t>นายโชติวรุตม์</t>
+  </si>
+  <si>
+    <t>ปภานันวรเศรษฐ์</t>
+  </si>
+  <si>
+    <t>นายวีรภัทร</t>
+  </si>
+  <si>
+    <t>ไชยต้อม</t>
+  </si>
+  <si>
+    <t>นายเอกวัฒน์</t>
+  </si>
+  <si>
+    <t>วังกาวรรณ์</t>
+  </si>
+  <si>
+    <t>นางสาวพันธิตรา</t>
+  </si>
+  <si>
+    <t>อุทธิยะ</t>
+  </si>
+  <si>
+    <t>นางสาวมิรินินทร์</t>
+  </si>
+  <si>
+    <t>ศรีกรณ์กุล</t>
+  </si>
+  <si>
+    <t>นางสาวอัณณ์ญาดา</t>
+  </si>
+  <si>
+    <t>สิริธนาทิพย์</t>
+  </si>
+  <si>
+    <t>นางสาวอัมพิกา</t>
+  </si>
+  <si>
+    <t>น้ำคำ</t>
+  </si>
+  <si>
+    <t>นางสาวชยานันท์</t>
+  </si>
+  <si>
+    <t>ชื่นในธรรม</t>
+  </si>
+  <si>
+    <t>นางสาวปาริชาติ</t>
+  </si>
+  <si>
+    <t>สร้อยสังวาลย์</t>
+  </si>
+  <si>
+    <t>นางสาวมีรฏา</t>
+  </si>
+  <si>
+    <t>อินทจักร์</t>
+  </si>
+  <si>
+    <t>นางสาวกนกวรรณ</t>
+  </si>
+  <si>
+    <t>แก้วนาหลวง</t>
+  </si>
+  <si>
+    <t>นางสาวกวินธิดา</t>
+  </si>
+  <si>
+    <t>เปาลิวัฒน์</t>
+  </si>
+  <si>
+    <t>นายก้องภพ</t>
+  </si>
+  <si>
+    <t>เสนนันตา</t>
+  </si>
+  <si>
+    <t>นางสาวจณิศญา</t>
+  </si>
+  <si>
+    <t>สุขโข</t>
+  </si>
+  <si>
+    <t>นางสาวฉัตราภรณ์</t>
+  </si>
+  <si>
+    <t>พิเคราะห์งาน</t>
+  </si>
+  <si>
+    <t>นางสาวชนัฐกานต์</t>
+  </si>
+  <si>
+    <t>ใจฟอง</t>
+  </si>
+  <si>
+    <t>นายชินดนัย</t>
+  </si>
+  <si>
+    <t>สุดใจ</t>
+  </si>
+  <si>
+    <t>นางสาวชุติญา</t>
+  </si>
+  <si>
+    <t>รัตนาวรากุล</t>
+  </si>
+  <si>
+    <t>นายฐิติกร</t>
+  </si>
+  <si>
+    <t>มินทร์ชัย</t>
+  </si>
+  <si>
+    <t>นางสาวฑิฆัมพร</t>
+  </si>
+  <si>
+    <t>มีสุข</t>
+  </si>
+  <si>
+    <t>นายณพัฒน์</t>
+  </si>
+  <si>
+    <t>คำ ณ พัฒน์</t>
+  </si>
+  <si>
+    <t>นางสาวณัชญา</t>
+  </si>
+  <si>
+    <t>สมมิตร</t>
+  </si>
+  <si>
+    <t>นางสาวณัฏฐภรณ์พรรณ</t>
+  </si>
+  <si>
+    <t>พรรณเทวี</t>
   </si>
   <si>
     <t>นางสาวณัฐพร</t>
   </si>
   <si>
-    <t>แก้วพิมล</t>
-  </si>
-  <si>
-    <t>นางสาวอารีย์</t>
-  </si>
-  <si>
-    <t>แสนคำ</t>
-  </si>
-  <si>
-    <t>นายปวริศร์</t>
+    <t>หมอยาดี</t>
+  </si>
+  <si>
+    <t>นางสาวณุชชนา</t>
+  </si>
+  <si>
+    <t>วรรณพงษ์</t>
+  </si>
+  <si>
+    <t>นางสาวดวงดาว</t>
+  </si>
+  <si>
+    <t>กันทวงค์</t>
+  </si>
+  <si>
+    <t>นางสาวถนิมรักษ์</t>
+  </si>
+  <si>
+    <t>พระบาง</t>
+  </si>
+  <si>
+    <t>นางสาวธนัชชา</t>
+  </si>
+  <si>
+    <t>คำสม</t>
+  </si>
+  <si>
+    <t>นางสาวธัญญาพร</t>
+  </si>
+  <si>
+    <t>ชูสุวรรณ</t>
+  </si>
+  <si>
+    <t>นายธัญพิสิษฐ์</t>
+  </si>
+  <si>
+    <t>เรืองอุไร</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                               W                                  </t>
+  </si>
+  <si>
+    <t>นางสาวนลินี</t>
+  </si>
+  <si>
+    <t>บุญยืน</t>
+  </si>
+  <si>
+    <t>นายปฐมพงษ์</t>
+  </si>
+  <si>
+    <t>ไหวดี</t>
+  </si>
+  <si>
+    <t>นางสาวปฐมา</t>
+  </si>
+  <si>
+    <t>โสภิณ</t>
+  </si>
+  <si>
+    <t>นางสาวปรางวลัย</t>
+  </si>
+  <si>
+    <t>ธิน่าน</t>
+  </si>
+  <si>
+    <t>นายปราณวิภู</t>
+  </si>
+  <si>
+    <t>จางสาย</t>
+  </si>
+  <si>
+    <t>นางสาวพิมพ์ตะวัน</t>
+  </si>
+  <si>
+    <t>ศรีเมือง</t>
+  </si>
+  <si>
+    <t>นางสาวเพ็ญนภา</t>
+  </si>
+  <si>
+    <t>ติไชย</t>
+  </si>
+  <si>
+    <t>นางสาวมัลลิกา</t>
+  </si>
+  <si>
+    <t>พักตร์ประไพกุล</t>
+  </si>
+  <si>
+    <t>นางสาวรุจาภา</t>
+  </si>
+  <si>
+    <t>นิธิศจรูญเดช</t>
+  </si>
+  <si>
+    <t>นางสาวศิรภัสสร</t>
+  </si>
+  <si>
+    <t>ธรรมขันธ์</t>
+  </si>
+  <si>
+    <t>นางสาวศิรานุช</t>
+  </si>
+  <si>
+    <t>กันธะวัง</t>
+  </si>
+  <si>
+    <t>นายศุภกรณ์</t>
+  </si>
+  <si>
+    <t>บุญมา</t>
+  </si>
+  <si>
+    <t>นางสาวสถิตตราพร</t>
+  </si>
+  <si>
+    <t>เพ็งสาธร</t>
+  </si>
+  <si>
+    <t>นายพรภวิษย์</t>
+  </si>
+  <si>
+    <t>ไทยทอง</t>
+  </si>
+  <si>
+    <t>นางสาวมนัสวี</t>
+  </si>
+  <si>
+    <t>คุ้มแก้ว</t>
+  </si>
+  <si>
+    <t>นางสาวจิตตราภรณ์</t>
+  </si>
+  <si>
+    <t>ทาวงค์</t>
+  </si>
+  <si>
+    <t>ศิลประเสริฐ</t>
+  </si>
+  <si>
+    <t>นายจิรัฏฐ์</t>
+  </si>
+  <si>
+    <t>เงินคำคง</t>
+  </si>
+  <si>
+    <t>นางสาวจิราภรณ์</t>
+  </si>
+  <si>
+    <t>มาศขาว</t>
+  </si>
+  <si>
+    <t>นางสาวจีราภรณ์</t>
+  </si>
+  <si>
+    <t>มีปัญญา</t>
+  </si>
+  <si>
+    <t>นางสาวชุติกาญจน์</t>
+  </si>
+  <si>
+    <t>ศรีบุญ</t>
+  </si>
+  <si>
+    <t>นายณัฏฐวัฒน์</t>
+  </si>
+  <si>
+    <t>ทวยหาญรักษา</t>
+  </si>
+  <si>
+    <t>นางสาวณัฐณิชา</t>
+  </si>
+  <si>
+    <t>เตชะตามี</t>
+  </si>
+  <si>
+    <t>นางสาวณิชกานต์</t>
+  </si>
+  <si>
+    <t>ตั้งขจรศาสตร์</t>
+  </si>
+  <si>
+    <t>นางสาวณิชา</t>
+  </si>
+  <si>
+    <t>วิบูลชัย</t>
+  </si>
+  <si>
+    <t>นางสาวดลญา</t>
+  </si>
+  <si>
+    <t>วันทนัง</t>
+  </si>
+  <si>
+    <t>นางสาวดวงกมล</t>
+  </si>
+  <si>
+    <t>มีโพธิ์</t>
+  </si>
+  <si>
+    <t>นางสาวดาราวัลย์</t>
+  </si>
+  <si>
+    <t>ทำการดี</t>
+  </si>
+  <si>
+    <t>นางสาวดุษฎีรัตน์</t>
+  </si>
+  <si>
+    <t>เรืองรองกูล</t>
+  </si>
+  <si>
+    <t>นางสาวเบ็ญจพรรณ</t>
+  </si>
+  <si>
+    <t>วิชา</t>
+  </si>
+  <si>
+    <t>นางสาวปฐาพร</t>
+  </si>
+  <si>
+    <t>กวางทอง</t>
+  </si>
+  <si>
+    <t>นางสาวปราณณิชา</t>
+  </si>
+  <si>
+    <t>ภิวันแก้ว</t>
+  </si>
+  <si>
+    <t>นางสาวพิมพ์ชนก</t>
+  </si>
+  <si>
+    <t>หว่านพืช</t>
+  </si>
+  <si>
+    <t>นางสาวไพวรินทร์</t>
+  </si>
+  <si>
+    <t>ชมชื่น</t>
+  </si>
+  <si>
+    <t>นางสาวฟ้าใส</t>
+  </si>
+  <si>
+    <t>แสงขำ</t>
+  </si>
+  <si>
+    <t>นางสาวภัคจิรา</t>
+  </si>
+  <si>
+    <t>ปาละทา</t>
+  </si>
+  <si>
+    <t>นายภาณุวิชญ์</t>
+  </si>
+  <si>
+    <t>สรรเสริญ</t>
+  </si>
+  <si>
+    <t>นายมหิทธิศักดิ์</t>
+  </si>
+  <si>
+    <t>โฉมศรี</t>
+  </si>
+  <si>
+    <t>นายเมธาสิทธิ์</t>
+  </si>
+  <si>
+    <t>เป็งมัชยา</t>
+  </si>
+  <si>
+    <t>นางสาวรวิพร</t>
+  </si>
+  <si>
+    <t>เวียงทอง</t>
+  </si>
+  <si>
+    <t>นายรัฐสภา</t>
+  </si>
+  <si>
+    <t>พรทิปัญญา</t>
+  </si>
+  <si>
+    <t>นางสาวรัตนกร</t>
+  </si>
+  <si>
+    <t>กันทะคำ</t>
+  </si>
+  <si>
+    <t>นางสาววนิดา</t>
+  </si>
+  <si>
+    <t>วิเศษขัน</t>
+  </si>
+  <si>
+    <t>นางสาววรนิษฐา</t>
+  </si>
+  <si>
+    <t>หล่อเลิศสุนทร</t>
+  </si>
+  <si>
+    <t>นางสาววรพนิต</t>
+  </si>
+  <si>
+    <t>สิทธิ</t>
+  </si>
+  <si>
+    <t>นางสาววรรณิกา</t>
+  </si>
+  <si>
+    <t>ปุกคำ</t>
+  </si>
+  <si>
+    <t>นางสาววรัทยา</t>
+  </si>
+  <si>
+    <t>บุญมีเจริญ</t>
+  </si>
+  <si>
+    <t>นางสาววริยา</t>
+  </si>
+  <si>
+    <t>ฟูบินทร์</t>
+  </si>
+  <si>
+    <t>นายวัฒนชัย</t>
+  </si>
+  <si>
+    <t>นิลาพันธ์</t>
+  </si>
+  <si>
+    <t>นางสาววันวิสาข์</t>
+  </si>
+  <si>
+    <t>วรรณวงค์</t>
+  </si>
+  <si>
+    <t>นางสาววิยะฉัตร</t>
+  </si>
+  <si>
+    <t>กรรณิกา</t>
+  </si>
+  <si>
+    <t>นางสาวศริลรา</t>
+  </si>
+  <si>
+    <t>น้อยวงษ์</t>
+  </si>
+  <si>
+    <t>นางสาวศศิธร</t>
+  </si>
+  <si>
+    <t>อุทัยรัตน์</t>
+  </si>
+  <si>
+    <t>นางสาวศศิวิมล</t>
+  </si>
+  <si>
+    <t>ดุมแก้ว</t>
+  </si>
+  <si>
+    <t>นางสาวศิรินาท</t>
+  </si>
+  <si>
+    <t>ชำนาญ</t>
+  </si>
+  <si>
+    <t>นายศุภวิทย์</t>
+  </si>
+  <si>
+    <t>ทองอิ่น</t>
+  </si>
+  <si>
+    <t>นางสาวศุภิสรา</t>
+  </si>
+  <si>
+    <t>แข็งขัน</t>
+  </si>
+  <si>
+    <t>นางสาวสุพัตรา</t>
+  </si>
+  <si>
+    <t>ขว้างชัย</t>
+  </si>
+  <si>
+    <t>นางสาวอนุสรา</t>
+  </si>
+  <si>
+    <t>เครือคำ</t>
+  </si>
+  <si>
+    <t>นางสาวชลธิชา</t>
   </si>
   <si>
     <t>ปิงเมือง</t>
   </si>
   <si>
-    <t>นายก้องนเรนทร์</t>
-  </si>
-  <si>
-    <t>ใจคำปัน</t>
-  </si>
-  <si>
-    <t>นางสาวดบัสวินี</t>
-  </si>
-  <si>
-    <t>พุฒโต</t>
-  </si>
-  <si>
-    <t>นางสาวรุ่งนภา</t>
-  </si>
-  <si>
-    <t>ขัติยะราช</t>
-  </si>
-  <si>
-    <t>นายวริทธิ์ธร</t>
-  </si>
-  <si>
-    <t>มอญเพ็ชร</t>
-  </si>
-  <si>
-    <t>พัทมี</t>
-  </si>
-  <si>
-    <t>นางสาวสุภาณี</t>
-  </si>
-  <si>
-    <t>คำนวล</t>
-  </si>
-  <si>
-    <t>นายอนุชิต</t>
-  </si>
-  <si>
-    <t>ลือโฮ้ง</t>
-  </si>
-  <si>
-    <t>นางสาวกฤติยา</t>
-  </si>
-  <si>
-    <t>วงไพวรรณ</t>
-  </si>
-  <si>
-    <t>นายกวีฉัตร</t>
-  </si>
-  <si>
-    <t>วังสาร</t>
-  </si>
-  <si>
-    <t>นางสาวกาญจนา</t>
-  </si>
-  <si>
-    <t>ถานันใจ</t>
-  </si>
-  <si>
-    <t>นายฆนากร</t>
-  </si>
-  <si>
-    <t>จักรใจวงค์</t>
-  </si>
-  <si>
-    <t>นายธนภัทร</t>
-  </si>
-  <si>
-    <t>แสงเขื่อนแก้ว</t>
-  </si>
-  <si>
-    <t>นางสาวบุณยานุช</t>
-  </si>
-  <si>
-    <t>พงษ์มนตรี</t>
-  </si>
-  <si>
-    <t>นางสาวบุษกล</t>
-  </si>
-  <si>
-    <t>กันต์กวี</t>
-  </si>
-  <si>
-    <t>นางสาวสุภาพร</t>
-  </si>
-  <si>
-    <t>ยิ้มสวัสดิ์</t>
-  </si>
-  <si>
-    <t>นางสาวสุภาวดี</t>
-  </si>
-  <si>
-    <t>ศรีใจปัน</t>
-  </si>
-  <si>
-    <t>นางสาวสุวนันท์</t>
-  </si>
-  <si>
-    <t>ลาวเปียง</t>
-  </si>
-  <si>
-    <t>นางสาวสุวรรณี</t>
-  </si>
-  <si>
-    <t>รัตนะ</t>
-  </si>
-  <si>
-    <t>นางสาวสุวิมล</t>
-  </si>
-  <si>
-    <t>อินกูล</t>
-  </si>
-  <si>
-    <t>นายอดิศักดิ์</t>
-  </si>
-  <si>
-    <t>บุญเรือน</t>
-  </si>
-  <si>
-    <t>นายอนันตชัย</t>
-  </si>
-  <si>
-    <t>มูลเจริญขจร</t>
-  </si>
-  <si>
-    <t>นายกรณ์ธนัตถ์</t>
-  </si>
-  <si>
-    <t>สมรรถสินวณิช</t>
-  </si>
-  <si>
-    <t>นางสาวญาสุมินทร์</t>
-  </si>
-  <si>
-    <t>อินทนาคม</t>
-  </si>
-  <si>
-    <t>นางสาวณัฐชา</t>
-  </si>
-  <si>
-    <t>จาตุรพจน์</t>
-  </si>
-  <si>
-    <t>นายพชร</t>
-  </si>
-  <si>
-    <t>พรนิมิตร</t>
-  </si>
-  <si>
-    <t>นางสาวพัณณ์ชิตา</t>
-  </si>
-  <si>
-    <t>คำใส</t>
-  </si>
-  <si>
-    <t>นางสาวพิชญ์สินี</t>
-  </si>
-  <si>
-    <t>สินอยู่</t>
-  </si>
-  <si>
-    <t>นางสาวสโรชาพัชร์</t>
-  </si>
-  <si>
-    <t>บุณยะโสรัจจ์</t>
-  </si>
-  <si>
-    <t>นางสาวสิรดา</t>
-  </si>
-  <si>
-    <t>เดชวงค์ญา</t>
-  </si>
-  <si>
-    <t>นางสาวหทัยชนก</t>
-  </si>
-  <si>
-    <t>ใจกล้า</t>
-  </si>
-  <si>
-    <t>นางสาวอริสรา</t>
-  </si>
-  <si>
-    <t>ชูเชิญ</t>
-  </si>
-  <si>
-    <t>นางสาวกรรณิการ์</t>
-  </si>
-  <si>
-    <t>คำวงษา</t>
-  </si>
-  <si>
-    <t>นางสาวกฤติยากรณ์</t>
-  </si>
-  <si>
-    <t>มะโนเกตุ</t>
-  </si>
-  <si>
-    <t>นางสาวกาญจนาพร</t>
-  </si>
-  <si>
-    <t>แสงสุข</t>
-  </si>
-  <si>
-    <t>นางสาวกุลฉัตร</t>
-  </si>
-  <si>
-    <t>เลิศวิลัย</t>
-  </si>
-  <si>
-    <t>นางสาวกุลธิดา</t>
-  </si>
-  <si>
-    <t>ราชา</t>
-  </si>
-  <si>
-    <t>นางสาวเกศริน</t>
-  </si>
-  <si>
-    <t>นินชัย</t>
-  </si>
-  <si>
-    <t>นางสาวแกมกมล</t>
-  </si>
-  <si>
-    <t>ไชยกันทา</t>
-  </si>
-  <si>
-    <t>นางสาวนลินนิภา</t>
-  </si>
-  <si>
-    <t>แก้วสุตัน</t>
-  </si>
-  <si>
-    <t>นางสาวนันท์นภัส</t>
-  </si>
-  <si>
-    <t>ตันพฤทธิอนันต์</t>
-  </si>
-  <si>
-    <t>นายเนติพงศ์</t>
-  </si>
-  <si>
-    <t>โปร่งใจ</t>
-  </si>
-  <si>
-    <t>นางสาวปฏิมาภรณ์</t>
-  </si>
-  <si>
-    <t>สุคำ</t>
-  </si>
-  <si>
-    <t>นางสาวปภัสสร</t>
-  </si>
-  <si>
-    <t>ลิมป์ภัสสร</t>
-  </si>
-  <si>
-    <t>นางสาวปวีณสุดา</t>
-  </si>
-  <si>
-    <t>ศักดี</t>
-  </si>
-  <si>
-    <t>นางสาวปัทมาสน์</t>
-  </si>
-  <si>
-    <t>แก้วกัน</t>
-  </si>
-  <si>
-    <t>นายปิยะวิชญ์</t>
-  </si>
-  <si>
-    <t>ทรงประกอบ</t>
-  </si>
-  <si>
-    <t>นางสาวผาณิต</t>
-  </si>
-  <si>
-    <t>อินต๊ะเส็น</t>
-  </si>
-  <si>
-    <t>นางสาวพษพร</t>
-  </si>
-  <si>
-    <t>พิงพราวลี</t>
-  </si>
-  <si>
-    <t>นางสาววลีรัตน์</t>
-  </si>
-  <si>
-    <t>ธรรมสุพิลม</t>
-  </si>
-  <si>
-    <t>นายเศรษฐพงษ์</t>
-  </si>
-  <si>
-    <t>อภิมงคลเลิศ</t>
-  </si>
-  <si>
-    <t>นางสาวธัญพิชชา</t>
-  </si>
-  <si>
-    <t>โชติพฤกษ์</t>
-  </si>
-  <si>
-    <t>นางสาวปภัสรินทร์</t>
-  </si>
-  <si>
-    <t>จิรธีระพันธ์</t>
-  </si>
-  <si>
-    <t>นางสาวปริยลักษณ์</t>
-  </si>
-  <si>
-    <t>จันทราภา</t>
-  </si>
-  <si>
-    <t>นางสาวปวิตรา</t>
-  </si>
-  <si>
-    <t>ลิมป์เติมทรัพย์</t>
-  </si>
-  <si>
-    <t>นางสาวปาณฑรา</t>
-  </si>
-  <si>
-    <t>กันสาย</t>
-  </si>
-  <si>
-    <t>นางสาวพรนิภา</t>
-  </si>
-  <si>
-    <t>ขุนนาพุ่ม</t>
-  </si>
-  <si>
-    <t>นางสาวมณฑกาญจน์</t>
-  </si>
-  <si>
-    <t>ปัญญาฟู</t>
-  </si>
-  <si>
-    <t>นายไม้น้ำ</t>
-  </si>
-  <si>
-    <t>สุวรรณจุณีย์</t>
-  </si>
-  <si>
-    <t>นางสาวรจิตา</t>
-  </si>
-  <si>
-    <t>ป๊อกคำอู๋</t>
-  </si>
-  <si>
-    <t>นางสาวรัชดาพร</t>
-  </si>
-  <si>
-    <t>เพ็ญสว่าง</t>
-  </si>
-  <si>
-    <t>นางสาววชิรญาณ์</t>
-  </si>
-  <si>
-    <t>บำเพ็ญอยู่</t>
-  </si>
-  <si>
-    <t>นายวรเมธ</t>
-  </si>
-  <si>
-    <t>สกุลงาม</t>
-  </si>
-  <si>
-    <t>นางสาววารุณี</t>
-  </si>
-  <si>
-    <t>สมนวล</t>
-  </si>
-  <si>
-    <t>นางสาวศศิวิมล</t>
-  </si>
-  <si>
-    <t>พรมพฤกษ์</t>
-  </si>
-  <si>
-    <t>นายศิรวุฒิ</t>
-  </si>
-  <si>
-    <t>จิตต์ใจ</t>
-  </si>
-  <si>
-    <t>นายศุภชัย</t>
-  </si>
-  <si>
-    <t>เปรมศรี</t>
-  </si>
-  <si>
-    <t>นางสาวศุภิสรา</t>
-  </si>
-  <si>
-    <t>นิลขำ</t>
-  </si>
-  <si>
-    <t>นางสาวสกุลรัตน์</t>
-  </si>
-  <si>
-    <t>หัดเคลือบ</t>
-  </si>
-  <si>
-    <t>นายสรศักดิ์</t>
-  </si>
-  <si>
-    <t>อินต๊ะแก้ว</t>
-  </si>
-  <si>
-    <t>นางสาวสิริกุล</t>
-  </si>
-  <si>
-    <t>พรหมกันธา</t>
-  </si>
-  <si>
-    <t>นางสาวสุทฐิญาภรณ์</t>
-  </si>
-  <si>
-    <t>กิตติกรวัฒนา</t>
-  </si>
-  <si>
-    <t>นางสาวสุธาทิพย์</t>
-  </si>
-  <si>
-    <t>ศรีธรรมมา</t>
-  </si>
-  <si>
-    <t>นายสุธิพันธ์</t>
-  </si>
-  <si>
-    <t>แก้วจันทร์เพชร</t>
-  </si>
-  <si>
-    <t>นายอนุรักษ์</t>
-  </si>
-  <si>
-    <t>รังษี</t>
-  </si>
-  <si>
-    <t>นางสาวอภิชญา</t>
-  </si>
-  <si>
-    <t>ปันจันทร์</t>
-  </si>
-  <si>
-    <t>นายอภิรักษ์</t>
-  </si>
-  <si>
-    <t>วงศ์พันธุ์</t>
-  </si>
-  <si>
-    <t>นายอภิสิทธิ์</t>
-  </si>
-  <si>
-    <t>พวงมาลัย</t>
-  </si>
-  <si>
-    <t>นางสาวอรพรรณ</t>
-  </si>
-  <si>
-    <t>พงษ์กิจการุณ</t>
-  </si>
-  <si>
-    <t>นางสาวอลิศา</t>
-  </si>
-  <si>
-    <t>ศรีระวัตร</t>
-  </si>
-  <si>
-    <t>นางสาวอัจฉรี</t>
-  </si>
-  <si>
-    <t>บัวเขียว</t>
-  </si>
-  <si>
-    <t>นายอานุภาพ</t>
-  </si>
-  <si>
-    <t>พลวัน</t>
-  </si>
-  <si>
-    <t>นายอุกฤษณ์</t>
-  </si>
-  <si>
-    <t>วัชรวิเชษฐ์</t>
-  </si>
-  <si>
     <t>นายณัฐภัทร</t>
   </si>
   <si>
-    <t>นะที</t>
-  </si>
-  <si>
-    <t>นายเพิ่มธนา</t>
-  </si>
-  <si>
-    <t>สดใส</t>
+    <t>สุขจิตต์</t>
+  </si>
+  <si>
+    <t>ทักษาดิพงษ์</t>
+  </si>
+  <si>
+    <t>นางสาวดิศยพร</t>
+  </si>
+  <si>
+    <t>กิตตินันท์ธนโชติ</t>
+  </si>
+  <si>
+    <t>นายธนบรรณ</t>
+  </si>
+  <si>
+    <t>บุญฟู</t>
+  </si>
+  <si>
+    <t>นายศิวกร</t>
+  </si>
+  <si>
+    <t>คุณะไชยโชติ</t>
+  </si>
+  <si>
+    <t>นายเอกอังกูร</t>
+  </si>
+  <si>
+    <t>ป้อมเสมา</t>
+  </si>
+  <si>
+    <t>นายณัฐภัสสร์</t>
+  </si>
+  <si>
+    <t>ประยูรช่วย</t>
+  </si>
+  <si>
+    <t>นางสาวเณภิชา</t>
+  </si>
+  <si>
+    <t>วุฒินนท์ชัย</t>
+  </si>
+  <si>
+    <t>นายธนพล</t>
+  </si>
+  <si>
+    <t>วรรณชัย</t>
+  </si>
+  <si>
+    <t>นายธนาธิป</t>
+  </si>
+  <si>
+    <t>ทับทอง</t>
+  </si>
+  <si>
+    <t>นายธนาวิทย์</t>
+  </si>
+  <si>
+    <t>น้อยจินดา</t>
+  </si>
+  <si>
+    <t>นายธวัชชัย</t>
+  </si>
+  <si>
+    <t>ใจยืน</t>
+  </si>
+  <si>
+    <t>นางสาวปัทมาภรณ์</t>
+  </si>
+  <si>
+    <t>จูงวงศ์</t>
+  </si>
+  <si>
+    <t>นายพชรพล</t>
+  </si>
+  <si>
+    <t>สมฤทธิ์</t>
+  </si>
+  <si>
+    <t>นางสาวพัชรินทร์</t>
+  </si>
+  <si>
+    <t>โสมสูงเนิน</t>
+  </si>
+  <si>
+    <t>นายภัทรธร</t>
+  </si>
+  <si>
+    <t>อินทร์ทอง</t>
+  </si>
+  <si>
+    <t>นางสาวภัทรภร</t>
+  </si>
+  <si>
+    <t>พลเมือง</t>
+  </si>
+  <si>
+    <t>นายภิเษก</t>
+  </si>
+  <si>
+    <t>มีทอง</t>
+  </si>
+  <si>
+    <t>นางสาวมณฑิรา</t>
+  </si>
+  <si>
+    <t>นางสาวรัฐพร</t>
+  </si>
+  <si>
+    <t>นันทะลัย</t>
+  </si>
+  <si>
+    <t>นางสาววรรณวดี</t>
+  </si>
+  <si>
+    <t>เดือนเพ็ญ</t>
+  </si>
+  <si>
+    <t>นายวรัชญ์</t>
+  </si>
+  <si>
+    <t>ศิริโฆษิตยางกูร</t>
+  </si>
+  <si>
+    <t>นางสาววริศรา</t>
+  </si>
+  <si>
+    <t>ขาววัฒน์</t>
+  </si>
+  <si>
+    <t>นายวสันต์</t>
+  </si>
+  <si>
+    <t>ปราชญ์ศิลป์</t>
+  </si>
+  <si>
+    <t>นางสาววัณย์พัชร์</t>
+  </si>
+  <si>
+    <t>กุลธนันโชค</t>
+  </si>
+  <si>
+    <t>นางสาวศรัญญา</t>
+  </si>
+  <si>
+    <t>จำนงค์</t>
+  </si>
+  <si>
+    <t>นายศราวิน</t>
+  </si>
+  <si>
+    <t>พูนยิ้ม</t>
+  </si>
+  <si>
+    <t>นายสิริภาส</t>
+  </si>
+  <si>
+    <t>ไชยกุล</t>
+  </si>
+  <si>
+    <t>นางสาวนิษา</t>
+  </si>
+  <si>
+    <t>ศิริสิตานนท์</t>
+  </si>
+  <si>
+    <t>นายอรรคพล</t>
+  </si>
+  <si>
+    <t>คนงาน</t>
+  </si>
+  <si>
+    <t>นางสาวอริตตา</t>
+  </si>
+  <si>
+    <t>รอดน้อย</t>
+  </si>
+  <si>
+    <t>นางสาวอานุชจิรา</t>
+  </si>
+  <si>
+    <t>ทานา</t>
+  </si>
+  <si>
+    <t>นางสาวอาภารัตน์</t>
+  </si>
+  <si>
+    <t>บุญเกิด</t>
+  </si>
+  <si>
+    <t>นางสาวเอกอิสรีย์</t>
+  </si>
+  <si>
+    <t>สุฉันทะบุตร</t>
+  </si>
+  <si>
+    <t>นางสาวฮัชมาน</t>
+  </si>
+  <si>
+    <t>ไทยอนันต์</t>
   </si>
 </sst>
 </file>
@@ -1340,10 +1331,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F142"/>
+  <dimension ref="A1:F141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F142" sqref="F142"/>
+      <selection activeCell="F141" sqref="F141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1436,7 +1427,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="11">
-        <v>540110214</v>
+        <v>540310072</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>14</v>
@@ -1453,7 +1444,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="11">
-        <v>540110217</v>
+        <v>540310079</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>17</v>
@@ -1470,7 +1461,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="11">
-        <v>540110222</v>
+        <v>540310097</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>19</v>
@@ -1487,7 +1478,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="11">
-        <v>540110224</v>
+        <v>542110066</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>21</v>
@@ -1504,7 +1495,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="11">
-        <v>550310177</v>
+        <v>550510599</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>23</v>
@@ -1521,7 +1512,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="11">
-        <v>550310183</v>
+        <v>560510272</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>25</v>
@@ -1538,7 +1529,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="11">
-        <v>550310192</v>
+        <v>560510617</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>27</v>
@@ -1555,7 +1546,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="11">
-        <v>550310223</v>
+        <v>560510666</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>29</v>
@@ -1572,7 +1563,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="11">
-        <v>551611058</v>
+        <v>560510685</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>31</v>
@@ -1589,7 +1580,7 @@
         <v>10</v>
       </c>
       <c r="C17" s="11">
-        <v>551611060</v>
+        <v>561710050</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>33</v>
@@ -1606,7 +1597,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="11">
-        <v>551611063</v>
+        <v>561710075</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>35</v>
@@ -1623,7 +1614,7 @@
         <v>12</v>
       </c>
       <c r="C19" s="11">
-        <v>560110112</v>
+        <v>561710081</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>37</v>
@@ -1640,7 +1631,7 @@
         <v>13</v>
       </c>
       <c r="C20" s="11">
-        <v>560110119</v>
+        <v>561710082</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>39</v>
@@ -1657,7 +1648,7 @@
         <v>14</v>
       </c>
       <c r="C21" s="11">
-        <v>560410001</v>
+        <v>561810032</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>41</v>
@@ -1674,7 +1665,7 @@
         <v>15</v>
       </c>
       <c r="C22" s="11">
-        <v>560410012</v>
+        <v>561810088</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>43</v>
@@ -1691,7 +1682,7 @@
         <v>16</v>
       </c>
       <c r="C23" s="11">
-        <v>560410014</v>
+        <v>561910126</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>45</v>
@@ -1708,7 +1699,7 @@
         <v>17</v>
       </c>
       <c r="C24" s="11">
-        <v>560410030</v>
+        <v>570110210</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>47</v>
@@ -1725,7 +1716,7 @@
         <v>18</v>
       </c>
       <c r="C25" s="11">
-        <v>560410034</v>
+        <v>570110211</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>49</v>
@@ -1742,7 +1733,7 @@
         <v>19</v>
       </c>
       <c r="C26" s="11">
-        <v>560410039</v>
+        <v>570110212</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>51</v>
@@ -1759,7 +1750,7 @@
         <v>20</v>
       </c>
       <c r="C27" s="11">
-        <v>560410044</v>
+        <v>570110214</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>53</v>
@@ -1776,7 +1767,7 @@
         <v>21</v>
       </c>
       <c r="C28" s="11">
-        <v>560410049</v>
+        <v>570110215</v>
       </c>
       <c r="D28" s="12" t="s">
         <v>55</v>
@@ -1793,7 +1784,7 @@
         <v>22</v>
       </c>
       <c r="C29" s="11">
-        <v>560410052</v>
+        <v>570110216</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>57</v>
@@ -1810,7 +1801,7 @@
         <v>23</v>
       </c>
       <c r="C30" s="11">
-        <v>560410053</v>
+        <v>570110217</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>59</v>
@@ -1827,7 +1818,7 @@
         <v>24</v>
       </c>
       <c r="C31" s="11">
-        <v>560410057</v>
+        <v>570110218</v>
       </c>
       <c r="D31" s="12" t="s">
         <v>61</v>
@@ -1844,7 +1835,7 @@
         <v>25</v>
       </c>
       <c r="C32" s="11">
-        <v>560410061</v>
+        <v>570110219</v>
       </c>
       <c r="D32" s="12" t="s">
         <v>63</v>
@@ -1861,7 +1852,7 @@
         <v>26</v>
       </c>
       <c r="C33" s="11">
-        <v>560410064</v>
+        <v>570110220</v>
       </c>
       <c r="D33" s="12" t="s">
         <v>65</v>
@@ -1878,7 +1869,7 @@
         <v>27</v>
       </c>
       <c r="C34" s="11">
-        <v>560410090</v>
+        <v>570110221</v>
       </c>
       <c r="D34" s="12" t="s">
         <v>67</v>
@@ -1895,7 +1886,7 @@
         <v>28</v>
       </c>
       <c r="C35" s="11">
-        <v>560410091</v>
+        <v>570110222</v>
       </c>
       <c r="D35" s="12" t="s">
         <v>69</v>
@@ -1912,7 +1903,7 @@
         <v>29</v>
       </c>
       <c r="C36" s="11">
-        <v>560410112</v>
+        <v>570110223</v>
       </c>
       <c r="D36" s="12" t="s">
         <v>71</v>
@@ -1942,7 +1933,7 @@
         <v>30</v>
       </c>
       <c r="C38" s="11">
-        <v>560410118</v>
+        <v>570110224</v>
       </c>
       <c r="D38" s="12" t="s">
         <v>73</v>
@@ -1959,7 +1950,7 @@
         <v>31</v>
       </c>
       <c r="C39" s="11">
-        <v>560410132</v>
+        <v>570110225</v>
       </c>
       <c r="D39" s="12" t="s">
         <v>75</v>
@@ -1976,7 +1967,7 @@
         <v>32</v>
       </c>
       <c r="C40" s="11">
-        <v>561910066</v>
+        <v>570110226</v>
       </c>
       <c r="D40" s="12" t="s">
         <v>77</v>
@@ -1993,7 +1984,7 @@
         <v>33</v>
       </c>
       <c r="C41" s="11">
-        <v>561910069</v>
+        <v>570110227</v>
       </c>
       <c r="D41" s="12" t="s">
         <v>79</v>
@@ -2010,7 +2001,7 @@
         <v>34</v>
       </c>
       <c r="C42" s="11">
-        <v>561910081</v>
+        <v>570110228</v>
       </c>
       <c r="D42" s="12" t="s">
         <v>81</v>
@@ -2027,7 +2018,7 @@
         <v>35</v>
       </c>
       <c r="C43" s="11">
-        <v>561910102</v>
+        <v>570110229</v>
       </c>
       <c r="D43" s="12" t="s">
         <v>83</v>
@@ -2044,7 +2035,7 @@
         <v>36</v>
       </c>
       <c r="C44" s="11">
-        <v>561910119</v>
+        <v>570110230</v>
       </c>
       <c r="D44" s="12" t="s">
         <v>85</v>
@@ -2053,7 +2044,7 @@
         <v>86</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:6" customHeight="1" ht="19.8">
@@ -2061,13 +2052,13 @@
         <v>37</v>
       </c>
       <c r="C45" s="11">
-        <v>561910121</v>
+        <v>570110231</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F45" s="11" t="s">
         <v>16</v>
@@ -2078,13 +2069,13 @@
         <v>38</v>
       </c>
       <c r="C46" s="11">
-        <v>570110245</v>
+        <v>570110232</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F46" s="11" t="s">
         <v>16</v>
@@ -2095,13 +2086,13 @@
         <v>39</v>
       </c>
       <c r="C47" s="11">
-        <v>570110246</v>
+        <v>570110233</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F47" s="11" t="s">
         <v>16</v>
@@ -2112,13 +2103,13 @@
         <v>40</v>
       </c>
       <c r="C48" s="11">
-        <v>570110247</v>
+        <v>570110234</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F48" s="11" t="s">
         <v>16</v>
@@ -2129,13 +2120,13 @@
         <v>41</v>
       </c>
       <c r="C49" s="11">
-        <v>570110248</v>
+        <v>570110235</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F49" s="11" t="s">
         <v>16</v>
@@ -2146,13 +2137,13 @@
         <v>42</v>
       </c>
       <c r="C50" s="11">
-        <v>570110250</v>
+        <v>570110237</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F50" s="11" t="s">
         <v>16</v>
@@ -2163,13 +2154,13 @@
         <v>43</v>
       </c>
       <c r="C51" s="11">
-        <v>570110251</v>
+        <v>570110238</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F51" s="11" t="s">
         <v>16</v>
@@ -2180,13 +2171,13 @@
         <v>44</v>
       </c>
       <c r="C52" s="11">
-        <v>570110252</v>
+        <v>570110239</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F52" s="11" t="s">
         <v>16</v>
@@ -2197,13 +2188,13 @@
         <v>45</v>
       </c>
       <c r="C53" s="11">
-        <v>570110253</v>
+        <v>570110240</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F53" s="11" t="s">
         <v>16</v>
@@ -2214,13 +2205,13 @@
         <v>46</v>
       </c>
       <c r="C54" s="11">
-        <v>570110402</v>
+        <v>570110241</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F54" s="11" t="s">
         <v>16</v>
@@ -2231,13 +2222,13 @@
         <v>47</v>
       </c>
       <c r="C55" s="11">
-        <v>570110418</v>
+        <v>570110242</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F55" s="11" t="s">
         <v>16</v>
@@ -2248,13 +2239,13 @@
         <v>48</v>
       </c>
       <c r="C56" s="11">
-        <v>570210134</v>
+        <v>570110243</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F56" s="11" t="s">
         <v>16</v>
@@ -2265,13 +2256,13 @@
         <v>49</v>
       </c>
       <c r="C57" s="11">
-        <v>570810005</v>
+        <v>570110244</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F57" s="11" t="s">
         <v>16</v>
@@ -2282,13 +2273,13 @@
         <v>50</v>
       </c>
       <c r="C58" s="11">
-        <v>570810024</v>
+        <v>571110162</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F58" s="11" t="s">
         <v>16</v>
@@ -2299,13 +2290,13 @@
         <v>51</v>
       </c>
       <c r="C59" s="11">
-        <v>570810049</v>
+        <v>571110167</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F59" s="11" t="s">
         <v>16</v>
@@ -2316,13 +2307,13 @@
         <v>52</v>
       </c>
       <c r="C60" s="11">
-        <v>570810052</v>
+        <v>571610036</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F60" s="11" t="s">
         <v>16</v>
@@ -2333,13 +2324,13 @@
         <v>53</v>
       </c>
       <c r="C61" s="11">
-        <v>570810062</v>
+        <v>571610037</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="E61" s="13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F61" s="11" t="s">
         <v>16</v>
@@ -2350,13 +2341,13 @@
         <v>54</v>
       </c>
       <c r="C62" s="11">
-        <v>570810064</v>
+        <v>571610046</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E62" s="13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F62" s="11" t="s">
         <v>16</v>
@@ -2367,13 +2358,13 @@
         <v>55</v>
       </c>
       <c r="C63" s="11">
-        <v>570810067</v>
+        <v>571610047</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E63" s="13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F63" s="11" t="s">
         <v>16</v>
@@ -2384,13 +2375,13 @@
         <v>56</v>
       </c>
       <c r="C64" s="11">
-        <v>570810080</v>
+        <v>571610048</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E64" s="13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F64" s="11" t="s">
         <v>16</v>
@@ -2401,13 +2392,13 @@
         <v>57</v>
       </c>
       <c r="C65" s="11">
-        <v>570810083</v>
+        <v>571610067</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F65" s="11" t="s">
         <v>16</v>
@@ -2418,13 +2409,13 @@
         <v>58</v>
       </c>
       <c r="C66" s="11">
-        <v>570810090</v>
+        <v>571610080</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E66" s="13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F66" s="11" t="s">
         <v>16</v>
@@ -2435,13 +2426,13 @@
         <v>59</v>
       </c>
       <c r="C67" s="11">
-        <v>570810101</v>
+        <v>571610086</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E67" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F67" s="11" t="s">
         <v>16</v>
@@ -2452,13 +2443,13 @@
         <v>60</v>
       </c>
       <c r="C68" s="11">
-        <v>570810172</v>
+        <v>571610093</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E68" s="13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F68" s="11" t="s">
         <v>16</v>
@@ -2469,13 +2460,13 @@
         <v>61</v>
       </c>
       <c r="C69" s="11">
-        <v>570810209</v>
+        <v>571610094</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E69" s="13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F69" s="11" t="s">
         <v>16</v>
@@ -2486,13 +2477,13 @@
         <v>62</v>
       </c>
       <c r="C70" s="11">
-        <v>570810210</v>
+        <v>571610095</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E70" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F70" s="11" t="s">
         <v>16</v>
@@ -2503,13 +2494,13 @@
         <v>63</v>
       </c>
       <c r="C71" s="11">
-        <v>570810351</v>
+        <v>571610096</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E71" s="13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F71" s="11" t="s">
         <v>16</v>
@@ -2520,13 +2511,13 @@
         <v>64</v>
       </c>
       <c r="C72" s="11">
-        <v>570810352</v>
+        <v>571610098</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E72" s="13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F72" s="11" t="s">
         <v>16</v>
@@ -2550,13 +2541,13 @@
         <v>65</v>
       </c>
       <c r="C74" s="11">
-        <v>570810360</v>
+        <v>571610099</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F74" s="11" t="s">
         <v>16</v>
@@ -2567,13 +2558,13 @@
         <v>66</v>
       </c>
       <c r="C75" s="11">
-        <v>570810361</v>
+        <v>571610168</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E75" s="13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F75" s="11" t="s">
         <v>16</v>
@@ -2584,13 +2575,13 @@
         <v>67</v>
       </c>
       <c r="C76" s="11">
-        <v>570810362</v>
+        <v>571610172</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E76" s="13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F76" s="11" t="s">
         <v>16</v>
@@ -2601,13 +2592,13 @@
         <v>68</v>
       </c>
       <c r="C77" s="11">
-        <v>570810366</v>
+        <v>571610181</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E77" s="13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F77" s="11" t="s">
         <v>16</v>
@@ -2618,13 +2609,13 @@
         <v>69</v>
       </c>
       <c r="C78" s="11">
-        <v>570810368</v>
+        <v>571610226</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E78" s="13" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F78" s="11" t="s">
         <v>16</v>
@@ -2635,13 +2626,13 @@
         <v>70</v>
       </c>
       <c r="C79" s="11">
-        <v>571410002</v>
+        <v>571610235</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E79" s="13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F79" s="11" t="s">
         <v>16</v>
@@ -2652,16 +2643,16 @@
         <v>71</v>
       </c>
       <c r="C80" s="11">
-        <v>571410013</v>
+        <v>571610236</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E80" s="13" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F80" s="11" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
     </row>
     <row r="81" spans="1:6" customHeight="1" ht="19.8">
@@ -2669,13 +2660,13 @@
         <v>72</v>
       </c>
       <c r="C81" s="11">
-        <v>571410015</v>
+        <v>571610241</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E81" s="13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F81" s="11" t="s">
         <v>16</v>
@@ -2686,13 +2677,13 @@
         <v>73</v>
       </c>
       <c r="C82" s="11">
-        <v>571410033</v>
+        <v>571610247</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E82" s="13" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F82" s="11" t="s">
         <v>16</v>
@@ -2703,13 +2694,13 @@
         <v>74</v>
       </c>
       <c r="C83" s="11">
-        <v>571410037</v>
+        <v>571610253</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E83" s="13" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F83" s="11" t="s">
         <v>16</v>
@@ -2720,13 +2711,13 @@
         <v>75</v>
       </c>
       <c r="C84" s="11">
-        <v>571410038</v>
+        <v>571610256</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E84" s="13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F84" s="11" t="s">
         <v>16</v>
@@ -2737,13 +2728,13 @@
         <v>76</v>
       </c>
       <c r="C85" s="11">
-        <v>571410051</v>
+        <v>571610263</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E85" s="13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F85" s="11" t="s">
         <v>16</v>
@@ -2754,13 +2745,13 @@
         <v>77</v>
       </c>
       <c r="C86" s="11">
-        <v>571410052</v>
+        <v>571610269</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E86" s="13" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F86" s="11" t="s">
         <v>16</v>
@@ -2771,13 +2762,13 @@
         <v>78</v>
       </c>
       <c r="C87" s="11">
-        <v>571410055</v>
+        <v>571610270</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E87" s="13" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F87" s="11" t="s">
         <v>16</v>
@@ -2788,13 +2779,13 @@
         <v>79</v>
       </c>
       <c r="C88" s="11">
-        <v>571410057</v>
+        <v>571610279</v>
       </c>
       <c r="D88" s="12" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E88" s="13" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F88" s="11" t="s">
         <v>16</v>
@@ -2805,13 +2796,13 @@
         <v>80</v>
       </c>
       <c r="C89" s="11">
-        <v>571610008</v>
+        <v>571610282</v>
       </c>
       <c r="D89" s="12" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E89" s="13" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F89" s="11" t="s">
         <v>16</v>
@@ -2822,13 +2813,13 @@
         <v>81</v>
       </c>
       <c r="C90" s="11">
-        <v>571610013</v>
+        <v>571610283</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E90" s="13" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F90" s="11" t="s">
         <v>16</v>
@@ -2839,13 +2830,13 @@
         <v>82</v>
       </c>
       <c r="C91" s="11">
-        <v>571610020</v>
+        <v>571610284</v>
       </c>
       <c r="D91" s="12" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E91" s="13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F91" s="11" t="s">
         <v>16</v>
@@ -2856,13 +2847,13 @@
         <v>83</v>
       </c>
       <c r="C92" s="11">
-        <v>571610021</v>
+        <v>571610287</v>
       </c>
       <c r="D92" s="12" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E92" s="13" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F92" s="11" t="s">
         <v>16</v>
@@ -2873,13 +2864,13 @@
         <v>84</v>
       </c>
       <c r="C93" s="11">
-        <v>571610022</v>
+        <v>571610289</v>
       </c>
       <c r="D93" s="12" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E93" s="13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F93" s="11" t="s">
         <v>16</v>
@@ -2890,13 +2881,13 @@
         <v>85</v>
       </c>
       <c r="C94" s="11">
-        <v>571610024</v>
+        <v>571610294</v>
       </c>
       <c r="D94" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E94" s="13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F94" s="11" t="s">
         <v>16</v>
@@ -2907,13 +2898,13 @@
         <v>86</v>
       </c>
       <c r="C95" s="11">
-        <v>571610025</v>
+        <v>571610295</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E95" s="13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F95" s="11" t="s">
         <v>16</v>
@@ -2924,13 +2915,13 @@
         <v>87</v>
       </c>
       <c r="C96" s="11">
-        <v>571610152</v>
+        <v>571610298</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E96" s="13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F96" s="11" t="s">
         <v>16</v>
@@ -2941,13 +2932,13 @@
         <v>88</v>
       </c>
       <c r="C97" s="11">
-        <v>571610154</v>
+        <v>571610307</v>
       </c>
       <c r="D97" s="12" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E97" s="13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F97" s="11" t="s">
         <v>16</v>
@@ -2958,13 +2949,13 @@
         <v>89</v>
       </c>
       <c r="C98" s="11">
-        <v>571610162</v>
+        <v>571610308</v>
       </c>
       <c r="D98" s="12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E98" s="13" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F98" s="11" t="s">
         <v>16</v>
@@ -2975,13 +2966,13 @@
         <v>90</v>
       </c>
       <c r="C99" s="11">
-        <v>571610170</v>
+        <v>571610310</v>
       </c>
       <c r="D99" s="12" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E99" s="13" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F99" s="11" t="s">
         <v>16</v>
@@ -2992,13 +2983,13 @@
         <v>91</v>
       </c>
       <c r="C100" s="11">
-        <v>571610175</v>
+        <v>571610315</v>
       </c>
       <c r="D100" s="12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E100" s="13" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F100" s="11" t="s">
         <v>16</v>
@@ -3009,13 +3000,13 @@
         <v>92</v>
       </c>
       <c r="C101" s="11">
-        <v>571610187</v>
+        <v>571610324</v>
       </c>
       <c r="D101" s="12" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E101" s="13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F101" s="11" t="s">
         <v>16</v>
@@ -3026,13 +3017,13 @@
         <v>93</v>
       </c>
       <c r="C102" s="11">
-        <v>571610190</v>
+        <v>571610325</v>
       </c>
       <c r="D102" s="12" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E102" s="13" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F102" s="11" t="s">
         <v>16</v>
@@ -3043,13 +3034,13 @@
         <v>94</v>
       </c>
       <c r="C103" s="11">
-        <v>571610198</v>
+        <v>571610346</v>
       </c>
       <c r="D103" s="12" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E103" s="13" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F103" s="11" t="s">
         <v>16</v>
@@ -3060,13 +3051,13 @@
         <v>95</v>
       </c>
       <c r="C104" s="11">
-        <v>571610200</v>
+        <v>571610363</v>
       </c>
       <c r="D104" s="12" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E104" s="13" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F104" s="11" t="s">
         <v>16</v>
@@ -3077,13 +3068,13 @@
         <v>96</v>
       </c>
       <c r="C105" s="11">
-        <v>571610212</v>
+        <v>571611046</v>
       </c>
       <c r="D105" s="12" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E105" s="13" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F105" s="11" t="s">
         <v>16</v>
@@ -3094,13 +3085,13 @@
         <v>97</v>
       </c>
       <c r="C106" s="11">
-        <v>571610290</v>
+        <v>571611065</v>
       </c>
       <c r="D106" s="12" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E106" s="13" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F106" s="11" t="s">
         <v>16</v>
@@ -3111,10 +3102,10 @@
         <v>98</v>
       </c>
       <c r="C107" s="11">
-        <v>571610326</v>
+        <v>571611067</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>208</v>
+        <v>135</v>
       </c>
       <c r="E107" s="13" t="s">
         <v>209</v>
@@ -3128,7 +3119,7 @@
         <v>99</v>
       </c>
       <c r="C108" s="11">
-        <v>571910213</v>
+        <v>571611069</v>
       </c>
       <c r="D108" s="12" t="s">
         <v>210</v>
@@ -3158,7 +3149,7 @@
         <v>100</v>
       </c>
       <c r="C110" s="11">
-        <v>571910220</v>
+        <v>571611075</v>
       </c>
       <c r="D110" s="12" t="s">
         <v>212</v>
@@ -3175,7 +3166,7 @@
         <v>101</v>
       </c>
       <c r="C111" s="11">
-        <v>571910224</v>
+        <v>571611177</v>
       </c>
       <c r="D111" s="12" t="s">
         <v>214</v>
@@ -3192,7 +3183,7 @@
         <v>102</v>
       </c>
       <c r="C112" s="11">
-        <v>571910226</v>
+        <v>571611205</v>
       </c>
       <c r="D112" s="12" t="s">
         <v>216</v>
@@ -3209,7 +3200,7 @@
         <v>103</v>
       </c>
       <c r="C113" s="11">
-        <v>571910228</v>
+        <v>571910194</v>
       </c>
       <c r="D113" s="12" t="s">
         <v>218</v>
@@ -3226,7 +3217,7 @@
         <v>104</v>
       </c>
       <c r="C114" s="11">
-        <v>571910232</v>
+        <v>571910196</v>
       </c>
       <c r="D114" s="12" t="s">
         <v>220</v>
@@ -3243,7 +3234,7 @@
         <v>105</v>
       </c>
       <c r="C115" s="11">
-        <v>571910244</v>
+        <v>571910199</v>
       </c>
       <c r="D115" s="12" t="s">
         <v>222</v>
@@ -3260,7 +3251,7 @@
         <v>106</v>
       </c>
       <c r="C116" s="11">
-        <v>571910249</v>
+        <v>571910205</v>
       </c>
       <c r="D116" s="12" t="s">
         <v>224</v>
@@ -3277,7 +3268,7 @@
         <v>107</v>
       </c>
       <c r="C117" s="11">
-        <v>571910250</v>
+        <v>571910207</v>
       </c>
       <c r="D117" s="12" t="s">
         <v>226</v>
@@ -3294,7 +3285,7 @@
         <v>108</v>
       </c>
       <c r="C118" s="11">
-        <v>571910252</v>
+        <v>571910210</v>
       </c>
       <c r="D118" s="12" t="s">
         <v>228</v>
@@ -3311,7 +3302,7 @@
         <v>109</v>
       </c>
       <c r="C119" s="11">
-        <v>571910254</v>
+        <v>571910227</v>
       </c>
       <c r="D119" s="12" t="s">
         <v>230</v>
@@ -3328,7 +3319,7 @@
         <v>110</v>
       </c>
       <c r="C120" s="11">
-        <v>571910257</v>
+        <v>571910231</v>
       </c>
       <c r="D120" s="12" t="s">
         <v>232</v>
@@ -3345,7 +3336,7 @@
         <v>111</v>
       </c>
       <c r="C121" s="11">
-        <v>571910263</v>
+        <v>571910236</v>
       </c>
       <c r="D121" s="12" t="s">
         <v>234</v>
@@ -3362,7 +3353,7 @@
         <v>112</v>
       </c>
       <c r="C122" s="11">
-        <v>571910267</v>
+        <v>571910240</v>
       </c>
       <c r="D122" s="12" t="s">
         <v>236</v>
@@ -3379,7 +3370,7 @@
         <v>113</v>
       </c>
       <c r="C123" s="11">
-        <v>571910268</v>
+        <v>571910241</v>
       </c>
       <c r="D123" s="12" t="s">
         <v>238</v>
@@ -3396,7 +3387,7 @@
         <v>114</v>
       </c>
       <c r="C124" s="11">
-        <v>571910269</v>
+        <v>571910243</v>
       </c>
       <c r="D124" s="12" t="s">
         <v>240</v>
@@ -3413,13 +3404,13 @@
         <v>115</v>
       </c>
       <c r="C125" s="11">
-        <v>571910270</v>
+        <v>571910245</v>
       </c>
       <c r="D125" s="12" t="s">
         <v>242</v>
       </c>
       <c r="E125" s="13" t="s">
-        <v>243</v>
+        <v>200</v>
       </c>
       <c r="F125" s="11" t="s">
         <v>16</v>
@@ -3430,13 +3421,13 @@
         <v>116</v>
       </c>
       <c r="C126" s="11">
-        <v>571910271</v>
+        <v>571910253</v>
       </c>
       <c r="D126" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="E126" s="13" t="s">
         <v>244</v>
-      </c>
-      <c r="E126" s="13" t="s">
-        <v>245</v>
       </c>
       <c r="F126" s="11" t="s">
         <v>16</v>
@@ -3447,13 +3438,13 @@
         <v>117</v>
       </c>
       <c r="C127" s="11">
-        <v>571910272</v>
+        <v>571910258</v>
       </c>
       <c r="D127" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="E127" s="13" t="s">
         <v>246</v>
-      </c>
-      <c r="E127" s="13" t="s">
-        <v>247</v>
       </c>
       <c r="F127" s="11" t="s">
         <v>16</v>
@@ -3464,13 +3455,13 @@
         <v>118</v>
       </c>
       <c r="C128" s="11">
-        <v>571910274</v>
+        <v>571910259</v>
       </c>
       <c r="D128" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="E128" s="13" t="s">
         <v>248</v>
-      </c>
-      <c r="E128" s="13" t="s">
-        <v>249</v>
       </c>
       <c r="F128" s="11" t="s">
         <v>16</v>
@@ -3481,13 +3472,13 @@
         <v>119</v>
       </c>
       <c r="C129" s="11">
-        <v>571910277</v>
+        <v>571910260</v>
       </c>
       <c r="D129" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="E129" s="13" t="s">
         <v>250</v>
-      </c>
-      <c r="E129" s="13" t="s">
-        <v>251</v>
       </c>
       <c r="F129" s="11" t="s">
         <v>16</v>
@@ -3498,13 +3489,13 @@
         <v>120</v>
       </c>
       <c r="C130" s="11">
-        <v>571910278</v>
+        <v>571910261</v>
       </c>
       <c r="D130" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="E130" s="13" t="s">
         <v>252</v>
-      </c>
-      <c r="E130" s="13" t="s">
-        <v>253</v>
       </c>
       <c r="F130" s="11" t="s">
         <v>16</v>
@@ -3515,13 +3506,13 @@
         <v>121</v>
       </c>
       <c r="C131" s="11">
-        <v>571910279</v>
+        <v>571910262</v>
       </c>
       <c r="D131" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="E131" s="13" t="s">
         <v>254</v>
-      </c>
-      <c r="E131" s="13" t="s">
-        <v>255</v>
       </c>
       <c r="F131" s="11" t="s">
         <v>16</v>
@@ -3532,13 +3523,13 @@
         <v>122</v>
       </c>
       <c r="C132" s="11">
-        <v>571910281</v>
+        <v>571910265</v>
       </c>
       <c r="D132" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="E132" s="13" t="s">
         <v>256</v>
-      </c>
-      <c r="E132" s="13" t="s">
-        <v>257</v>
       </c>
       <c r="F132" s="11" t="s">
         <v>16</v>
@@ -3549,13 +3540,13 @@
         <v>123</v>
       </c>
       <c r="C133" s="11">
-        <v>571910282</v>
+        <v>571910266</v>
       </c>
       <c r="D133" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="E133" s="13" t="s">
         <v>258</v>
-      </c>
-      <c r="E133" s="13" t="s">
-        <v>259</v>
       </c>
       <c r="F133" s="11" t="s">
         <v>16</v>
@@ -3566,13 +3557,13 @@
         <v>124</v>
       </c>
       <c r="C134" s="11">
-        <v>571910283</v>
+        <v>571910275</v>
       </c>
       <c r="D134" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="E134" s="13" t="s">
         <v>260</v>
-      </c>
-      <c r="E134" s="13" t="s">
-        <v>261</v>
       </c>
       <c r="F134" s="11" t="s">
         <v>16</v>
@@ -3583,13 +3574,13 @@
         <v>125</v>
       </c>
       <c r="C135" s="11">
-        <v>571910284</v>
+        <v>571910280</v>
       </c>
       <c r="D135" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="E135" s="13" t="s">
         <v>262</v>
-      </c>
-      <c r="E135" s="13" t="s">
-        <v>263</v>
       </c>
       <c r="F135" s="11" t="s">
         <v>16</v>
@@ -3600,13 +3591,13 @@
         <v>126</v>
       </c>
       <c r="C136" s="11">
-        <v>571910285</v>
+        <v>571910286</v>
       </c>
       <c r="D136" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="E136" s="13" t="s">
         <v>264</v>
-      </c>
-      <c r="E136" s="13" t="s">
-        <v>265</v>
       </c>
       <c r="F136" s="11" t="s">
         <v>16</v>
@@ -3617,13 +3608,13 @@
         <v>127</v>
       </c>
       <c r="C137" s="11">
-        <v>571910288</v>
+        <v>571910287</v>
       </c>
       <c r="D137" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E137" s="13" t="s">
         <v>266</v>
-      </c>
-      <c r="E137" s="13" t="s">
-        <v>267</v>
       </c>
       <c r="F137" s="11" t="s">
         <v>16</v>
@@ -3634,13 +3625,13 @@
         <v>128</v>
       </c>
       <c r="C138" s="11">
-        <v>571910289</v>
+        <v>571910290</v>
       </c>
       <c r="D138" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="E138" s="13" t="s">
         <v>268</v>
-      </c>
-      <c r="E138" s="13" t="s">
-        <v>269</v>
       </c>
       <c r="F138" s="11" t="s">
         <v>16</v>
@@ -3651,13 +3642,13 @@
         <v>129</v>
       </c>
       <c r="C139" s="11">
-        <v>571910291</v>
+        <v>571910292</v>
       </c>
       <c r="D139" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="E139" s="13" t="s">
         <v>270</v>
-      </c>
-      <c r="E139" s="13" t="s">
-        <v>271</v>
       </c>
       <c r="F139" s="11" t="s">
         <v>16</v>
@@ -3668,13 +3659,13 @@
         <v>130</v>
       </c>
       <c r="C140" s="11">
-        <v>571910295</v>
+        <v>571910296</v>
       </c>
       <c r="D140" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="E140" s="13" t="s">
         <v>272</v>
-      </c>
-      <c r="E140" s="13" t="s">
-        <v>273</v>
       </c>
       <c r="F140" s="11" t="s">
         <v>16</v>
@@ -3685,32 +3676,15 @@
         <v>131</v>
       </c>
       <c r="C141" s="11">
-        <v>572010015</v>
+        <v>571910297</v>
       </c>
       <c r="D141" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="E141" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="E141" s="13" t="s">
-        <v>275</v>
-      </c>
       <c r="F141" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" customHeight="1" ht="19.8">
-      <c r="B142" s="10">
-        <v>132</v>
-      </c>
-      <c r="C142" s="11">
-        <v>572010041</v>
-      </c>
-      <c r="D142" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="E142" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="F142" s="11" t="s">
         <v>16</v>
       </c>
     </row>

--- a/temp/file.xlsx
+++ b/temp/file.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="204891-001000" sheetId="1" r:id="rId4"/>
+    <sheet name="204202-001000" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="114">
   <si>
     <t>รายชื่อนักศึกษาที่ลงทะเบียนเรียน ภาคเรียนที่ 1 ปีการศึกษา 2558</t>
   </si>
@@ -23,13 +23,13 @@
     <t xml:space="preserve">  COURSE NO :</t>
   </si>
   <si>
-    <t xml:space="preserve">                 204891</t>
+    <t xml:space="preserve">                 204202</t>
   </si>
   <si>
     <t xml:space="preserve">  TITLE :</t>
   </si>
   <si>
-    <t xml:space="preserve">                 ADV RES METHODOL IN COMP SCI</t>
+    <t xml:space="preserve">                 IT II</t>
   </si>
   <si>
     <t xml:space="preserve">  SECTION (lec/lab) :</t>
@@ -41,7 +41,7 @@
     <t xml:space="preserve">  LECTURER :</t>
   </si>
   <si>
-    <t xml:space="preserve">                 รัฐสิทธิ์   สุขะหุติ</t>
+    <t xml:space="preserve">                 ฐาปนพงษ์   รักกาญจนันท์</t>
   </si>
   <si>
     <t xml:space="preserve">  DATE :</t>
@@ -57,6 +57,306 @@
   </si>
   <si>
     <t>ชื่อ - นามสกุล</t>
+  </si>
+  <si>
+    <t>นายธนพล</t>
+  </si>
+  <si>
+    <t>ทองหิน</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                 </t>
+  </si>
+  <si>
+    <t>นางสาวโสรญา</t>
+  </si>
+  <si>
+    <t>วิเศษชุมพล</t>
+  </si>
+  <si>
+    <t>นายเพชรดรุณ</t>
+  </si>
+  <si>
+    <t>เขื่อนคำ</t>
+  </si>
+  <si>
+    <t>นายภัสวร</t>
+  </si>
+  <si>
+    <t>แสงทองล้วน</t>
+  </si>
+  <si>
+    <t>นายสุรสิทธิ์</t>
+  </si>
+  <si>
+    <t>เหลาภา</t>
+  </si>
+  <si>
+    <t>นายณัฐวุฒิ</t>
+  </si>
+  <si>
+    <t>เนตรศิลป์</t>
+  </si>
+  <si>
+    <t>นายนครินทร์</t>
+  </si>
+  <si>
+    <t>พูลศิลป์</t>
+  </si>
+  <si>
+    <t>นางสาวธมลวรรณ</t>
+  </si>
+  <si>
+    <t>ศรีบุญเรือง</t>
+  </si>
+  <si>
+    <t>อุดมสินทรัพย์</t>
+  </si>
+  <si>
+    <t>นางสาวกัญญารัตน์</t>
+  </si>
+  <si>
+    <t>หลวงแดง</t>
+  </si>
+  <si>
+    <t>นายกิตติคุณ</t>
+  </si>
+  <si>
+    <t>กิตติเดชะนันทน์</t>
+  </si>
+  <si>
+    <t>นางสาวจริยา</t>
+  </si>
+  <si>
+    <t>พรมจันทร์</t>
+  </si>
+  <si>
+    <t>นางสาวจันทร์สุดา</t>
+  </si>
+  <si>
+    <t>นวนคำ</t>
+  </si>
+  <si>
+    <t>นางสาวชนนิกานต์</t>
+  </si>
+  <si>
+    <t>วงษ์กระแสร์</t>
+  </si>
+  <si>
+    <t>นางสาวชลิตา</t>
+  </si>
+  <si>
+    <t>วงศ์ถาวร</t>
+  </si>
+  <si>
+    <t>นางสาวชลินดา</t>
+  </si>
+  <si>
+    <t>พยัคฆ์เกียรติ</t>
+  </si>
+  <si>
+    <t>นายชานนท์</t>
+  </si>
+  <si>
+    <t>กล่อมเกลี้ยง</t>
+  </si>
+  <si>
+    <t>นางสาวชุติภา</t>
+  </si>
+  <si>
+    <t>มีบุญ</t>
+  </si>
+  <si>
+    <t>นายฐานันพ์</t>
+  </si>
+  <si>
+    <t>วิศิลป์</t>
+  </si>
+  <si>
+    <t>นางสาวณัฐนิช</t>
+  </si>
+  <si>
+    <t>อ่ำแก้ว</t>
+  </si>
+  <si>
+    <t>นายณัฐพงศ์</t>
+  </si>
+  <si>
+    <t>รักษ์โสภา</t>
+  </si>
+  <si>
+    <t>นางสาวณัฐริกานต์</t>
+  </si>
+  <si>
+    <t>วังพลากร</t>
+  </si>
+  <si>
+    <t>นายธีรพล</t>
+  </si>
+  <si>
+    <t>สิงห์ตัน</t>
+  </si>
+  <si>
+    <t>นายนนท์ปวิธ</t>
+  </si>
+  <si>
+    <t>หนูไทร</t>
+  </si>
+  <si>
+    <t>นางสาวนันทวัน</t>
+  </si>
+  <si>
+    <t>เสลา</t>
+  </si>
+  <si>
+    <t>นางสาวปติญญา</t>
+  </si>
+  <si>
+    <t>แก้วน้ำ</t>
+  </si>
+  <si>
+    <t>นางสาวปาริชาต</t>
+  </si>
+  <si>
+    <t>สุวรรณกุล</t>
+  </si>
+  <si>
+    <t>นายมงคล</t>
+  </si>
+  <si>
+    <t>ปั้นทอง</t>
+  </si>
+  <si>
+    <t>นางสาวยุวรัญญา</t>
+  </si>
+  <si>
+    <t>แย้มแบน</t>
+  </si>
+  <si>
+    <t>นางสาววรณัน</t>
+  </si>
+  <si>
+    <t>ยะเชียงคำ</t>
+  </si>
+  <si>
+    <t>นายวศิน</t>
+  </si>
+  <si>
+    <t>ถนอมกล่อม</t>
+  </si>
+  <si>
+    <t>นางสาววันวิสาข์</t>
+  </si>
+  <si>
+    <t>อินต๊ะนา</t>
+  </si>
+  <si>
+    <t>นางสาววิภา</t>
+  </si>
+  <si>
+    <t>ชดเชย</t>
+  </si>
+  <si>
+    <t>นางสาวศศิมาพร</t>
+  </si>
+  <si>
+    <t>พรมพันธุ์</t>
+  </si>
+  <si>
+    <t>นางสาวศิริวิมล</t>
+  </si>
+  <si>
+    <t>ดอกอิน</t>
+  </si>
+  <si>
+    <t>นางสาวศุภรดา</t>
+  </si>
+  <si>
+    <t>จันต๊ะ</t>
+  </si>
+  <si>
+    <t>นางสาวศุภักษร</t>
+  </si>
+  <si>
+    <t>เจดีย์ยศ</t>
+  </si>
+  <si>
+    <t>นางสาวศุภิสรา</t>
+  </si>
+  <si>
+    <t>วันพนม</t>
+  </si>
+  <si>
+    <t>นางสาวสมใจ</t>
+  </si>
+  <si>
+    <t>แสงท้าว</t>
+  </si>
+  <si>
+    <t>นางสาวสะคราญทิพย์</t>
+  </si>
+  <si>
+    <t>ปันธิ</t>
+  </si>
+  <si>
+    <t>นางสาวสุมินตรา</t>
+  </si>
+  <si>
+    <t>กาติ๊บ</t>
+  </si>
+  <si>
+    <t>นางสาวอธิชา</t>
+  </si>
+  <si>
+    <t>ทองเหลือ</t>
+  </si>
+  <si>
+    <t>นางสาวอัจฉรา</t>
+  </si>
+  <si>
+    <t>โปร่งใจ</t>
+  </si>
+  <si>
+    <t>นายอัษฎางค์</t>
+  </si>
+  <si>
+    <t>จงสถาพรทรัพย์</t>
+  </si>
+  <si>
+    <t>นางสาวอารียา</t>
+  </si>
+  <si>
+    <t>กันตา</t>
+  </si>
+  <si>
+    <t>นายวรพันธ์</t>
+  </si>
+  <si>
+    <t>คำภู</t>
+  </si>
+  <si>
+    <t>นางสาวปฐาพร</t>
+  </si>
+  <si>
+    <t>กวางทอง</t>
+  </si>
+  <si>
+    <t>นางสาวพัชรินธร</t>
+  </si>
+  <si>
+    <t>ลังกาปอน</t>
+  </si>
+  <si>
+    <t>นางสาวจินต์จุฑา</t>
+  </si>
+  <si>
+    <t>ดาราศิลป์</t>
+  </si>
+  <si>
+    <t>นางสาวเนตรนภิศ</t>
+  </si>
+  <si>
+    <t>ฤทธิสร</t>
   </si>
 </sst>
 </file>
@@ -64,7 +364,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <sz val="11"/>
@@ -92,6 +392,15 @@
       <strike val="0"/>
       <color rgb="FF000000"/>
     </font>
+    <font>
+      <name val="Angsana New"/>
+      <sz val="14"/>
+      <b val="0"/>
+      <i val="0"/>
+      <u val="none"/>
+      <strike val="0"/>
+      <color rgb="FF000000"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -113,7 +422,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border/>
     <border>
       <left style="thin">
@@ -175,6 +484,17 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -186,7 +506,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -216,6 +536,18 @@
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -516,10 +848,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -607,6 +939,869 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
     </row>
+    <row r="8" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B8" s="10">
+        <v>1</v>
+      </c>
+      <c r="C8" s="11">
+        <v>551310086</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B9" s="10">
+        <v>2</v>
+      </c>
+      <c r="C9" s="11">
+        <v>551310115</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B10" s="10">
+        <v>3</v>
+      </c>
+      <c r="C10" s="11">
+        <v>560510474</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B11" s="10">
+        <v>4</v>
+      </c>
+      <c r="C11" s="11">
+        <v>560510542</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B12" s="10">
+        <v>5</v>
+      </c>
+      <c r="C12" s="11">
+        <v>561810175</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B13" s="10">
+        <v>6</v>
+      </c>
+      <c r="C13" s="11">
+        <v>570110310</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B14" s="10">
+        <v>7</v>
+      </c>
+      <c r="C14" s="11">
+        <v>570510235</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B15" s="10">
+        <v>8</v>
+      </c>
+      <c r="C15" s="11">
+        <v>570510494</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B16" s="10">
+        <v>9</v>
+      </c>
+      <c r="C16" s="11">
+        <v>570510495</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B17" s="10">
+        <v>10</v>
+      </c>
+      <c r="C17" s="11">
+        <v>570510515</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B18" s="10">
+        <v>11</v>
+      </c>
+      <c r="C18" s="11">
+        <v>570510517</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B19" s="10">
+        <v>12</v>
+      </c>
+      <c r="C19" s="11">
+        <v>570510523</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B20" s="10">
+        <v>13</v>
+      </c>
+      <c r="C20" s="11">
+        <v>570510524</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B21" s="10">
+        <v>14</v>
+      </c>
+      <c r="C21" s="11">
+        <v>570510534</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B22" s="10">
+        <v>15</v>
+      </c>
+      <c r="C22" s="11">
+        <v>570510535</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B23" s="10">
+        <v>16</v>
+      </c>
+      <c r="C23" s="11">
+        <v>570510536</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B24" s="10">
+        <v>17</v>
+      </c>
+      <c r="C24" s="11">
+        <v>570510537</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B25" s="10">
+        <v>18</v>
+      </c>
+      <c r="C25" s="11">
+        <v>570510539</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B26" s="10">
+        <v>19</v>
+      </c>
+      <c r="C26" s="11">
+        <v>570510540</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B27" s="10">
+        <v>20</v>
+      </c>
+      <c r="C27" s="11">
+        <v>570510543</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B28" s="10">
+        <v>21</v>
+      </c>
+      <c r="C28" s="11">
+        <v>570510544</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B29" s="10">
+        <v>22</v>
+      </c>
+      <c r="C29" s="11">
+        <v>570510545</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B30" s="10">
+        <v>23</v>
+      </c>
+      <c r="C30" s="11">
+        <v>570510553</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B31" s="10">
+        <v>24</v>
+      </c>
+      <c r="C31" s="11">
+        <v>570510554</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B32" s="10">
+        <v>25</v>
+      </c>
+      <c r="C32" s="11">
+        <v>570510557</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B33" s="10">
+        <v>26</v>
+      </c>
+      <c r="C33" s="11">
+        <v>570510561</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B34" s="10">
+        <v>27</v>
+      </c>
+      <c r="C34" s="11">
+        <v>570510564</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B35" s="10">
+        <v>28</v>
+      </c>
+      <c r="C35" s="11">
+        <v>570510576</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B36" s="10">
+        <v>29</v>
+      </c>
+      <c r="C36" s="11">
+        <v>570510578</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="B37" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+    </row>
+    <row r="38" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B38" s="10">
+        <v>30</v>
+      </c>
+      <c r="C38" s="11">
+        <v>570510581</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B39" s="10">
+        <v>31</v>
+      </c>
+      <c r="C39" s="11">
+        <v>570510584</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B40" s="10">
+        <v>32</v>
+      </c>
+      <c r="C40" s="11">
+        <v>570510586</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B41" s="10">
+        <v>33</v>
+      </c>
+      <c r="C41" s="11">
+        <v>570510587</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B42" s="10">
+        <v>34</v>
+      </c>
+      <c r="C42" s="11">
+        <v>570510589</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B43" s="10">
+        <v>35</v>
+      </c>
+      <c r="C43" s="11">
+        <v>570510593</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B44" s="10">
+        <v>36</v>
+      </c>
+      <c r="C44" s="11">
+        <v>570510595</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B45" s="10">
+        <v>37</v>
+      </c>
+      <c r="C45" s="11">
+        <v>570510596</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B46" s="10">
+        <v>38</v>
+      </c>
+      <c r="C46" s="11">
+        <v>570510597</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B47" s="10">
+        <v>39</v>
+      </c>
+      <c r="C47" s="11">
+        <v>570510598</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B48" s="10">
+        <v>40</v>
+      </c>
+      <c r="C48" s="11">
+        <v>570510599</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B49" s="10">
+        <v>41</v>
+      </c>
+      <c r="C49" s="11">
+        <v>570510606</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B50" s="10">
+        <v>42</v>
+      </c>
+      <c r="C50" s="11">
+        <v>570510610</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B51" s="10">
+        <v>43</v>
+      </c>
+      <c r="C51" s="11">
+        <v>570510612</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B52" s="10">
+        <v>44</v>
+      </c>
+      <c r="C52" s="11">
+        <v>570510613</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B53" s="10">
+        <v>45</v>
+      </c>
+      <c r="C53" s="11">
+        <v>570510614</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B54" s="10">
+        <v>46</v>
+      </c>
+      <c r="C54" s="11">
+        <v>570510680</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B55" s="10">
+        <v>47</v>
+      </c>
+      <c r="C55" s="11">
+        <v>571610172</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B56" s="10">
+        <v>48</v>
+      </c>
+      <c r="C56" s="11">
+        <v>571610216</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B57" s="10">
+        <v>49</v>
+      </c>
+      <c r="C57" s="11">
+        <v>571611036</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B58" s="10">
+        <v>50</v>
+      </c>
+      <c r="C58" s="11">
+        <v>571611099</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
@@ -620,6 +1815,7 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D37:E37"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.75" right="0.62" top="1" bottom="1.1" header="0.71" footer="0.5"/>

--- a/temp/file.xlsx
+++ b/temp/file.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="204202-001000" sheetId="1" r:id="rId4"/>
+    <sheet name="204100-001000" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
@@ -15,21 +15,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="114">
-  <si>
-    <t>รายชื่อนักศึกษาที่ลงทะเบียนเรียน ภาคเรียนที่ 1 ปีการศึกษา 2558</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="278">
+  <si>
+    <t>รายชื่อนักศึกษาที่ลงทะเบียนเรียน ภาคเรียนที่ 1 ปีการศึกษา 2557</t>
   </si>
   <si>
     <t xml:space="preserve">  COURSE NO :</t>
   </si>
   <si>
-    <t xml:space="preserve">                 204202</t>
+    <t xml:space="preserve">                 204100</t>
   </si>
   <si>
     <t xml:space="preserve">  TITLE :</t>
   </si>
   <si>
-    <t xml:space="preserve">                 IT II</t>
+    <t xml:space="preserve">                 IT AND MODERN LIFE</t>
   </si>
   <si>
     <t xml:space="preserve">  SECTION (lec/lab) :</t>
@@ -41,7 +41,7 @@
     <t xml:space="preserve">  LECTURER :</t>
   </si>
   <si>
-    <t xml:space="preserve">                 ฐาปนพงษ์   รักกาญจนันท์</t>
+    <t xml:space="preserve">                 วาสนา   นัยโพธิ์</t>
   </si>
   <si>
     <t xml:space="preserve">  DATE :</t>
@@ -59,304 +59,796 @@
     <t>ชื่อ - นามสกุล</t>
   </si>
   <si>
-    <t>นายธนพล</t>
-  </si>
-  <si>
-    <t>ทองหิน</t>
+    <t>นางสาวกิตติยา</t>
+  </si>
+  <si>
+    <t>พูลอุดม</t>
   </si>
   <si>
     <t xml:space="preserve">                                                                 </t>
   </si>
   <si>
-    <t>นางสาวโสรญา</t>
-  </si>
-  <si>
-    <t>วิเศษชุมพล</t>
-  </si>
-  <si>
-    <t>นายเพชรดรุณ</t>
-  </si>
-  <si>
-    <t>เขื่อนคำ</t>
-  </si>
-  <si>
-    <t>นายภัสวร</t>
-  </si>
-  <si>
-    <t>แสงทองล้วน</t>
-  </si>
-  <si>
-    <t>นายสุรสิทธิ์</t>
-  </si>
-  <si>
-    <t>เหลาภา</t>
-  </si>
-  <si>
-    <t>นายณัฐวุฒิ</t>
-  </si>
-  <si>
-    <t>เนตรศิลป์</t>
-  </si>
-  <si>
-    <t>นายนครินทร์</t>
-  </si>
-  <si>
-    <t>พูลศิลป์</t>
-  </si>
-  <si>
-    <t>นางสาวธมลวรรณ</t>
-  </si>
-  <si>
-    <t>ศรีบุญเรือง</t>
-  </si>
-  <si>
-    <t>อุดมสินทรัพย์</t>
-  </si>
-  <si>
-    <t>นางสาวกัญญารัตน์</t>
-  </si>
-  <si>
-    <t>หลวงแดง</t>
-  </si>
-  <si>
-    <t>นายกิตติคุณ</t>
-  </si>
-  <si>
-    <t>กิตติเดชะนันทน์</t>
-  </si>
-  <si>
-    <t>นางสาวจริยา</t>
-  </si>
-  <si>
-    <t>พรมจันทร์</t>
-  </si>
-  <si>
-    <t>นางสาวจันทร์สุดา</t>
-  </si>
-  <si>
-    <t>นวนคำ</t>
-  </si>
-  <si>
-    <t>นางสาวชนนิกานต์</t>
-  </si>
-  <si>
-    <t>วงษ์กระแสร์</t>
-  </si>
-  <si>
-    <t>นางสาวชลิตา</t>
-  </si>
-  <si>
-    <t>วงศ์ถาวร</t>
-  </si>
-  <si>
-    <t>นางสาวชลินดา</t>
-  </si>
-  <si>
-    <t>พยัคฆ์เกียรติ</t>
-  </si>
-  <si>
-    <t>นายชานนท์</t>
-  </si>
-  <si>
-    <t>กล่อมเกลี้ยง</t>
-  </si>
-  <si>
-    <t>นางสาวชุติภา</t>
-  </si>
-  <si>
-    <t>มีบุญ</t>
-  </si>
-  <si>
-    <t>นายฐานันพ์</t>
-  </si>
-  <si>
-    <t>วิศิลป์</t>
-  </si>
-  <si>
-    <t>นางสาวณัฐนิช</t>
-  </si>
-  <si>
-    <t>อ่ำแก้ว</t>
-  </si>
-  <si>
-    <t>นายณัฐพงศ์</t>
-  </si>
-  <si>
-    <t>รักษ์โสภา</t>
-  </si>
-  <si>
-    <t>นางสาวณัฐริกานต์</t>
-  </si>
-  <si>
-    <t>วังพลากร</t>
-  </si>
-  <si>
-    <t>นายธีรพล</t>
-  </si>
-  <si>
-    <t>สิงห์ตัน</t>
-  </si>
-  <si>
-    <t>นายนนท์ปวิธ</t>
-  </si>
-  <si>
-    <t>หนูไทร</t>
-  </si>
-  <si>
-    <t>นางสาวนันทวัน</t>
-  </si>
-  <si>
-    <t>เสลา</t>
-  </si>
-  <si>
-    <t>นางสาวปติญญา</t>
-  </si>
-  <si>
-    <t>แก้วน้ำ</t>
-  </si>
-  <si>
-    <t>นางสาวปาริชาต</t>
-  </si>
-  <si>
-    <t>สุวรรณกุล</t>
-  </si>
-  <si>
-    <t>นายมงคล</t>
-  </si>
-  <si>
-    <t>ปั้นทอง</t>
-  </si>
-  <si>
-    <t>นางสาวยุวรัญญา</t>
-  </si>
-  <si>
-    <t>แย้มแบน</t>
-  </si>
-  <si>
-    <t>นางสาววรณัน</t>
-  </si>
-  <si>
-    <t>ยะเชียงคำ</t>
-  </si>
-  <si>
-    <t>นายวศิน</t>
-  </si>
-  <si>
-    <t>ถนอมกล่อม</t>
-  </si>
-  <si>
-    <t>นางสาววันวิสาข์</t>
-  </si>
-  <si>
-    <t>อินต๊ะนา</t>
-  </si>
-  <si>
-    <t>นางสาววิภา</t>
-  </si>
-  <si>
-    <t>ชดเชย</t>
-  </si>
-  <si>
-    <t>นางสาวศศิมาพร</t>
-  </si>
-  <si>
-    <t>พรมพันธุ์</t>
-  </si>
-  <si>
-    <t>นางสาวศิริวิมล</t>
-  </si>
-  <si>
-    <t>ดอกอิน</t>
-  </si>
-  <si>
-    <t>นางสาวศุภรดา</t>
-  </si>
-  <si>
-    <t>จันต๊ะ</t>
-  </si>
-  <si>
-    <t>นางสาวศุภักษร</t>
-  </si>
-  <si>
-    <t>เจดีย์ยศ</t>
+    <t>นางสาวชลลัดดา</t>
+  </si>
+  <si>
+    <t>วิริยะชินการ</t>
+  </si>
+  <si>
+    <t>นายนพดนัย</t>
+  </si>
+  <si>
+    <t>สมโน</t>
+  </si>
+  <si>
+    <t>นายอคิราภ์</t>
+  </si>
+  <si>
+    <t>ถมยา</t>
+  </si>
+  <si>
+    <t>นางสาวขวัญฤดี</t>
+  </si>
+  <si>
+    <t>มูลวิจิตร์</t>
+  </si>
+  <si>
+    <t>นางสาวฐิติกา</t>
+  </si>
+  <si>
+    <t>ชัยคำรงค์กุล</t>
+  </si>
+  <si>
+    <t>นางสาวปรินดา</t>
+  </si>
+  <si>
+    <t>บุญชุ่ม</t>
+  </si>
+  <si>
+    <t>นางสาวแสงตะวัน</t>
+  </si>
+  <si>
+    <t>วิริยะประสิทธิ์</t>
+  </si>
+  <si>
+    <t>นางสาวพิชญาภา</t>
+  </si>
+  <si>
+    <t>เทพหัสดิน ณ อยุธยา</t>
+  </si>
+  <si>
+    <t>นางสาวพิม</t>
+  </si>
+  <si>
+    <t>สืบแสง</t>
+  </si>
+  <si>
+    <t>นางสาวเพ็ญพิชชา</t>
+  </si>
+  <si>
+    <t>ชุมภูแก้ว</t>
+  </si>
+  <si>
+    <t>นางสาวญาณนันท์</t>
+  </si>
+  <si>
+    <t>ธนีสัตย์</t>
+  </si>
+  <si>
+    <t>นายปรีชาพงษ์</t>
+  </si>
+  <si>
+    <t>นิลแสงสัก</t>
+  </si>
+  <si>
+    <t>นางสาวกฤษณา</t>
+  </si>
+  <si>
+    <t>อุดทารุณ</t>
+  </si>
+  <si>
+    <t>นายจิรัฎฐ์</t>
+  </si>
+  <si>
+    <t>อ่อนแก้ว</t>
+  </si>
+  <si>
+    <t>นางสาวเจตนิพิฐ</t>
+  </si>
+  <si>
+    <t>ดาสินธุ</t>
+  </si>
+  <si>
+    <t>นางสาวบงกชกร</t>
+  </si>
+  <si>
+    <t>ชอบธรรม</t>
+  </si>
+  <si>
+    <t>นางสาวปิยะภรณ์</t>
+  </si>
+  <si>
+    <t>สิงห์ใส</t>
+  </si>
+  <si>
+    <t>นางสาวพิชญ์จิรา</t>
+  </si>
+  <si>
+    <t>ยาอินทร์</t>
+  </si>
+  <si>
+    <t>นางสาวเพ็ญสุภาภรณ์</t>
+  </si>
+  <si>
+    <t>ไตรยศ</t>
+  </si>
+  <si>
+    <t>นางสาวรื่นฤดี</t>
+  </si>
+  <si>
+    <t>คำดี</t>
+  </si>
+  <si>
+    <t>นางสาววรวลัญช์</t>
+  </si>
+  <si>
+    <t>ธิป่าหนาด</t>
+  </si>
+  <si>
+    <t>นางสาววรัญพัชร์</t>
+  </si>
+  <si>
+    <t>จิราสภาพันธ์</t>
+  </si>
+  <si>
+    <t>นางสาวศิรินันท์</t>
+  </si>
+  <si>
+    <t>คำภักดี</t>
+  </si>
+  <si>
+    <t>นางสาวสุดารัตน์</t>
+  </si>
+  <si>
+    <t>ปีหลวง</t>
+  </si>
+  <si>
+    <t>นางสาวอรวี</t>
+  </si>
+  <si>
+    <t>เลาะหะนะ</t>
+  </si>
+  <si>
+    <t>นางสาวฐิตาพร</t>
+  </si>
+  <si>
+    <t>เทียมเจริญ</t>
+  </si>
+  <si>
+    <t>นางสาวฐิติพร</t>
+  </si>
+  <si>
+    <t>ใหม่ชุ่ม</t>
+  </si>
+  <si>
+    <t>นางสาวพฤกษ์สร</t>
+  </si>
+  <si>
+    <t>เสริมกิจ</t>
+  </si>
+  <si>
+    <t>นางสาวพิมพิสุทธิ์</t>
+  </si>
+  <si>
+    <t>อินแปง</t>
+  </si>
+  <si>
+    <t>นางสาววัชราภรณ์</t>
+  </si>
+  <si>
+    <t>ไชยนาม</t>
+  </si>
+  <si>
+    <t>นายกฤษณพงศ์</t>
+  </si>
+  <si>
+    <t>ศรีวงศ์ราช</t>
+  </si>
+  <si>
+    <t>นางสาวเกศราภรณ์</t>
+  </si>
+  <si>
+    <t>ตันสร้าง</t>
+  </si>
+  <si>
+    <t>นางสาวฐิติชญา</t>
+  </si>
+  <si>
+    <t>ฟองอาภา</t>
+  </si>
+  <si>
+    <t>นางสาวธัญญ์นภัส</t>
+  </si>
+  <si>
+    <t>รัฐอริยธำรงค์</t>
+  </si>
+  <si>
+    <t>นางสาวพรจรัส</t>
+  </si>
+  <si>
+    <t>ดีทอง</t>
+  </si>
+  <si>
+    <t>นางสาวพิชชาพร</t>
+  </si>
+  <si>
+    <t>ทิพเนตร</t>
+  </si>
+  <si>
+    <t>นายสรสิช</t>
+  </si>
+  <si>
+    <t>เรืองรุ่ง</t>
+  </si>
+  <si>
+    <t>นายสรายุทธ</t>
+  </si>
+  <si>
+    <t>จรัสพันธุ์กุล</t>
+  </si>
+  <si>
+    <t>นางสาวสิริมา</t>
+  </si>
+  <si>
+    <t>เล้าอติมาน</t>
+  </si>
+  <si>
+    <t>นางสาวสุพรรณษา</t>
+  </si>
+  <si>
+    <t>ยะใจมั่น</t>
+  </si>
+  <si>
+    <t>นางสาวอธิติยา</t>
+  </si>
+  <si>
+    <t>วณะเจริญ</t>
+  </si>
+  <si>
+    <t>นายอรรถวิทย์</t>
+  </si>
+  <si>
+    <t>ศรีสุวรรณ</t>
+  </si>
+  <si>
+    <t>นายอัชเชวะ</t>
+  </si>
+  <si>
+    <t>ชุ่มวงศ์</t>
+  </si>
+  <si>
+    <t>นางสาวอาภาภรณ์</t>
+  </si>
+  <si>
+    <t>พรหมพิงค์</t>
+  </si>
+  <si>
+    <t>นางสาวณัฐพร</t>
+  </si>
+  <si>
+    <t>แก้วพิมล</t>
+  </si>
+  <si>
+    <t>นางสาวอารีย์</t>
+  </si>
+  <si>
+    <t>แสนคำ</t>
+  </si>
+  <si>
+    <t>นายปวริศร์</t>
+  </si>
+  <si>
+    <t>ปิงเมือง</t>
+  </si>
+  <si>
+    <t>นายก้องนเรนทร์</t>
+  </si>
+  <si>
+    <t>ใจคำปัน</t>
+  </si>
+  <si>
+    <t>นางสาวดบัสวินี</t>
+  </si>
+  <si>
+    <t>พุฒโต</t>
+  </si>
+  <si>
+    <t>นางสาวรุ่งนภา</t>
+  </si>
+  <si>
+    <t>ขัติยะราช</t>
+  </si>
+  <si>
+    <t>นายวริทธิ์ธร</t>
+  </si>
+  <si>
+    <t>มอญเพ็ชร</t>
+  </si>
+  <si>
+    <t>พัทมี</t>
+  </si>
+  <si>
+    <t>นางสาวสุภาณี</t>
+  </si>
+  <si>
+    <t>คำนวล</t>
+  </si>
+  <si>
+    <t>นายอนุชิต</t>
+  </si>
+  <si>
+    <t>ลือโฮ้ง</t>
+  </si>
+  <si>
+    <t>นางสาวกฤติยา</t>
+  </si>
+  <si>
+    <t>วงไพวรรณ</t>
+  </si>
+  <si>
+    <t>นายกวีฉัตร</t>
+  </si>
+  <si>
+    <t>วังสาร</t>
+  </si>
+  <si>
+    <t>นางสาวกาญจนา</t>
+  </si>
+  <si>
+    <t>ถานันใจ</t>
+  </si>
+  <si>
+    <t>นายฆนากร</t>
+  </si>
+  <si>
+    <t>จักรใจวงค์</t>
+  </si>
+  <si>
+    <t>นายธนภัทร</t>
+  </si>
+  <si>
+    <t>แสงเขื่อนแก้ว</t>
+  </si>
+  <si>
+    <t>นางสาวบุณยานุช</t>
+  </si>
+  <si>
+    <t>พงษ์มนตรี</t>
+  </si>
+  <si>
+    <t>นางสาวบุษกล</t>
+  </si>
+  <si>
+    <t>กันต์กวี</t>
+  </si>
+  <si>
+    <t>นางสาวสุภาพร</t>
+  </si>
+  <si>
+    <t>ยิ้มสวัสดิ์</t>
+  </si>
+  <si>
+    <t>นางสาวสุภาวดี</t>
+  </si>
+  <si>
+    <t>ศรีใจปัน</t>
+  </si>
+  <si>
+    <t>นางสาวสุวนันท์</t>
+  </si>
+  <si>
+    <t>ลาวเปียง</t>
+  </si>
+  <si>
+    <t>นางสาวสุวรรณี</t>
+  </si>
+  <si>
+    <t>รัตนะ</t>
+  </si>
+  <si>
+    <t>นางสาวสุวิมล</t>
+  </si>
+  <si>
+    <t>อินกูล</t>
+  </si>
+  <si>
+    <t>นายอดิศักดิ์</t>
+  </si>
+  <si>
+    <t>บุญเรือน</t>
+  </si>
+  <si>
+    <t>นายอนันตชัย</t>
+  </si>
+  <si>
+    <t>มูลเจริญขจร</t>
+  </si>
+  <si>
+    <t>นายกรณ์ธนัตถ์</t>
+  </si>
+  <si>
+    <t>สมรรถสินวณิช</t>
+  </si>
+  <si>
+    <t>นางสาวญาสุมินทร์</t>
+  </si>
+  <si>
+    <t>อินทนาคม</t>
+  </si>
+  <si>
+    <t>นางสาวณัฐชา</t>
+  </si>
+  <si>
+    <t>จาตุรพจน์</t>
+  </si>
+  <si>
+    <t>นายพชร</t>
+  </si>
+  <si>
+    <t>พรนิมิตร</t>
+  </si>
+  <si>
+    <t>นางสาวพัณณ์ชิตา</t>
+  </si>
+  <si>
+    <t>คำใส</t>
+  </si>
+  <si>
+    <t>นางสาวพิชญ์สินี</t>
+  </si>
+  <si>
+    <t>สินอยู่</t>
+  </si>
+  <si>
+    <t>นางสาวสโรชาพัชร์</t>
+  </si>
+  <si>
+    <t>บุณยะโสรัจจ์</t>
+  </si>
+  <si>
+    <t>นางสาวสิรดา</t>
+  </si>
+  <si>
+    <t>เดชวงค์ญา</t>
+  </si>
+  <si>
+    <t>นางสาวหทัยชนก</t>
+  </si>
+  <si>
+    <t>ใจกล้า</t>
+  </si>
+  <si>
+    <t>นางสาวอริสรา</t>
+  </si>
+  <si>
+    <t>ชูเชิญ</t>
+  </si>
+  <si>
+    <t>นางสาวกรรณิการ์</t>
+  </si>
+  <si>
+    <t>คำวงษา</t>
+  </si>
+  <si>
+    <t>นางสาวกฤติยากรณ์</t>
+  </si>
+  <si>
+    <t>มะโนเกตุ</t>
+  </si>
+  <si>
+    <t>นางสาวกาญจนาพร</t>
+  </si>
+  <si>
+    <t>แสงสุข</t>
+  </si>
+  <si>
+    <t>นางสาวกุลฉัตร</t>
+  </si>
+  <si>
+    <t>เลิศวิลัย</t>
+  </si>
+  <si>
+    <t>นางสาวกุลธิดา</t>
+  </si>
+  <si>
+    <t>ราชา</t>
+  </si>
+  <si>
+    <t>นางสาวเกศริน</t>
+  </si>
+  <si>
+    <t>นินชัย</t>
+  </si>
+  <si>
+    <t>นางสาวแกมกมล</t>
+  </si>
+  <si>
+    <t>ไชยกันทา</t>
+  </si>
+  <si>
+    <t>นางสาวนลินนิภา</t>
+  </si>
+  <si>
+    <t>แก้วสุตัน</t>
+  </si>
+  <si>
+    <t>นางสาวนันท์นภัส</t>
+  </si>
+  <si>
+    <t>ตันพฤทธิอนันต์</t>
+  </si>
+  <si>
+    <t>นายเนติพงศ์</t>
+  </si>
+  <si>
+    <t>โปร่งใจ</t>
+  </si>
+  <si>
+    <t>นางสาวปฏิมาภรณ์</t>
+  </si>
+  <si>
+    <t>สุคำ</t>
+  </si>
+  <si>
+    <t>นางสาวปภัสสร</t>
+  </si>
+  <si>
+    <t>ลิมป์ภัสสร</t>
+  </si>
+  <si>
+    <t>นางสาวปวีณสุดา</t>
+  </si>
+  <si>
+    <t>ศักดี</t>
+  </si>
+  <si>
+    <t>นางสาวปัทมาสน์</t>
+  </si>
+  <si>
+    <t>แก้วกัน</t>
+  </si>
+  <si>
+    <t>นายปิยะวิชญ์</t>
+  </si>
+  <si>
+    <t>ทรงประกอบ</t>
+  </si>
+  <si>
+    <t>นางสาวผาณิต</t>
+  </si>
+  <si>
+    <t>อินต๊ะเส็น</t>
+  </si>
+  <si>
+    <t>นางสาวพษพร</t>
+  </si>
+  <si>
+    <t>พิงพราวลี</t>
+  </si>
+  <si>
+    <t>นางสาววลีรัตน์</t>
+  </si>
+  <si>
+    <t>ธรรมสุพิลม</t>
+  </si>
+  <si>
+    <t>นายเศรษฐพงษ์</t>
+  </si>
+  <si>
+    <t>อภิมงคลเลิศ</t>
+  </si>
+  <si>
+    <t>นางสาวธัญพิชชา</t>
+  </si>
+  <si>
+    <t>โชติพฤกษ์</t>
+  </si>
+  <si>
+    <t>นางสาวปภัสรินทร์</t>
+  </si>
+  <si>
+    <t>จิรธีระพันธ์</t>
+  </si>
+  <si>
+    <t>นางสาวปริยลักษณ์</t>
+  </si>
+  <si>
+    <t>จันทราภา</t>
+  </si>
+  <si>
+    <t>นางสาวปวิตรา</t>
+  </si>
+  <si>
+    <t>ลิมป์เติมทรัพย์</t>
+  </si>
+  <si>
+    <t>นางสาวปาณฑรา</t>
+  </si>
+  <si>
+    <t>กันสาย</t>
+  </si>
+  <si>
+    <t>นางสาวพรนิภา</t>
+  </si>
+  <si>
+    <t>ขุนนาพุ่ม</t>
+  </si>
+  <si>
+    <t>นางสาวมณฑกาญจน์</t>
+  </si>
+  <si>
+    <t>ปัญญาฟู</t>
+  </si>
+  <si>
+    <t>นายไม้น้ำ</t>
+  </si>
+  <si>
+    <t>สุวรรณจุณีย์</t>
+  </si>
+  <si>
+    <t>นางสาวรจิตา</t>
+  </si>
+  <si>
+    <t>ป๊อกคำอู๋</t>
+  </si>
+  <si>
+    <t>นางสาวรัชดาพร</t>
+  </si>
+  <si>
+    <t>เพ็ญสว่าง</t>
+  </si>
+  <si>
+    <t>นางสาววชิรญาณ์</t>
+  </si>
+  <si>
+    <t>บำเพ็ญอยู่</t>
+  </si>
+  <si>
+    <t>นายวรเมธ</t>
+  </si>
+  <si>
+    <t>สกุลงาม</t>
+  </si>
+  <si>
+    <t>นางสาววารุณี</t>
+  </si>
+  <si>
+    <t>สมนวล</t>
+  </si>
+  <si>
+    <t>นางสาวศศิวิมล</t>
+  </si>
+  <si>
+    <t>พรมพฤกษ์</t>
+  </si>
+  <si>
+    <t>นายศิรวุฒิ</t>
+  </si>
+  <si>
+    <t>จิตต์ใจ</t>
+  </si>
+  <si>
+    <t>นายศุภชัย</t>
+  </si>
+  <si>
+    <t>เปรมศรี</t>
   </si>
   <si>
     <t>นางสาวศุภิสรา</t>
   </si>
   <si>
-    <t>วันพนม</t>
-  </si>
-  <si>
-    <t>นางสาวสมใจ</t>
-  </si>
-  <si>
-    <t>แสงท้าว</t>
-  </si>
-  <si>
-    <t>นางสาวสะคราญทิพย์</t>
-  </si>
-  <si>
-    <t>ปันธิ</t>
-  </si>
-  <si>
-    <t>นางสาวสุมินตรา</t>
-  </si>
-  <si>
-    <t>กาติ๊บ</t>
-  </si>
-  <si>
-    <t>นางสาวอธิชา</t>
-  </si>
-  <si>
-    <t>ทองเหลือ</t>
-  </si>
-  <si>
-    <t>นางสาวอัจฉรา</t>
-  </si>
-  <si>
-    <t>โปร่งใจ</t>
-  </si>
-  <si>
-    <t>นายอัษฎางค์</t>
-  </si>
-  <si>
-    <t>จงสถาพรทรัพย์</t>
-  </si>
-  <si>
-    <t>นางสาวอารียา</t>
-  </si>
-  <si>
-    <t>กันตา</t>
-  </si>
-  <si>
-    <t>นายวรพันธ์</t>
-  </si>
-  <si>
-    <t>คำภู</t>
-  </si>
-  <si>
-    <t>นางสาวปฐาพร</t>
-  </si>
-  <si>
-    <t>กวางทอง</t>
-  </si>
-  <si>
-    <t>นางสาวพัชรินธร</t>
-  </si>
-  <si>
-    <t>ลังกาปอน</t>
-  </si>
-  <si>
-    <t>นางสาวจินต์จุฑา</t>
-  </si>
-  <si>
-    <t>ดาราศิลป์</t>
-  </si>
-  <si>
-    <t>นางสาวเนตรนภิศ</t>
-  </si>
-  <si>
-    <t>ฤทธิสร</t>
+    <t>นิลขำ</t>
+  </si>
+  <si>
+    <t>นางสาวสกุลรัตน์</t>
+  </si>
+  <si>
+    <t>หัดเคลือบ</t>
+  </si>
+  <si>
+    <t>นายสรศักดิ์</t>
+  </si>
+  <si>
+    <t>อินต๊ะแก้ว</t>
+  </si>
+  <si>
+    <t>นางสาวสิริกุล</t>
+  </si>
+  <si>
+    <t>พรหมกันธา</t>
+  </si>
+  <si>
+    <t>นางสาวสุทฐิญาภรณ์</t>
+  </si>
+  <si>
+    <t>กิตติกรวัฒนา</t>
+  </si>
+  <si>
+    <t>นางสาวสุธาทิพย์</t>
+  </si>
+  <si>
+    <t>ศรีธรรมมา</t>
+  </si>
+  <si>
+    <t>นายสุธิพันธ์</t>
+  </si>
+  <si>
+    <t>แก้วจันทร์เพชร</t>
+  </si>
+  <si>
+    <t>นายอนุรักษ์</t>
+  </si>
+  <si>
+    <t>รังษี</t>
+  </si>
+  <si>
+    <t>นางสาวอภิชญา</t>
+  </si>
+  <si>
+    <t>ปันจันทร์</t>
+  </si>
+  <si>
+    <t>นายอภิรักษ์</t>
+  </si>
+  <si>
+    <t>วงศ์พันธุ์</t>
+  </si>
+  <si>
+    <t>นายอภิสิทธิ์</t>
+  </si>
+  <si>
+    <t>พวงมาลัย</t>
+  </si>
+  <si>
+    <t>นางสาวอรพรรณ</t>
+  </si>
+  <si>
+    <t>พงษ์กิจการุณ</t>
+  </si>
+  <si>
+    <t>นางสาวอลิศา</t>
+  </si>
+  <si>
+    <t>ศรีระวัตร</t>
+  </si>
+  <si>
+    <t>นางสาวอัจฉรี</t>
+  </si>
+  <si>
+    <t>บัวเขียว</t>
+  </si>
+  <si>
+    <t>นายอานุภาพ</t>
+  </si>
+  <si>
+    <t>พลวัน</t>
+  </si>
+  <si>
+    <t>นายอุกฤษณ์</t>
+  </si>
+  <si>
+    <t>วัชรวิเชษฐ์</t>
+  </si>
+  <si>
+    <t>นายณัฐภัทร</t>
+  </si>
+  <si>
+    <t>นะที</t>
+  </si>
+  <si>
+    <t>นายเพิ่มธนา</t>
+  </si>
+  <si>
+    <t>สดใส</t>
   </si>
 </sst>
 </file>
@@ -848,10 +1340,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F58" sqref="F58"/>
+      <selection activeCell="F142" sqref="F142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -944,7 +1436,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="11">
-        <v>551310086</v>
+        <v>540110214</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>14</v>
@@ -961,7 +1453,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="11">
-        <v>551310115</v>
+        <v>540110217</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>17</v>
@@ -978,7 +1470,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="11">
-        <v>560510474</v>
+        <v>540110222</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>19</v>
@@ -995,7 +1487,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="11">
-        <v>560510542</v>
+        <v>540110224</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>21</v>
@@ -1012,7 +1504,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="11">
-        <v>561810175</v>
+        <v>550310177</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>23</v>
@@ -1029,7 +1521,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="11">
-        <v>570110310</v>
+        <v>550310183</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>25</v>
@@ -1046,7 +1538,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="11">
-        <v>570510235</v>
+        <v>550310192</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>27</v>
@@ -1063,7 +1555,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="11">
-        <v>570510494</v>
+        <v>550310223</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>29</v>
@@ -1080,13 +1572,13 @@
         <v>9</v>
       </c>
       <c r="C16" s="11">
-        <v>570510495</v>
+        <v>551611058</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>16</v>
@@ -1097,13 +1589,13 @@
         <v>10</v>
       </c>
       <c r="C17" s="11">
-        <v>570510515</v>
+        <v>551611060</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>16</v>
@@ -1114,13 +1606,13 @@
         <v>11</v>
       </c>
       <c r="C18" s="11">
-        <v>570510517</v>
+        <v>551611063</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>16</v>
@@ -1131,13 +1623,13 @@
         <v>12</v>
       </c>
       <c r="C19" s="11">
-        <v>570510523</v>
+        <v>560110112</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>16</v>
@@ -1148,13 +1640,13 @@
         <v>13</v>
       </c>
       <c r="C20" s="11">
-        <v>570510524</v>
+        <v>560110119</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>16</v>
@@ -1165,13 +1657,13 @@
         <v>14</v>
       </c>
       <c r="C21" s="11">
-        <v>570510534</v>
+        <v>560410001</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>16</v>
@@ -1182,13 +1674,13 @@
         <v>15</v>
       </c>
       <c r="C22" s="11">
-        <v>570510535</v>
+        <v>560410012</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>16</v>
@@ -1199,13 +1691,13 @@
         <v>16</v>
       </c>
       <c r="C23" s="11">
-        <v>570510536</v>
+        <v>560410014</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F23" s="11" t="s">
         <v>16</v>
@@ -1216,13 +1708,13 @@
         <v>17</v>
       </c>
       <c r="C24" s="11">
-        <v>570510537</v>
+        <v>560410030</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F24" s="11" t="s">
         <v>16</v>
@@ -1233,13 +1725,13 @@
         <v>18</v>
       </c>
       <c r="C25" s="11">
-        <v>570510539</v>
+        <v>560410034</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F25" s="11" t="s">
         <v>16</v>
@@ -1250,13 +1742,13 @@
         <v>19</v>
       </c>
       <c r="C26" s="11">
-        <v>570510540</v>
+        <v>560410039</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>16</v>
@@ -1267,13 +1759,13 @@
         <v>20</v>
       </c>
       <c r="C27" s="11">
-        <v>570510543</v>
+        <v>560410044</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F27" s="11" t="s">
         <v>16</v>
@@ -1284,13 +1776,13 @@
         <v>21</v>
       </c>
       <c r="C28" s="11">
-        <v>570510544</v>
+        <v>560410049</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F28" s="11" t="s">
         <v>16</v>
@@ -1301,13 +1793,13 @@
         <v>22</v>
       </c>
       <c r="C29" s="11">
-        <v>570510545</v>
+        <v>560410052</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F29" s="11" t="s">
         <v>16</v>
@@ -1318,13 +1810,13 @@
         <v>23</v>
       </c>
       <c r="C30" s="11">
-        <v>570510553</v>
+        <v>560410053</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F30" s="11" t="s">
         <v>16</v>
@@ -1335,13 +1827,13 @@
         <v>24</v>
       </c>
       <c r="C31" s="11">
-        <v>570510554</v>
+        <v>560410057</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F31" s="11" t="s">
         <v>16</v>
@@ -1352,13 +1844,13 @@
         <v>25</v>
       </c>
       <c r="C32" s="11">
-        <v>570510557</v>
+        <v>560410061</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F32" s="11" t="s">
         <v>16</v>
@@ -1369,13 +1861,13 @@
         <v>26</v>
       </c>
       <c r="C33" s="11">
-        <v>570510561</v>
+        <v>560410064</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F33" s="11" t="s">
         <v>16</v>
@@ -1386,13 +1878,13 @@
         <v>27</v>
       </c>
       <c r="C34" s="11">
-        <v>570510564</v>
+        <v>560410090</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F34" s="11" t="s">
         <v>16</v>
@@ -1403,13 +1895,13 @@
         <v>28</v>
       </c>
       <c r="C35" s="11">
-        <v>570510576</v>
+        <v>560410091</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F35" s="11" t="s">
         <v>16</v>
@@ -1420,13 +1912,13 @@
         <v>29</v>
       </c>
       <c r="C36" s="11">
-        <v>570510578</v>
+        <v>560410112</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F36" s="11" t="s">
         <v>16</v>
@@ -1450,13 +1942,13 @@
         <v>30</v>
       </c>
       <c r="C38" s="11">
-        <v>570510581</v>
+        <v>560410118</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F38" s="11" t="s">
         <v>16</v>
@@ -1467,13 +1959,13 @@
         <v>31</v>
       </c>
       <c r="C39" s="11">
-        <v>570510584</v>
+        <v>560410132</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F39" s="11" t="s">
         <v>16</v>
@@ -1484,13 +1976,13 @@
         <v>32</v>
       </c>
       <c r="C40" s="11">
-        <v>570510586</v>
+        <v>561910066</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F40" s="11" t="s">
         <v>16</v>
@@ -1501,13 +1993,13 @@
         <v>33</v>
       </c>
       <c r="C41" s="11">
-        <v>570510587</v>
+        <v>561910069</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F41" s="11" t="s">
         <v>16</v>
@@ -1518,13 +2010,13 @@
         <v>34</v>
       </c>
       <c r="C42" s="11">
-        <v>570510589</v>
+        <v>561910081</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F42" s="11" t="s">
         <v>16</v>
@@ -1535,13 +2027,13 @@
         <v>35</v>
       </c>
       <c r="C43" s="11">
-        <v>570510593</v>
+        <v>561910102</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F43" s="11" t="s">
         <v>16</v>
@@ -1552,13 +2044,13 @@
         <v>36</v>
       </c>
       <c r="C44" s="11">
-        <v>570510595</v>
+        <v>561910119</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F44" s="11" t="s">
         <v>16</v>
@@ -1569,13 +2061,13 @@
         <v>37</v>
       </c>
       <c r="C45" s="11">
-        <v>570510596</v>
+        <v>561910121</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F45" s="11" t="s">
         <v>16</v>
@@ -1586,13 +2078,13 @@
         <v>38</v>
       </c>
       <c r="C46" s="11">
-        <v>570510597</v>
+        <v>570110245</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F46" s="11" t="s">
         <v>16</v>
@@ -1603,13 +2095,13 @@
         <v>39</v>
       </c>
       <c r="C47" s="11">
-        <v>570510598</v>
+        <v>570110246</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F47" s="11" t="s">
         <v>16</v>
@@ -1620,13 +2112,13 @@
         <v>40</v>
       </c>
       <c r="C48" s="11">
-        <v>570510599</v>
+        <v>570110247</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F48" s="11" t="s">
         <v>16</v>
@@ -1637,13 +2129,13 @@
         <v>41</v>
       </c>
       <c r="C49" s="11">
-        <v>570510606</v>
+        <v>570110248</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F49" s="11" t="s">
         <v>16</v>
@@ -1654,13 +2146,13 @@
         <v>42</v>
       </c>
       <c r="C50" s="11">
-        <v>570510610</v>
+        <v>570110250</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F50" s="11" t="s">
         <v>16</v>
@@ -1671,13 +2163,13 @@
         <v>43</v>
       </c>
       <c r="C51" s="11">
-        <v>570510612</v>
+        <v>570110251</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F51" s="11" t="s">
         <v>16</v>
@@ -1688,13 +2180,13 @@
         <v>44</v>
       </c>
       <c r="C52" s="11">
-        <v>570510613</v>
+        <v>570110252</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F52" s="11" t="s">
         <v>16</v>
@@ -1705,13 +2197,13 @@
         <v>45</v>
       </c>
       <c r="C53" s="11">
-        <v>570510614</v>
+        <v>570110253</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F53" s="11" t="s">
         <v>16</v>
@@ -1722,13 +2214,13 @@
         <v>46</v>
       </c>
       <c r="C54" s="11">
-        <v>570510680</v>
+        <v>570110402</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F54" s="11" t="s">
         <v>16</v>
@@ -1739,13 +2231,13 @@
         <v>47</v>
       </c>
       <c r="C55" s="11">
-        <v>571610172</v>
+        <v>570110418</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F55" s="11" t="s">
         <v>16</v>
@@ -1756,13 +2248,13 @@
         <v>48</v>
       </c>
       <c r="C56" s="11">
-        <v>571610216</v>
+        <v>570210134</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F56" s="11" t="s">
         <v>16</v>
@@ -1773,13 +2265,13 @@
         <v>49</v>
       </c>
       <c r="C57" s="11">
-        <v>571611036</v>
+        <v>570810005</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F57" s="11" t="s">
         <v>16</v>
@@ -1790,15 +2282,1435 @@
         <v>50</v>
       </c>
       <c r="C58" s="11">
-        <v>571611099</v>
+        <v>570810024</v>
       </c>
       <c r="D58" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B59" s="10">
+        <v>51</v>
+      </c>
+      <c r="C59" s="11">
+        <v>570810049</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B60" s="10">
+        <v>52</v>
+      </c>
+      <c r="C60" s="11">
+        <v>570810052</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B61" s="10">
+        <v>53</v>
+      </c>
+      <c r="C61" s="11">
+        <v>570810062</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B62" s="10">
+        <v>54</v>
+      </c>
+      <c r="C62" s="11">
+        <v>570810064</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="E62" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="F62" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B63" s="10">
+        <v>55</v>
+      </c>
+      <c r="C63" s="11">
+        <v>570810067</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B64" s="10">
+        <v>56</v>
+      </c>
+      <c r="C64" s="11">
+        <v>570810080</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="E64" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="F64" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B65" s="10">
+        <v>57</v>
+      </c>
+      <c r="C65" s="11">
+        <v>570810083</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="F65" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B66" s="10">
+        <v>58</v>
+      </c>
+      <c r="C66" s="11">
+        <v>570810090</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="F66" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B67" s="10">
+        <v>59</v>
+      </c>
+      <c r="C67" s="11">
+        <v>570810101</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E67" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F67" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B68" s="10">
+        <v>60</v>
+      </c>
+      <c r="C68" s="11">
+        <v>570810172</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="E68" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="F68" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B69" s="10">
+        <v>61</v>
+      </c>
+      <c r="C69" s="11">
+        <v>570810209</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="F69" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B70" s="10">
+        <v>62</v>
+      </c>
+      <c r="C70" s="11">
+        <v>570810210</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="E70" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F70" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B71" s="10">
+        <v>63</v>
+      </c>
+      <c r="C71" s="11">
+        <v>570810351</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="E71" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="F71" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B72" s="10">
+        <v>64</v>
+      </c>
+      <c r="C72" s="11">
+        <v>570810352</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E72" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="F72" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="B73" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+    </row>
+    <row r="74" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B74" s="10">
+        <v>65</v>
+      </c>
+      <c r="C74" s="11">
+        <v>570810360</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="E74" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="F74" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B75" s="10">
+        <v>66</v>
+      </c>
+      <c r="C75" s="11">
+        <v>570810361</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="E75" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="F75" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B76" s="10">
+        <v>67</v>
+      </c>
+      <c r="C76" s="11">
+        <v>570810362</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="E76" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="F76" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B77" s="10">
+        <v>68</v>
+      </c>
+      <c r="C77" s="11">
+        <v>570810366</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E77" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="F77" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B78" s="10">
+        <v>69</v>
+      </c>
+      <c r="C78" s="11">
+        <v>570810368</v>
+      </c>
+      <c r="D78" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E78" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="F78" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B79" s="10">
+        <v>70</v>
+      </c>
+      <c r="C79" s="11">
+        <v>571410002</v>
+      </c>
+      <c r="D79" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="E79" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="F79" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B80" s="10">
+        <v>71</v>
+      </c>
+      <c r="C80" s="11">
+        <v>571410013</v>
+      </c>
+      <c r="D80" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="E80" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="F80" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B81" s="10">
+        <v>72</v>
+      </c>
+      <c r="C81" s="11">
+        <v>571410015</v>
+      </c>
+      <c r="D81" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="E81" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="F81" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B82" s="10">
+        <v>73</v>
+      </c>
+      <c r="C82" s="11">
+        <v>571410033</v>
+      </c>
+      <c r="D82" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="E82" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="F82" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B83" s="10">
+        <v>74</v>
+      </c>
+      <c r="C83" s="11">
+        <v>571410037</v>
+      </c>
+      <c r="D83" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="E83" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="F83" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B84" s="10">
+        <v>75</v>
+      </c>
+      <c r="C84" s="11">
+        <v>571410038</v>
+      </c>
+      <c r="D84" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="E84" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F84" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B85" s="10">
+        <v>76</v>
+      </c>
+      <c r="C85" s="11">
+        <v>571410051</v>
+      </c>
+      <c r="D85" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E85" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="F85" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B86" s="10">
+        <v>77</v>
+      </c>
+      <c r="C86" s="11">
+        <v>571410052</v>
+      </c>
+      <c r="D86" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="E86" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="F86" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B87" s="10">
+        <v>78</v>
+      </c>
+      <c r="C87" s="11">
+        <v>571410055</v>
+      </c>
+      <c r="D87" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="E87" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="F87" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B88" s="10">
+        <v>79</v>
+      </c>
+      <c r="C88" s="11">
+        <v>571410057</v>
+      </c>
+      <c r="D88" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="E88" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="F88" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B89" s="10">
+        <v>80</v>
+      </c>
+      <c r="C89" s="11">
+        <v>571610008</v>
+      </c>
+      <c r="D89" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="E89" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="F89" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B90" s="10">
+        <v>81</v>
+      </c>
+      <c r="C90" s="11">
+        <v>571610013</v>
+      </c>
+      <c r="D90" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="E90" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="F90" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B91" s="10">
+        <v>82</v>
+      </c>
+      <c r="C91" s="11">
+        <v>571610020</v>
+      </c>
+      <c r="D91" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="E91" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="F91" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B92" s="10">
+        <v>83</v>
+      </c>
+      <c r="C92" s="11">
+        <v>571610021</v>
+      </c>
+      <c r="D92" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E92" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="F92" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B93" s="10">
+        <v>84</v>
+      </c>
+      <c r="C93" s="11">
+        <v>571610022</v>
+      </c>
+      <c r="D93" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="E93" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="F93" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B94" s="10">
+        <v>85</v>
+      </c>
+      <c r="C94" s="11">
+        <v>571610024</v>
+      </c>
+      <c r="D94" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="E94" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="F94" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B95" s="10">
+        <v>86</v>
+      </c>
+      <c r="C95" s="11">
+        <v>571610025</v>
+      </c>
+      <c r="D95" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="E95" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="F95" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B96" s="10">
+        <v>87</v>
+      </c>
+      <c r="C96" s="11">
+        <v>571610152</v>
+      </c>
+      <c r="D96" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="E96" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="F96" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B97" s="10">
+        <v>88</v>
+      </c>
+      <c r="C97" s="11">
+        <v>571610154</v>
+      </c>
+      <c r="D97" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="E97" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="F97" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B98" s="10">
+        <v>89</v>
+      </c>
+      <c r="C98" s="11">
+        <v>571610162</v>
+      </c>
+      <c r="D98" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="E98" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="F98" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B99" s="10">
+        <v>90</v>
+      </c>
+      <c r="C99" s="11">
+        <v>571610170</v>
+      </c>
+      <c r="D99" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="E99" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="F99" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B100" s="10">
+        <v>91</v>
+      </c>
+      <c r="C100" s="11">
+        <v>571610175</v>
+      </c>
+      <c r="D100" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="E100" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="F100" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B101" s="10">
+        <v>92</v>
+      </c>
+      <c r="C101" s="11">
+        <v>571610187</v>
+      </c>
+      <c r="D101" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="E101" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="F101" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B102" s="10">
+        <v>93</v>
+      </c>
+      <c r="C102" s="11">
+        <v>571610190</v>
+      </c>
+      <c r="D102" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="E102" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="F102" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B103" s="10">
+        <v>94</v>
+      </c>
+      <c r="C103" s="11">
+        <v>571610198</v>
+      </c>
+      <c r="D103" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="E103" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="F103" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B104" s="10">
+        <v>95</v>
+      </c>
+      <c r="C104" s="11">
+        <v>571610200</v>
+      </c>
+      <c r="D104" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="E104" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="F104" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B105" s="10">
+        <v>96</v>
+      </c>
+      <c r="C105" s="11">
+        <v>571610212</v>
+      </c>
+      <c r="D105" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="E105" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="F105" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B106" s="10">
+        <v>97</v>
+      </c>
+      <c r="C106" s="11">
+        <v>571610290</v>
+      </c>
+      <c r="D106" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="E106" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="F106" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B107" s="10">
+        <v>98</v>
+      </c>
+      <c r="C107" s="11">
+        <v>571610326</v>
+      </c>
+      <c r="D107" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="E107" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="F107" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B108" s="10">
+        <v>99</v>
+      </c>
+      <c r="C108" s="11">
+        <v>571910213</v>
+      </c>
+      <c r="D108" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="E108" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="F108" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="B109" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+    </row>
+    <row r="110" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B110" s="10">
+        <v>100</v>
+      </c>
+      <c r="C110" s="11">
+        <v>571910220</v>
+      </c>
+      <c r="D110" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="E110" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="F110" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B111" s="10">
+        <v>101</v>
+      </c>
+      <c r="C111" s="11">
+        <v>571910224</v>
+      </c>
+      <c r="D111" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="E111" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="F111" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B112" s="10">
+        <v>102</v>
+      </c>
+      <c r="C112" s="11">
+        <v>571910226</v>
+      </c>
+      <c r="D112" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="E112" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="F112" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B113" s="10">
+        <v>103</v>
+      </c>
+      <c r="C113" s="11">
+        <v>571910228</v>
+      </c>
+      <c r="D113" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="E113" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="F113" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B114" s="10">
+        <v>104</v>
+      </c>
+      <c r="C114" s="11">
+        <v>571910232</v>
+      </c>
+      <c r="D114" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="E114" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="F114" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B115" s="10">
+        <v>105</v>
+      </c>
+      <c r="C115" s="11">
+        <v>571910244</v>
+      </c>
+      <c r="D115" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="E115" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="F115" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B116" s="10">
+        <v>106</v>
+      </c>
+      <c r="C116" s="11">
+        <v>571910249</v>
+      </c>
+      <c r="D116" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="E116" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="F116" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B117" s="10">
+        <v>107</v>
+      </c>
+      <c r="C117" s="11">
+        <v>571910250</v>
+      </c>
+      <c r="D117" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="E117" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="F117" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B118" s="10">
+        <v>108</v>
+      </c>
+      <c r="C118" s="11">
+        <v>571910252</v>
+      </c>
+      <c r="D118" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="E118" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="F118" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B119" s="10">
+        <v>109</v>
+      </c>
+      <c r="C119" s="11">
+        <v>571910254</v>
+      </c>
+      <c r="D119" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="E119" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="F119" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B120" s="10">
+        <v>110</v>
+      </c>
+      <c r="C120" s="11">
+        <v>571910257</v>
+      </c>
+      <c r="D120" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="E120" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="F120" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B121" s="10">
+        <v>111</v>
+      </c>
+      <c r="C121" s="11">
+        <v>571910263</v>
+      </c>
+      <c r="D121" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="E121" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="F121" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B122" s="10">
         <v>112</v>
       </c>
-      <c r="E58" s="13" t="s">
+      <c r="C122" s="11">
+        <v>571910267</v>
+      </c>
+      <c r="D122" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="E122" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="F122" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B123" s="10">
         <v>113</v>
       </c>
-      <c r="F58" s="11" t="s">
+      <c r="C123" s="11">
+        <v>571910268</v>
+      </c>
+      <c r="D123" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="E123" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="F123" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B124" s="10">
+        <v>114</v>
+      </c>
+      <c r="C124" s="11">
+        <v>571910269</v>
+      </c>
+      <c r="D124" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="E124" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="F124" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B125" s="10">
+        <v>115</v>
+      </c>
+      <c r="C125" s="11">
+        <v>571910270</v>
+      </c>
+      <c r="D125" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="E125" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="F125" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B126" s="10">
+        <v>116</v>
+      </c>
+      <c r="C126" s="11">
+        <v>571910271</v>
+      </c>
+      <c r="D126" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="E126" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="F126" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B127" s="10">
+        <v>117</v>
+      </c>
+      <c r="C127" s="11">
+        <v>571910272</v>
+      </c>
+      <c r="D127" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="E127" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="F127" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B128" s="10">
+        <v>118</v>
+      </c>
+      <c r="C128" s="11">
+        <v>571910274</v>
+      </c>
+      <c r="D128" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="E128" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="F128" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B129" s="10">
+        <v>119</v>
+      </c>
+      <c r="C129" s="11">
+        <v>571910277</v>
+      </c>
+      <c r="D129" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="E129" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="F129" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B130" s="10">
+        <v>120</v>
+      </c>
+      <c r="C130" s="11">
+        <v>571910278</v>
+      </c>
+      <c r="D130" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="E130" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="F130" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B131" s="10">
+        <v>121</v>
+      </c>
+      <c r="C131" s="11">
+        <v>571910279</v>
+      </c>
+      <c r="D131" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="E131" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="F131" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B132" s="10">
+        <v>122</v>
+      </c>
+      <c r="C132" s="11">
+        <v>571910281</v>
+      </c>
+      <c r="D132" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="E132" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="F132" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B133" s="10">
+        <v>123</v>
+      </c>
+      <c r="C133" s="11">
+        <v>571910282</v>
+      </c>
+      <c r="D133" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="E133" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="F133" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B134" s="10">
+        <v>124</v>
+      </c>
+      <c r="C134" s="11">
+        <v>571910283</v>
+      </c>
+      <c r="D134" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="E134" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="F134" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B135" s="10">
+        <v>125</v>
+      </c>
+      <c r="C135" s="11">
+        <v>571910284</v>
+      </c>
+      <c r="D135" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="E135" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="F135" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B136" s="10">
+        <v>126</v>
+      </c>
+      <c r="C136" s="11">
+        <v>571910285</v>
+      </c>
+      <c r="D136" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="E136" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="F136" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B137" s="10">
+        <v>127</v>
+      </c>
+      <c r="C137" s="11">
+        <v>571910288</v>
+      </c>
+      <c r="D137" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="E137" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="F137" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B138" s="10">
+        <v>128</v>
+      </c>
+      <c r="C138" s="11">
+        <v>571910289</v>
+      </c>
+      <c r="D138" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="E138" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="F138" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B139" s="10">
+        <v>129</v>
+      </c>
+      <c r="C139" s="11">
+        <v>571910291</v>
+      </c>
+      <c r="D139" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="E139" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="F139" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B140" s="10">
+        <v>130</v>
+      </c>
+      <c r="C140" s="11">
+        <v>571910295</v>
+      </c>
+      <c r="D140" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="E140" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="F140" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B141" s="10">
+        <v>131</v>
+      </c>
+      <c r="C141" s="11">
+        <v>572010015</v>
+      </c>
+      <c r="D141" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="E141" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="F141" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" customHeight="1" ht="19.8">
+      <c r="B142" s="10">
+        <v>132</v>
+      </c>
+      <c r="C142" s="11">
+        <v>572010041</v>
+      </c>
+      <c r="D142" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="E142" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="F142" s="11" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1816,6 +3728,8 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="D109:E109"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.75" right="0.62" top="1" bottom="1.1" header="0.71" footer="0.5"/>
